--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_24_6.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_24_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3147683.179843615</v>
+        <v>-3148310.222266543</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15146261.88862854</v>
+        <v>15146261.88862855</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736553</v>
+        <v>504792.0292736549</v>
       </c>
     </row>
     <row r="9">
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>146.4499769106676</v>
       </c>
       <c r="F11" t="n">
         <v>146.4499769106676</v>
@@ -1385,7 +1385,7 @@
         <v>146.4499769106676</v>
       </c>
       <c r="H11" t="n">
-        <v>9.813007406590472</v>
+        <v>10.9582211502643</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>4.260172663732887</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1430,7 +1430,7 @@
         <v>118.0349185126516</v>
       </c>
       <c r="W11" t="n">
-        <v>143.3350179906085</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1503,13 +1503,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0.7169426335314492</v>
+        <v>0.7169426335313923</v>
       </c>
       <c r="V12" t="n">
-        <v>10.53710347578291</v>
+        <v>10.53710347578286</v>
       </c>
       <c r="W12" t="n">
-        <v>23.3281472286566</v>
+        <v>23.32814722865655</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1579,22 +1579,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>14.27407766563947</v>
+        <v>14.27407766563941</v>
       </c>
       <c r="U13" t="n">
-        <v>68.73102716155481</v>
+        <v>68.73102716155475</v>
       </c>
       <c r="V13" t="n">
-        <v>42.55338854679516</v>
+        <v>42.55338854679511</v>
       </c>
       <c r="W13" t="n">
-        <v>67.72027461740842</v>
+        <v>67.72027461740836</v>
       </c>
       <c r="X13" t="n">
-        <v>13.36537661321154</v>
+        <v>13.36537661321148</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.240244369279225</v>
+        <v>4.240244369279168</v>
       </c>
     </row>
     <row r="14">
@@ -1610,19 +1610,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>146.4499769106676</v>
       </c>
       <c r="E14" t="n">
-        <v>146.4499769106677</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>20.41020060533</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>146.4499769106677</v>
+        <v>10.95980415968022</v>
       </c>
       <c r="H14" t="n">
-        <v>108.582939057586</v>
+        <v>108.5829390575859</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,19 +1658,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>4.260172663732881</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>36.72024109999225</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>118.0349185126516</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>143.3350179906085</v>
       </c>
       <c r="X14" t="n">
-        <v>146.4499769106677</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1740,13 +1740,13 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0.7169426335314776</v>
+        <v>0.7169426335314492</v>
       </c>
       <c r="V15" t="n">
-        <v>10.53710347578294</v>
+        <v>10.53710347578291</v>
       </c>
       <c r="W15" t="n">
-        <v>23.32814722865663</v>
+        <v>23.3281472286566</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1816,22 +1816,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>14.27407766563949</v>
+        <v>14.27407766563946</v>
       </c>
       <c r="U16" t="n">
-        <v>68.73102716155483</v>
+        <v>68.73102716155481</v>
       </c>
       <c r="V16" t="n">
-        <v>42.55338854679519</v>
+        <v>42.55338854679516</v>
       </c>
       <c r="W16" t="n">
-        <v>67.72027461740845</v>
+        <v>67.72027461740842</v>
       </c>
       <c r="X16" t="n">
-        <v>13.36537661321157</v>
+        <v>13.36537661321154</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.240244369279253</v>
+        <v>4.240244369279225</v>
       </c>
     </row>
     <row r="17">
@@ -1841,22 +1841,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>65.94560221488661</v>
+        <v>65.94560221488655</v>
       </c>
       <c r="C17" t="n">
-        <v>53.95691917256835</v>
+        <v>53.95691917256829</v>
       </c>
       <c r="D17" t="n">
-        <v>44.93822321709632</v>
+        <v>44.93822321709627</v>
       </c>
       <c r="E17" t="n">
-        <v>66.68036078700186</v>
+        <v>66.6803607870018</v>
       </c>
       <c r="F17" t="n">
-        <v>85.85217687497902</v>
+        <v>85.85217687497897</v>
       </c>
       <c r="G17" t="n">
-        <v>87.26445761256156</v>
+        <v>87.2644576125615</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>9.451979455065725</v>
+        <v>9.451979455065668</v>
       </c>
       <c r="W17" t="n">
-        <v>34.75207893302263</v>
+        <v>34.75207893302257</v>
       </c>
       <c r="X17" t="n">
-        <v>54.05233716576925</v>
+        <v>54.05233716576919</v>
       </c>
       <c r="Y17" t="n">
-        <v>65.44893496196801</v>
+        <v>65.44893496196795</v>
       </c>
     </row>
     <row r="18">
@@ -2087,7 +2087,7 @@
         <v>44.93822321709627</v>
       </c>
       <c r="E20" t="n">
-        <v>66.6803607870022</v>
+        <v>66.6803607870018</v>
       </c>
       <c r="F20" t="n">
         <v>85.85217687497897</v>
@@ -2330,7 +2330,7 @@
         <v>85.85217687497897</v>
       </c>
       <c r="G23" t="n">
-        <v>87.2644576125615</v>
+        <v>87.26445761256149</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>216.6184134117434</v>
       </c>
       <c r="C26" t="n">
-        <v>204.6297303694252</v>
+        <v>204.6297303694251</v>
       </c>
       <c r="D26" t="n">
         <v>195.6110344139531</v>
@@ -2606,19 +2606,19 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>46.35004480300383</v>
+        <v>46.35004480300379</v>
       </c>
       <c r="U26" t="n">
-        <v>78.81011323926319</v>
+        <v>78.81011323926316</v>
       </c>
       <c r="V26" t="n">
-        <v>160.1247906519226</v>
+        <v>160.1247906519225</v>
       </c>
       <c r="W26" t="n">
-        <v>185.4248901298795</v>
+        <v>185.4248901298794</v>
       </c>
       <c r="X26" t="n">
-        <v>204.7251483626261</v>
+        <v>204.725148362626</v>
       </c>
       <c r="Y26" t="n">
         <v>216.1217461588248</v>
@@ -2685,22 +2685,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>12.1899930659624</v>
+        <v>12.18999306596237</v>
       </c>
       <c r="U27" t="n">
-        <v>42.80681477280239</v>
+        <v>42.80681477280236</v>
       </c>
       <c r="V27" t="n">
-        <v>52.62697561505385</v>
+        <v>52.62697561505382</v>
       </c>
       <c r="W27" t="n">
-        <v>65.41801936792754</v>
+        <v>65.41801936792751</v>
       </c>
       <c r="X27" t="n">
-        <v>22.45312752988784</v>
+        <v>22.45312752988781</v>
       </c>
       <c r="Y27" t="n">
-        <v>17.11142237582143</v>
+        <v>17.11142237582141</v>
       </c>
     </row>
     <row r="28">
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8.235124286440509</v>
+        <v>8.235124286440481</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>34.01527457283489</v>
+        <v>34.01527457283485</v>
       </c>
       <c r="T28" t="n">
-        <v>56.3639498049104</v>
+        <v>56.36394980491037</v>
       </c>
       <c r="U28" t="n">
         <v>110.8208993008257</v>
       </c>
       <c r="V28" t="n">
-        <v>84.6432606860661</v>
+        <v>84.64326068606607</v>
       </c>
       <c r="W28" t="n">
-        <v>109.8101467566794</v>
+        <v>109.8101467566793</v>
       </c>
       <c r="X28" t="n">
-        <v>55.45524875248248</v>
+        <v>55.45524875248245</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.33011650855016</v>
+        <v>46.33011650855013</v>
       </c>
     </row>
     <row r="29">
@@ -2798,16 +2798,16 @@
         <v>195.6110344139531</v>
       </c>
       <c r="E29" t="n">
-        <v>217.3531719838586</v>
+        <v>217.3531719838587</v>
       </c>
       <c r="F29" t="n">
         <v>236.5249880718358</v>
       </c>
       <c r="G29" t="n">
-        <v>237.9372688094183</v>
+        <v>237.9372688094184</v>
       </c>
       <c r="H29" t="n">
-        <v>150.6728111968568</v>
+        <v>150.6728111968569</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2843,10 +2843,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>46.35004480300377</v>
+        <v>46.35004480300379</v>
       </c>
       <c r="U29" t="n">
-        <v>78.81011323926313</v>
+        <v>78.81011323926316</v>
       </c>
       <c r="V29" t="n">
         <v>160.1247906519225</v>
@@ -2922,22 +2922,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>12.18999306596234</v>
+        <v>12.18999306596237</v>
       </c>
       <c r="U30" t="n">
-        <v>42.80681477280233</v>
+        <v>42.80681477280236</v>
       </c>
       <c r="V30" t="n">
-        <v>52.62697561505379</v>
+        <v>52.62697561505382</v>
       </c>
       <c r="W30" t="n">
-        <v>65.41801936792749</v>
+        <v>65.41801936792751</v>
       </c>
       <c r="X30" t="n">
-        <v>22.45312752988778</v>
+        <v>22.45312752988781</v>
       </c>
       <c r="Y30" t="n">
-        <v>17.11142237582138</v>
+        <v>17.11142237582141</v>
       </c>
     </row>
     <row r="31">
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>8.235124286440453</v>
+        <v>8.235124286440481</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>34.01527457283483</v>
+        <v>34.01527457283485</v>
       </c>
       <c r="T31" t="n">
-        <v>56.36394980491035</v>
+        <v>56.36394980491037</v>
       </c>
       <c r="U31" t="n">
         <v>110.8208993008257</v>
       </c>
       <c r="V31" t="n">
-        <v>84.64326068606604</v>
+        <v>84.64326068606607</v>
       </c>
       <c r="W31" t="n">
         <v>109.8101467566793</v>
       </c>
       <c r="X31" t="n">
-        <v>55.45524875248242</v>
+        <v>55.45524875248245</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.33011650855011</v>
+        <v>46.33011650855013</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>216.6184134117435</v>
+        <v>216.6184134117434</v>
       </c>
       <c r="C32" t="n">
-        <v>204.6297303694252</v>
+        <v>204.6297303694251</v>
       </c>
       <c r="D32" t="n">
-        <v>195.6110344139532</v>
+        <v>195.6110344139531</v>
       </c>
       <c r="E32" t="n">
-        <v>217.3531719838587</v>
+        <v>217.3531719838586</v>
       </c>
       <c r="F32" t="n">
-        <v>236.5249880718359</v>
+        <v>236.5249880718358</v>
       </c>
       <c r="G32" t="n">
-        <v>237.9372688094184</v>
+        <v>237.9372688094183</v>
       </c>
       <c r="H32" t="n">
-        <v>150.6728111968569</v>
+        <v>150.6728111968568</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3080,22 +3080,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>46.35004480300387</v>
+        <v>46.35004480300375</v>
       </c>
       <c r="U32" t="n">
-        <v>78.81011323926325</v>
+        <v>78.81011323926313</v>
       </c>
       <c r="V32" t="n">
-        <v>160.1247906519226</v>
+        <v>160.1247906519225</v>
       </c>
       <c r="W32" t="n">
-        <v>185.4248901298795</v>
+        <v>185.4248901298794</v>
       </c>
       <c r="X32" t="n">
-        <v>204.7251483626261</v>
+        <v>204.725148362626</v>
       </c>
       <c r="Y32" t="n">
-        <v>216.1217461588249</v>
+        <v>216.1217461588248</v>
       </c>
     </row>
     <row r="33">
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>12.18999306596246</v>
+        <v>12.18999306596234</v>
       </c>
       <c r="U33" t="n">
-        <v>42.80681477280245</v>
+        <v>42.80681477280233</v>
       </c>
       <c r="V33" t="n">
-        <v>52.62697561505391</v>
+        <v>52.62697561505379</v>
       </c>
       <c r="W33" t="n">
-        <v>65.4180193679276</v>
+        <v>65.41801936792749</v>
       </c>
       <c r="X33" t="n">
-        <v>22.45312752988789</v>
+        <v>22.45312752988778</v>
       </c>
       <c r="Y33" t="n">
-        <v>17.11142237582149</v>
+        <v>17.11142237582138</v>
       </c>
     </row>
     <row r="34">
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>8.235124286440566</v>
+        <v>8.235124286440453</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>34.01527457283495</v>
+        <v>34.01527457283483</v>
       </c>
       <c r="T34" t="n">
-        <v>56.36394980491046</v>
+        <v>56.36394980491034</v>
       </c>
       <c r="U34" t="n">
-        <v>110.8208993008258</v>
+        <v>110.8208993008257</v>
       </c>
       <c r="V34" t="n">
-        <v>84.64326068606616</v>
+        <v>84.64326068606604</v>
       </c>
       <c r="W34" t="n">
-        <v>109.8101467566794</v>
+        <v>109.8101467566793</v>
       </c>
       <c r="X34" t="n">
-        <v>55.45524875248253</v>
+        <v>55.45524875248242</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.33011650855022</v>
+        <v>46.33011650855011</v>
       </c>
     </row>
     <row r="35">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>172.8997156890574</v>
+        <v>172.8997156890573</v>
       </c>
       <c r="C38" t="n">
         <v>160.9110326467391</v>
       </c>
       <c r="D38" t="n">
-        <v>151.8923366912671</v>
+        <v>151.892336691267</v>
       </c>
       <c r="E38" t="n">
         <v>173.6344742611726</v>
       </c>
       <c r="F38" t="n">
-        <v>192.8062903491498</v>
+        <v>192.8062903491497</v>
       </c>
       <c r="G38" t="n">
         <v>194.2185710867323</v>
       </c>
       <c r="H38" t="n">
-        <v>106.9541134741709</v>
+        <v>106.9541134741708</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,10 +3554,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>2.63134708031778</v>
+        <v>2.63134708031771</v>
       </c>
       <c r="U38" t="n">
-        <v>35.09141551657714</v>
+        <v>35.09141551657709</v>
       </c>
       <c r="V38" t="n">
         <v>116.4060929292365</v>
@@ -3569,7 +3569,7 @@
         <v>161.00645063994</v>
       </c>
       <c r="Y38" t="n">
-        <v>172.4030484361388</v>
+        <v>172.4030484361387</v>
       </c>
     </row>
     <row r="39">
@@ -3639,10 +3639,10 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>8.908277892367806</v>
+        <v>8.908277892367749</v>
       </c>
       <c r="W39" t="n">
-        <v>21.6993216452415</v>
+        <v>21.69932164524144</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3712,22 +3712,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>12.64525208222436</v>
+        <v>12.6452520822243</v>
       </c>
       <c r="U40" t="n">
-        <v>67.1022015781397</v>
+        <v>67.10220157813964</v>
       </c>
       <c r="V40" t="n">
-        <v>40.92456296338005</v>
+        <v>40.92456296338</v>
       </c>
       <c r="W40" t="n">
-        <v>66.09144903399331</v>
+        <v>66.09144903399326</v>
       </c>
       <c r="X40" t="n">
-        <v>11.73655102979643</v>
+        <v>11.73655102979637</v>
       </c>
       <c r="Y40" t="n">
-        <v>2.611418785864117</v>
+        <v>2.611418785864061</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>172.8997156890573</v>
+        <v>172.8997156890574</v>
       </c>
       <c r="C41" t="n">
-        <v>160.9110326467391</v>
+        <v>160.9110326467392</v>
       </c>
       <c r="D41" t="n">
-        <v>151.892336691267</v>
+        <v>151.8923366912671</v>
       </c>
       <c r="E41" t="n">
-        <v>173.6344742611726</v>
+        <v>173.6344742611727</v>
       </c>
       <c r="F41" t="n">
-        <v>192.8062903491497</v>
+        <v>192.8062903491498</v>
       </c>
       <c r="G41" t="n">
-        <v>194.2185710867323</v>
+        <v>194.2185710867324</v>
       </c>
       <c r="H41" t="n">
-        <v>106.9541134741708</v>
+        <v>106.9541134741709</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,10 +3791,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>2.631347080317723</v>
+        <v>2.631347080317803</v>
       </c>
       <c r="U41" t="n">
-        <v>35.09141551657708</v>
+        <v>35.09141551657716</v>
       </c>
       <c r="V41" t="n">
         <v>116.4060929292365</v>
@@ -3803,10 +3803,10 @@
         <v>141.7061924071934</v>
       </c>
       <c r="X41" t="n">
-        <v>161.00645063994</v>
+        <v>161.0064506399401</v>
       </c>
       <c r="Y41" t="n">
-        <v>172.4030484361387</v>
+        <v>172.4030484361388</v>
       </c>
     </row>
     <row r="42">
@@ -3876,10 +3876,10 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>8.908277892367749</v>
+        <v>8.908277892367835</v>
       </c>
       <c r="W42" t="n">
-        <v>21.69932164524144</v>
+        <v>21.69932164524153</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3949,22 +3949,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>12.6452520822243</v>
+        <v>12.64525208222438</v>
       </c>
       <c r="U43" t="n">
-        <v>67.10220157813964</v>
+        <v>67.10220157813973</v>
       </c>
       <c r="V43" t="n">
-        <v>40.92456296338</v>
+        <v>40.92456296338008</v>
       </c>
       <c r="W43" t="n">
-        <v>66.09144903399326</v>
+        <v>66.09144903399334</v>
       </c>
       <c r="X43" t="n">
-        <v>11.73655102979637</v>
+        <v>11.73655102979646</v>
       </c>
       <c r="Y43" t="n">
-        <v>2.611418785864061</v>
+        <v>2.611418785864146</v>
       </c>
     </row>
     <row r="44">
@@ -3974,19 +3974,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>172.8997156890573</v>
+        <v>172.8997156890574</v>
       </c>
       <c r="C44" t="n">
         <v>160.9110326467391</v>
       </c>
       <c r="D44" t="n">
-        <v>151.892336691267</v>
+        <v>151.8923366912671</v>
       </c>
       <c r="E44" t="n">
         <v>173.6344742611726</v>
       </c>
       <c r="F44" t="n">
-        <v>192.8062903491497</v>
+        <v>192.8062903491498</v>
       </c>
       <c r="G44" t="n">
         <v>194.2185710867323</v>
@@ -4028,10 +4028,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>2.631347080317723</v>
+        <v>2.631347080317774</v>
       </c>
       <c r="U44" t="n">
-        <v>35.09141551657708</v>
+        <v>35.09141551657714</v>
       </c>
       <c r="V44" t="n">
         <v>116.4060929292365</v>
@@ -4043,7 +4043,7 @@
         <v>161.00645063994</v>
       </c>
       <c r="Y44" t="n">
-        <v>172.4030484361387</v>
+        <v>172.4030484361388</v>
       </c>
     </row>
     <row r="45">
@@ -4113,10 +4113,10 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>8.908277892367749</v>
+        <v>8.908277892367806</v>
       </c>
       <c r="W45" t="n">
-        <v>21.69932164524144</v>
+        <v>21.6993216452415</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4186,22 +4186,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>12.6452520822243</v>
+        <v>12.64525208222436</v>
       </c>
       <c r="U46" t="n">
-        <v>67.10220157813964</v>
+        <v>67.1022015781397</v>
       </c>
       <c r="V46" t="n">
-        <v>40.92456296338</v>
+        <v>40.92456296338005</v>
       </c>
       <c r="W46" t="n">
-        <v>66.09144903399326</v>
+        <v>66.09144903399331</v>
       </c>
       <c r="X46" t="n">
-        <v>11.73655102979637</v>
+        <v>11.73655102979643</v>
       </c>
       <c r="Y46" t="n">
-        <v>2.611418785864061</v>
+        <v>2.611418785864117</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>317.4866660598491</v>
+        <v>466.5727172258506</v>
       </c>
       <c r="C11" t="n">
-        <v>317.4866660598491</v>
+        <v>466.5727172258506</v>
       </c>
       <c r="D11" t="n">
-        <v>317.4866660598491</v>
+        <v>466.5727172258506</v>
       </c>
       <c r="E11" t="n">
-        <v>317.4866660598491</v>
+        <v>318.6434476191155</v>
       </c>
       <c r="F11" t="n">
-        <v>169.5573964531141</v>
+        <v>170.7141780123806</v>
       </c>
       <c r="G11" t="n">
-        <v>21.62812684637914</v>
+        <v>22.78490840564563</v>
       </c>
       <c r="H11" t="n">
         <v>11.71599815285341</v>
       </c>
       <c r="I11" t="n">
-        <v>43.68216714370818</v>
+        <v>75.64118274439156</v>
       </c>
       <c r="J11" t="n">
-        <v>43.68216714370818</v>
+        <v>187.2071531304967</v>
       </c>
       <c r="K11" t="n">
-        <v>43.68216714370818</v>
+        <v>187.2071531304967</v>
       </c>
       <c r="L11" t="n">
-        <v>43.68216714370818</v>
+        <v>292.3748847250625</v>
       </c>
       <c r="M11" t="n">
-        <v>43.68216714370818</v>
+        <v>292.3748847250625</v>
       </c>
       <c r="N11" t="n">
-        <v>164.5982823192324</v>
+        <v>292.3748847250625</v>
       </c>
       <c r="O11" t="n">
-        <v>279.8345213029928</v>
+        <v>292.3748847250625</v>
       </c>
       <c r="P11" t="n">
-        <v>381.424716334963</v>
+        <v>381.4247163349626</v>
       </c>
       <c r="Q11" t="n">
-        <v>471.7245388996656</v>
+        <v>471.7245388996653</v>
       </c>
       <c r="R11" t="n">
-        <v>544.1309342247922</v>
+        <v>544.1309342247921</v>
       </c>
       <c r="S11" t="n">
         <v>585.7999076426704</v>
       </c>
       <c r="T11" t="n">
-        <v>581.4967029318291</v>
+        <v>585.7999076426704</v>
       </c>
       <c r="U11" t="n">
-        <v>581.4967029318291</v>
+        <v>585.7999076426704</v>
       </c>
       <c r="V11" t="n">
-        <v>462.2695125150092</v>
+        <v>466.5727172258506</v>
       </c>
       <c r="W11" t="n">
-        <v>317.4866660598491</v>
+        <v>466.5727172258506</v>
       </c>
       <c r="X11" t="n">
-        <v>317.4866660598491</v>
+        <v>466.5727172258506</v>
       </c>
       <c r="Y11" t="n">
-        <v>317.4866660598491</v>
+        <v>466.5727172258506</v>
       </c>
     </row>
     <row r="12">
@@ -5103,58 +5103,58 @@
         <v>11.71599815285341</v>
       </c>
       <c r="E12" t="n">
-        <v>11.71599815285341</v>
+        <v>46.64750657504614</v>
       </c>
       <c r="F12" t="n">
-        <v>11.71599815285341</v>
+        <v>46.64750657504614</v>
       </c>
       <c r="G12" t="n">
-        <v>11.71599815285341</v>
+        <v>46.64750657504614</v>
       </c>
       <c r="H12" t="n">
-        <v>11.71599815285341</v>
+        <v>46.64750657504614</v>
       </c>
       <c r="I12" t="n">
-        <v>11.71599815285341</v>
+        <v>46.64750657504614</v>
       </c>
       <c r="J12" t="n">
-        <v>11.71599815285341</v>
+        <v>46.64750657504614</v>
       </c>
       <c r="K12" t="n">
-        <v>11.71599815285341</v>
+        <v>46.64750657504614</v>
       </c>
       <c r="L12" t="n">
-        <v>11.71599815285341</v>
+        <v>46.64750657504614</v>
       </c>
       <c r="M12" t="n">
-        <v>11.71599815285341</v>
+        <v>46.64750657504614</v>
       </c>
       <c r="N12" t="n">
-        <v>11.71599815285341</v>
+        <v>46.64750657504614</v>
       </c>
       <c r="O12" t="n">
-        <v>11.71599815285341</v>
+        <v>46.64750657504614</v>
       </c>
       <c r="P12" t="n">
-        <v>11.71599815285341</v>
+        <v>46.64750657504614</v>
       </c>
       <c r="Q12" t="n">
-        <v>11.71599815285341</v>
+        <v>46.64750657504614</v>
       </c>
       <c r="R12" t="n">
-        <v>11.71599815285341</v>
+        <v>46.64750657504614</v>
       </c>
       <c r="S12" t="n">
-        <v>46.64750657504631</v>
+        <v>46.64750657504614</v>
       </c>
       <c r="T12" t="n">
-        <v>46.64750657504631</v>
+        <v>46.64750657504614</v>
       </c>
       <c r="U12" t="n">
-        <v>45.92332209673171</v>
+        <v>45.9233220967316</v>
       </c>
       <c r="V12" t="n">
-        <v>35.27978323230452</v>
+        <v>35.27978323230447</v>
       </c>
       <c r="W12" t="n">
         <v>11.71599815285341</v>
@@ -5185,61 +5185,61 @@
         <v>11.71599815285341</v>
       </c>
       <c r="F13" t="n">
-        <v>11.71599815285341</v>
+        <v>75.6885254344804</v>
       </c>
       <c r="G13" t="n">
-        <v>11.71599815285341</v>
+        <v>113.8053112657701</v>
       </c>
       <c r="H13" t="n">
-        <v>11.71599815285341</v>
+        <v>113.8053112657701</v>
       </c>
       <c r="I13" t="n">
-        <v>11.71599815285341</v>
+        <v>113.8053112657701</v>
       </c>
       <c r="J13" t="n">
-        <v>11.71599815285341</v>
+        <v>113.8053112657701</v>
       </c>
       <c r="K13" t="n">
-        <v>11.71599815285341</v>
+        <v>113.8053112657701</v>
       </c>
       <c r="L13" t="n">
-        <v>11.71599815285341</v>
+        <v>113.8053112657701</v>
       </c>
       <c r="M13" t="n">
-        <v>11.71599815285341</v>
+        <v>113.8053112657701</v>
       </c>
       <c r="N13" t="n">
-        <v>11.71599815285341</v>
+        <v>113.8053112657701</v>
       </c>
       <c r="O13" t="n">
-        <v>11.71599815285341</v>
+        <v>113.8053112657701</v>
       </c>
       <c r="P13" t="n">
-        <v>142.3317846486356</v>
+        <v>113.8053112657701</v>
       </c>
       <c r="Q13" t="n">
-        <v>224.7305324699126</v>
+        <v>224.7305324699123</v>
       </c>
       <c r="R13" t="n">
-        <v>224.7305324699126</v>
+        <v>224.7305324699123</v>
       </c>
       <c r="S13" t="n">
-        <v>224.7305324699126</v>
+        <v>224.7305324699123</v>
       </c>
       <c r="T13" t="n">
-        <v>210.31227220159</v>
+        <v>210.3122722015897</v>
       </c>
       <c r="U13" t="n">
-        <v>140.8869922404235</v>
+        <v>140.8869922404232</v>
       </c>
       <c r="V13" t="n">
-        <v>97.90377148608491</v>
+        <v>97.90377148608474</v>
       </c>
       <c r="W13" t="n">
-        <v>29.49945369072287</v>
+        <v>29.49945369072275</v>
       </c>
       <c r="X13" t="n">
-        <v>15.99907327333747</v>
+        <v>15.99907327333742</v>
       </c>
       <c r="Y13" t="n">
         <v>11.71599815285341</v>
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>437.8706380359356</v>
+        <v>280.3955134335946</v>
       </c>
       <c r="C14" t="n">
-        <v>437.8706380359356</v>
+        <v>280.3955134335946</v>
       </c>
       <c r="D14" t="n">
-        <v>437.8706380359356</v>
+        <v>132.4662438268597</v>
       </c>
       <c r="E14" t="n">
-        <v>289.9413684292005</v>
+        <v>132.4662438268597</v>
       </c>
       <c r="F14" t="n">
-        <v>269.3250041813924</v>
+        <v>132.4662438268597</v>
       </c>
       <c r="G14" t="n">
-        <v>121.3957345746575</v>
+        <v>121.3957345746574</v>
       </c>
       <c r="H14" t="n">
         <v>11.71599815285341</v>
       </c>
       <c r="I14" t="n">
-        <v>75.64118274439143</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="J14" t="n">
-        <v>75.64118274439143</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="K14" t="n">
-        <v>75.64118274439143</v>
+        <v>43.68216714370742</v>
       </c>
       <c r="L14" t="n">
-        <v>75.64118274439143</v>
+        <v>43.68216714370742</v>
       </c>
       <c r="M14" t="n">
-        <v>194.3412273780195</v>
+        <v>43.68216714370742</v>
       </c>
       <c r="N14" t="n">
-        <v>194.3412273780195</v>
+        <v>164.5982823192319</v>
       </c>
       <c r="O14" t="n">
-        <v>279.8345213029932</v>
+        <v>279.8345213029925</v>
       </c>
       <c r="P14" t="n">
-        <v>381.4247163349634</v>
+        <v>381.4247163349629</v>
       </c>
       <c r="Q14" t="n">
-        <v>471.7245388996659</v>
+        <v>471.7245388996655</v>
       </c>
       <c r="R14" t="n">
-        <v>544.1309342247926</v>
+        <v>544.1309342247922</v>
       </c>
       <c r="S14" t="n">
-        <v>585.7999076426706</v>
+        <v>585.7999076426704</v>
       </c>
       <c r="T14" t="n">
-        <v>585.7999076426706</v>
+        <v>581.4967029318291</v>
       </c>
       <c r="U14" t="n">
-        <v>585.7999076426706</v>
+        <v>544.4055503055743</v>
       </c>
       <c r="V14" t="n">
-        <v>585.7999076426706</v>
+        <v>425.1783598887544</v>
       </c>
       <c r="W14" t="n">
-        <v>585.7999076426706</v>
+        <v>280.3955134335946</v>
       </c>
       <c r="X14" t="n">
-        <v>437.8706380359356</v>
+        <v>280.3955134335946</v>
       </c>
       <c r="Y14" t="n">
-        <v>437.8706380359356</v>
+        <v>280.3955134335946</v>
       </c>
     </row>
     <row r="15">
@@ -5331,67 +5331,67 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>46.6475065750464</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="C15" t="n">
-        <v>46.6475065750464</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="D15" t="n">
-        <v>46.6475065750464</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="E15" t="n">
-        <v>46.6475065750464</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="F15" t="n">
-        <v>46.6475065750464</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="G15" t="n">
-        <v>46.6475065750464</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="H15" t="n">
-        <v>46.6475065750464</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="I15" t="n">
-        <v>46.6475065750464</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="J15" t="n">
-        <v>46.6475065750464</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="K15" t="n">
-        <v>46.6475065750464</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="L15" t="n">
-        <v>46.6475065750464</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="M15" t="n">
-        <v>46.6475065750464</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="N15" t="n">
-        <v>46.6475065750464</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="O15" t="n">
-        <v>46.6475065750464</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="P15" t="n">
-        <v>46.6475065750464</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="Q15" t="n">
-        <v>46.6475065750464</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="R15" t="n">
-        <v>46.6475065750464</v>
+        <v>46.64750657504631</v>
       </c>
       <c r="S15" t="n">
-        <v>46.6475065750464</v>
+        <v>46.64750657504631</v>
       </c>
       <c r="T15" t="n">
-        <v>46.6475065750464</v>
+        <v>46.64750657504631</v>
       </c>
       <c r="U15" t="n">
-        <v>45.92332209673177</v>
+        <v>45.92332209673171</v>
       </c>
       <c r="V15" t="n">
-        <v>35.27978323230456</v>
+        <v>35.27978323230452</v>
       </c>
       <c r="W15" t="n">
         <v>11.71599815285341</v>
@@ -5425,58 +5425,58 @@
         <v>11.71599815285341</v>
       </c>
       <c r="G16" t="n">
-        <v>11.71599815285341</v>
+        <v>59.80792967558388</v>
       </c>
       <c r="H16" t="n">
-        <v>11.71599815285341</v>
+        <v>119.0826174680916</v>
       </c>
       <c r="I16" t="n">
-        <v>11.71599815285341</v>
+        <v>198.1256551103843</v>
       </c>
       <c r="J16" t="n">
-        <v>11.71599815285341</v>
+        <v>198.1256551103843</v>
       </c>
       <c r="K16" t="n">
-        <v>11.71599815285341</v>
+        <v>198.1256551103843</v>
       </c>
       <c r="L16" t="n">
-        <v>11.71599815285341</v>
+        <v>198.1256551103843</v>
       </c>
       <c r="M16" t="n">
-        <v>11.71599815285341</v>
+        <v>198.1256551103843</v>
       </c>
       <c r="N16" t="n">
-        <v>11.71599815285341</v>
+        <v>198.1256551103843</v>
       </c>
       <c r="O16" t="n">
-        <v>36.53000798280533</v>
+        <v>198.1256551103843</v>
       </c>
       <c r="P16" t="n">
-        <v>36.53000798280533</v>
+        <v>198.1256551103843</v>
       </c>
       <c r="Q16" t="n">
-        <v>147.4552291869474</v>
+        <v>198.1256551103843</v>
       </c>
       <c r="R16" t="n">
-        <v>224.7305324699128</v>
+        <v>216.7366808791409</v>
       </c>
       <c r="S16" t="n">
-        <v>224.7305324699128</v>
+        <v>224.7305324699126</v>
       </c>
       <c r="T16" t="n">
-        <v>210.3122722015901</v>
+        <v>210.31227220159</v>
       </c>
       <c r="U16" t="n">
-        <v>140.8869922404236</v>
+        <v>140.8869922404235</v>
       </c>
       <c r="V16" t="n">
-        <v>97.90377148608501</v>
+        <v>97.90377148608491</v>
       </c>
       <c r="W16" t="n">
-        <v>29.49945369072293</v>
+        <v>29.49945369072287</v>
       </c>
       <c r="X16" t="n">
-        <v>15.99907327333751</v>
+        <v>15.99907327333747</v>
       </c>
       <c r="Y16" t="n">
         <v>11.71599815285341</v>
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>353.8292685207396</v>
+        <v>353.8292685207393</v>
       </c>
       <c r="C17" t="n">
-        <v>299.3273299625896</v>
+        <v>299.3273299625895</v>
       </c>
       <c r="D17" t="n">
-        <v>253.935185298856</v>
+        <v>253.9351852988559</v>
       </c>
       <c r="E17" t="n">
-        <v>186.5812855140056</v>
+        <v>186.5812855140055</v>
       </c>
       <c r="F17" t="n">
-        <v>99.86191493321877</v>
+        <v>99.86191493321857</v>
       </c>
       <c r="G17" t="n">
         <v>11.71599815285341</v>
@@ -5510,55 +5510,55 @@
         <v>11.71599815285341</v>
       </c>
       <c r="I17" t="n">
-        <v>156.7014752944144</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="J17" t="n">
-        <v>156.7014752944144</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="K17" t="n">
-        <v>156.7014752944144</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="L17" t="n">
-        <v>156.7014752944144</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="M17" t="n">
-        <v>156.7014752944144</v>
+        <v>11.71599815285341</v>
       </c>
       <c r="N17" t="n">
-        <v>266.3908207931775</v>
+        <v>156.7014752944143</v>
       </c>
       <c r="O17" t="n">
-        <v>266.3908207931775</v>
+        <v>156.7014752944143</v>
       </c>
       <c r="P17" t="n">
-        <v>266.3908207931775</v>
+        <v>156.7014752944143</v>
       </c>
       <c r="Q17" t="n">
-        <v>266.3908207931775</v>
+        <v>156.7014752944143</v>
       </c>
       <c r="R17" t="n">
-        <v>266.3908207931775</v>
+        <v>266.3908207931772</v>
       </c>
       <c r="S17" t="n">
-        <v>411.3762979347385</v>
+        <v>411.3762979347381</v>
       </c>
       <c r="T17" t="n">
-        <v>514.655836664653</v>
+        <v>514.6558366646526</v>
       </c>
       <c r="U17" t="n">
-        <v>585.7999076426706</v>
+        <v>585.7999076426704</v>
       </c>
       <c r="V17" t="n">
-        <v>576.2524536476551</v>
+        <v>576.2524536476546</v>
       </c>
       <c r="W17" t="n">
-        <v>541.1493436142991</v>
+        <v>541.1493436142985</v>
       </c>
       <c r="X17" t="n">
-        <v>486.5510232448352</v>
+        <v>486.5510232448347</v>
       </c>
       <c r="Y17" t="n">
-        <v>420.440987929716</v>
+        <v>420.4409879297154</v>
       </c>
     </row>
     <row r="18">
@@ -5726,16 +5726,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>353.8292685207394</v>
+        <v>353.8292685207392</v>
       </c>
       <c r="C20" t="n">
-        <v>299.3273299625896</v>
+        <v>299.3273299625894</v>
       </c>
       <c r="D20" t="n">
-        <v>253.935185298856</v>
+        <v>253.9351852988558</v>
       </c>
       <c r="E20" t="n">
-        <v>186.5812855140053</v>
+        <v>186.5812855140055</v>
       </c>
       <c r="F20" t="n">
         <v>99.86191493321857</v>
@@ -5747,55 +5747,55 @@
         <v>11.71599815285341</v>
       </c>
       <c r="I20" t="n">
-        <v>11.71599815285341</v>
+        <v>156.7014752944143</v>
       </c>
       <c r="J20" t="n">
-        <v>156.7014752944144</v>
+        <v>156.7014752944143</v>
       </c>
       <c r="K20" t="n">
-        <v>156.7014752944144</v>
+        <v>156.7014752944143</v>
       </c>
       <c r="L20" t="n">
-        <v>156.7014752944144</v>
+        <v>156.7014752944143</v>
       </c>
       <c r="M20" t="n">
-        <v>301.6869524359754</v>
+        <v>156.7014752944143</v>
       </c>
       <c r="N20" t="n">
-        <v>301.6869524359754</v>
+        <v>156.7014752944143</v>
       </c>
       <c r="O20" t="n">
-        <v>301.6869524359754</v>
+        <v>156.7014752944143</v>
       </c>
       <c r="P20" t="n">
-        <v>411.3762979347383</v>
+        <v>156.7014752944143</v>
       </c>
       <c r="Q20" t="n">
-        <v>411.3762979347383</v>
+        <v>266.3908207931772</v>
       </c>
       <c r="R20" t="n">
-        <v>411.3762979347383</v>
+        <v>266.3908207931772</v>
       </c>
       <c r="S20" t="n">
-        <v>411.3762979347383</v>
+        <v>411.3762979347381</v>
       </c>
       <c r="T20" t="n">
-        <v>514.6558366646528</v>
+        <v>514.6558366646526</v>
       </c>
       <c r="U20" t="n">
-        <v>585.7999076426706</v>
+        <v>585.7999076426704</v>
       </c>
       <c r="V20" t="n">
-        <v>576.2524536476548</v>
+        <v>576.2524536476546</v>
       </c>
       <c r="W20" t="n">
-        <v>541.1493436142987</v>
+        <v>541.1493436142985</v>
       </c>
       <c r="X20" t="n">
-        <v>486.5510232448348</v>
+        <v>486.5510232448346</v>
       </c>
       <c r="Y20" t="n">
-        <v>420.4409879297157</v>
+        <v>420.4409879297154</v>
       </c>
     </row>
     <row r="21">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>353.8292685207398</v>
+        <v>353.8292685207391</v>
       </c>
       <c r="C23" t="n">
-        <v>299.3273299625898</v>
+        <v>299.3273299625893</v>
       </c>
       <c r="D23" t="n">
-        <v>253.9351852988564</v>
+        <v>253.9351852988557</v>
       </c>
       <c r="E23" t="n">
-        <v>186.5812855140061</v>
+        <v>186.5812855140054</v>
       </c>
       <c r="F23" t="n">
-        <v>99.86191493321857</v>
+        <v>99.86191493321854</v>
       </c>
       <c r="G23" t="n">
         <v>11.71599815285341</v>
@@ -5984,55 +5984,55 @@
         <v>11.71599815285341</v>
       </c>
       <c r="I23" t="n">
-        <v>156.7014752944144</v>
+        <v>156.7014752944143</v>
       </c>
       <c r="J23" t="n">
-        <v>156.7014752944144</v>
+        <v>224.6848823815309</v>
       </c>
       <c r="K23" t="n">
-        <v>156.7014752944144</v>
+        <v>224.6848823815309</v>
       </c>
       <c r="L23" t="n">
-        <v>156.7014752944144</v>
+        <v>224.6848823815309</v>
       </c>
       <c r="M23" t="n">
-        <v>156.7014752944144</v>
+        <v>224.6848823815309</v>
       </c>
       <c r="N23" t="n">
-        <v>156.7014752944144</v>
+        <v>224.6848823815309</v>
       </c>
       <c r="O23" t="n">
-        <v>156.7014752944144</v>
+        <v>224.6848823815309</v>
       </c>
       <c r="P23" t="n">
-        <v>156.7014752944144</v>
+        <v>224.6848823815309</v>
       </c>
       <c r="Q23" t="n">
-        <v>156.7014752944144</v>
+        <v>224.6848823815309</v>
       </c>
       <c r="R23" t="n">
-        <v>266.3908207931773</v>
+        <v>369.6703595230918</v>
       </c>
       <c r="S23" t="n">
-        <v>411.3762979347383</v>
+        <v>514.6558366646527</v>
       </c>
       <c r="T23" t="n">
-        <v>514.6558366646528</v>
+        <v>514.6558366646527</v>
       </c>
       <c r="U23" t="n">
-        <v>585.7999076426706</v>
+        <v>585.7999076426705</v>
       </c>
       <c r="V23" t="n">
-        <v>576.2524536476551</v>
+        <v>576.2524536476546</v>
       </c>
       <c r="W23" t="n">
-        <v>541.1493436142991</v>
+        <v>541.1493436142985</v>
       </c>
       <c r="X23" t="n">
-        <v>486.5510232448353</v>
+        <v>486.5510232448346</v>
       </c>
       <c r="Y23" t="n">
-        <v>420.4409879297161</v>
+        <v>420.4409879297154</v>
       </c>
     </row>
     <row r="24">
@@ -6200,46 +6200,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1303.744081406403</v>
+        <v>1303.744081406404</v>
       </c>
       <c r="C26" t="n">
-        <v>1097.047384063549</v>
+        <v>1097.04738406355</v>
       </c>
       <c r="D26" t="n">
-        <v>899.4604806151121</v>
+        <v>899.4604806151126</v>
       </c>
       <c r="E26" t="n">
-        <v>679.911822045558</v>
+        <v>679.9118220455584</v>
       </c>
       <c r="F26" t="n">
-        <v>440.9976926800672</v>
+        <v>440.9976926800677</v>
       </c>
       <c r="G26" t="n">
-        <v>200.657017114999</v>
+        <v>200.6570171149989</v>
       </c>
       <c r="H26" t="n">
         <v>48.46225833029501</v>
       </c>
       <c r="I26" t="n">
-        <v>70.71846950395482</v>
+        <v>70.71846950395491</v>
       </c>
       <c r="J26" t="n">
-        <v>140.6154664721816</v>
+        <v>70.71846950395491</v>
       </c>
       <c r="K26" t="n">
-        <v>446.3646437461267</v>
+        <v>548.2174905818848</v>
       </c>
       <c r="L26" t="n">
-        <v>446.3646437461267</v>
+        <v>1147.937937419285</v>
       </c>
       <c r="M26" t="n">
-        <v>1042.902201852401</v>
+        <v>1224.969008635036</v>
       </c>
       <c r="N26" t="n">
-        <v>1119.934806027012</v>
+        <v>1695.331798306921</v>
       </c>
       <c r="O26" t="n">
-        <v>1683.591904878047</v>
+        <v>1925.99699849076</v>
       </c>
       <c r="P26" t="n">
         <v>1985.918220104852</v>
@@ -6248,28 +6248,28 @@
         <v>2307.798462230974</v>
       </c>
       <c r="R26" t="n">
-        <v>2423.112916514751</v>
+        <v>2423.11291651475</v>
       </c>
       <c r="S26" t="n">
-        <v>2423.112916514751</v>
+        <v>2423.11291651475</v>
       </c>
       <c r="T26" t="n">
         <v>2376.294689441009</v>
       </c>
       <c r="U26" t="n">
-        <v>2296.688514451854</v>
+        <v>2296.688514451855</v>
       </c>
       <c r="V26" t="n">
-        <v>2134.946301672134</v>
+        <v>2134.946301672135</v>
       </c>
       <c r="W26" t="n">
-        <v>1947.648432854074</v>
+        <v>1947.648432854075</v>
       </c>
       <c r="X26" t="n">
-        <v>1740.855353699906</v>
+        <v>1740.855353699907</v>
       </c>
       <c r="Y26" t="n">
-        <v>1522.550559600083</v>
+        <v>1522.550559600084</v>
       </c>
     </row>
     <row r="27">
@@ -6312,40 +6312,40 @@
         <v>48.46225833029501</v>
       </c>
       <c r="M27" t="n">
-        <v>263.2161499741894</v>
+        <v>263.2161499741892</v>
       </c>
       <c r="N27" t="n">
-        <v>263.2161499741894</v>
+        <v>263.2161499741892</v>
       </c>
       <c r="O27" t="n">
-        <v>263.2161499741894</v>
+        <v>263.2161499741892</v>
       </c>
       <c r="P27" t="n">
-        <v>263.2161499741894</v>
+        <v>263.2161499741892</v>
       </c>
       <c r="Q27" t="n">
-        <v>263.2161499741894</v>
+        <v>263.2161499741892</v>
       </c>
       <c r="R27" t="n">
-        <v>263.2161499741894</v>
+        <v>263.2161499741892</v>
       </c>
       <c r="S27" t="n">
-        <v>263.2161499741894</v>
+        <v>263.2161499741892</v>
       </c>
       <c r="T27" t="n">
-        <v>250.9030256651365</v>
+        <v>250.9030256651363</v>
       </c>
       <c r="U27" t="n">
-        <v>207.663818823922</v>
+        <v>207.6638188239218</v>
       </c>
       <c r="V27" t="n">
-        <v>154.5052575965948</v>
+        <v>154.5052575965947</v>
       </c>
       <c r="W27" t="n">
-        <v>88.42645015424377</v>
+        <v>88.42645015424371</v>
       </c>
       <c r="X27" t="n">
-        <v>65.74652335637727</v>
+        <v>65.74652335637724</v>
       </c>
       <c r="Y27" t="n">
         <v>48.46225833029501</v>
@@ -6361,73 +6361,73 @@
         <v>48.46225833029501</v>
       </c>
       <c r="C28" t="n">
-        <v>53.97149038977243</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="D28" t="n">
-        <v>75.69557169564725</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="E28" t="n">
-        <v>75.69557169564725</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="F28" t="n">
-        <v>75.69557169564725</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="G28" t="n">
-        <v>82.11852980049949</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="H28" t="n">
-        <v>99.72424417512894</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="I28" t="n">
-        <v>137.0983083995434</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="J28" t="n">
-        <v>223.0533575045319</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="K28" t="n">
-        <v>317.9079796979569</v>
+        <v>60.41692356963202</v>
       </c>
       <c r="L28" t="n">
-        <v>454.3815197383274</v>
+        <v>158.0658184433531</v>
       </c>
       <c r="M28" t="n">
-        <v>454.3815197383274</v>
+        <v>158.0658184433531</v>
       </c>
       <c r="N28" t="n">
-        <v>454.3815197383274</v>
+        <v>158.0658184433531</v>
       </c>
       <c r="O28" t="n">
-        <v>454.3815197383274</v>
+        <v>251.146359339942</v>
       </c>
       <c r="P28" t="n">
-        <v>454.3815197383274</v>
+        <v>454.3815197383273</v>
       </c>
       <c r="Q28" t="n">
-        <v>523.6377675245913</v>
+        <v>523.6377675245911</v>
       </c>
       <c r="R28" t="n">
-        <v>559.2440973896785</v>
+        <v>559.2440973896784</v>
       </c>
       <c r="S28" t="n">
-        <v>524.8852341847947</v>
+        <v>524.8852341847946</v>
       </c>
       <c r="T28" t="n">
-        <v>467.9519515535721</v>
+        <v>467.951951553572</v>
       </c>
       <c r="U28" t="n">
-        <v>356.0116492295057</v>
+        <v>356.0116492295056</v>
       </c>
       <c r="V28" t="n">
-        <v>270.5134061122673</v>
+        <v>270.5134061122671</v>
       </c>
       <c r="W28" t="n">
-        <v>159.5940659540053</v>
+        <v>159.5940659540052</v>
       </c>
       <c r="X28" t="n">
         <v>103.5786631737199</v>
       </c>
       <c r="Y28" t="n">
-        <v>56.78056569033593</v>
+        <v>56.7805656903359</v>
       </c>
     </row>
     <row r="29">
@@ -6443,13 +6443,13 @@
         <v>1097.04738406355</v>
       </c>
       <c r="D29" t="n">
-        <v>899.4604806151125</v>
+        <v>899.4604806151124</v>
       </c>
       <c r="E29" t="n">
         <v>679.9118220455582</v>
       </c>
       <c r="F29" t="n">
-        <v>440.9976926800675</v>
+        <v>440.9976926800677</v>
       </c>
       <c r="G29" t="n">
         <v>200.6570171149989</v>
@@ -6458,31 +6458,31 @@
         <v>48.46225833029501</v>
       </c>
       <c r="I29" t="n">
-        <v>70.71846950395489</v>
+        <v>70.71846950395491</v>
       </c>
       <c r="J29" t="n">
         <v>358.2428101986407</v>
       </c>
       <c r="K29" t="n">
-        <v>816.7991056047422</v>
+        <v>835.7418312765706</v>
       </c>
       <c r="L29" t="n">
-        <v>816.7991056047422</v>
+        <v>899.2405894532582</v>
       </c>
       <c r="M29" t="n">
-        <v>816.7991056047422</v>
+        <v>976.2716606690083</v>
       </c>
       <c r="N29" t="n">
-        <v>948.1849622230263</v>
+        <v>1055.518802426654</v>
       </c>
       <c r="O29" t="n">
-        <v>1511.842061074062</v>
+        <v>1619.17590127769</v>
       </c>
       <c r="P29" t="n">
-        <v>1985.918220104852</v>
+        <v>2093.25206030848</v>
       </c>
       <c r="Q29" t="n">
-        <v>2307.798462230974</v>
+        <v>2310.162438162954</v>
       </c>
       <c r="R29" t="n">
         <v>2423.11291651475</v>
@@ -6549,40 +6549,40 @@
         <v>48.46225833029501</v>
       </c>
       <c r="M30" t="n">
-        <v>263.216149974189</v>
+        <v>263.2161499741892</v>
       </c>
       <c r="N30" t="n">
-        <v>263.216149974189</v>
+        <v>263.2161499741892</v>
       </c>
       <c r="O30" t="n">
-        <v>263.216149974189</v>
+        <v>263.2161499741892</v>
       </c>
       <c r="P30" t="n">
-        <v>263.216149974189</v>
+        <v>263.2161499741892</v>
       </c>
       <c r="Q30" t="n">
-        <v>263.216149974189</v>
+        <v>263.2161499741892</v>
       </c>
       <c r="R30" t="n">
-        <v>263.216149974189</v>
+        <v>263.2161499741892</v>
       </c>
       <c r="S30" t="n">
-        <v>263.216149974189</v>
+        <v>263.2161499741892</v>
       </c>
       <c r="T30" t="n">
-        <v>250.9030256651362</v>
+        <v>250.9030256651363</v>
       </c>
       <c r="U30" t="n">
-        <v>207.6638188239217</v>
+        <v>207.6638188239218</v>
       </c>
       <c r="V30" t="n">
-        <v>154.5052575965946</v>
+        <v>154.5052575965947</v>
       </c>
       <c r="W30" t="n">
-        <v>88.42645015424365</v>
+        <v>88.42645015424371</v>
       </c>
       <c r="X30" t="n">
-        <v>65.74652335637721</v>
+        <v>65.74652335637724</v>
       </c>
       <c r="Y30" t="n">
         <v>48.46225833029501</v>
@@ -6622,49 +6622,49 @@
         <v>48.46225833029501</v>
       </c>
       <c r="K31" t="n">
-        <v>48.46225833029501</v>
+        <v>108.9462640053033</v>
       </c>
       <c r="L31" t="n">
-        <v>48.46225833029501</v>
+        <v>108.9462640053033</v>
       </c>
       <c r="M31" t="n">
-        <v>48.46225833029501</v>
+        <v>108.9462640053033</v>
       </c>
       <c r="N31" t="n">
-        <v>48.46225833029501</v>
+        <v>262.7729856627152</v>
       </c>
       <c r="O31" t="n">
-        <v>143.191202108173</v>
+        <v>393.9383073682103</v>
       </c>
       <c r="P31" t="n">
-        <v>405.891462171248</v>
+        <v>559.2440973896784</v>
       </c>
       <c r="Q31" t="n">
-        <v>559.244097389678</v>
+        <v>559.2440973896784</v>
       </c>
       <c r="R31" t="n">
-        <v>559.244097389678</v>
+        <v>559.2440973896784</v>
       </c>
       <c r="S31" t="n">
-        <v>524.8852341847944</v>
+        <v>524.8852341847946</v>
       </c>
       <c r="T31" t="n">
-        <v>467.9519515535718</v>
+        <v>467.951951553572</v>
       </c>
       <c r="U31" t="n">
-        <v>356.0116492295055</v>
+        <v>356.0116492295056</v>
       </c>
       <c r="V31" t="n">
-        <v>270.513406112267</v>
+        <v>270.5134061122671</v>
       </c>
       <c r="W31" t="n">
-        <v>159.5940659540051</v>
+        <v>159.5940659540052</v>
       </c>
       <c r="X31" t="n">
-        <v>103.5786631737198</v>
+        <v>103.5786631737199</v>
       </c>
       <c r="Y31" t="n">
-        <v>56.78056569033587</v>
+        <v>56.7805656903359</v>
       </c>
     </row>
     <row r="32">
@@ -6674,58 +6674,58 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1303.744081406404</v>
+        <v>1303.744081406405</v>
       </c>
       <c r="C32" t="n">
-        <v>1097.04738406355</v>
+        <v>1097.047384063551</v>
       </c>
       <c r="D32" t="n">
-        <v>899.4604806151128</v>
+        <v>899.4604806151134</v>
       </c>
       <c r="E32" t="n">
-        <v>679.9118220455586</v>
+        <v>679.9118220455591</v>
       </c>
       <c r="F32" t="n">
-        <v>440.9976926800678</v>
+        <v>440.9976926800684</v>
       </c>
       <c r="G32" t="n">
-        <v>200.657017114999</v>
+        <v>200.6570171149989</v>
       </c>
       <c r="H32" t="n">
         <v>48.46225833029501</v>
       </c>
       <c r="I32" t="n">
-        <v>70.71846950395476</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="J32" t="n">
-        <v>358.2428101986404</v>
+        <v>335.9865990249809</v>
       </c>
       <c r="K32" t="n">
-        <v>835.7418312765701</v>
+        <v>793.7653860187072</v>
       </c>
       <c r="L32" t="n">
-        <v>1265.020728775703</v>
+        <v>857.2641441953948</v>
       </c>
       <c r="M32" t="n">
-        <v>1342.051799991452</v>
+        <v>1456.984591032795</v>
       </c>
       <c r="N32" t="n">
-        <v>1421.298941749098</v>
+        <v>1536.231732790442</v>
       </c>
       <c r="O32" t="n">
-        <v>1511.842061074062</v>
+        <v>1683.591904878046</v>
       </c>
       <c r="P32" t="n">
-        <v>1985.918220104852</v>
+        <v>2157.668063908836</v>
       </c>
       <c r="Q32" t="n">
         <v>2307.798462230974</v>
       </c>
       <c r="R32" t="n">
-        <v>2423.112916514751</v>
+        <v>2423.11291651475</v>
       </c>
       <c r="S32" t="n">
-        <v>2423.112916514751</v>
+        <v>2423.11291651475</v>
       </c>
       <c r="T32" t="n">
         <v>2376.29468944101</v>
@@ -6740,10 +6740,10 @@
         <v>1947.648432854076</v>
       </c>
       <c r="X32" t="n">
-        <v>1740.855353699907</v>
+        <v>1740.855353699908</v>
       </c>
       <c r="Y32" t="n">
-        <v>1522.550559600084</v>
+        <v>1522.550559600085</v>
       </c>
     </row>
     <row r="33">
@@ -6789,37 +6789,37 @@
         <v>48.46225833029501</v>
       </c>
       <c r="N33" t="n">
-        <v>263.2161499741898</v>
+        <v>263.216149974189</v>
       </c>
       <c r="O33" t="n">
-        <v>263.2161499741898</v>
+        <v>263.216149974189</v>
       </c>
       <c r="P33" t="n">
-        <v>263.2161499741898</v>
+        <v>263.216149974189</v>
       </c>
       <c r="Q33" t="n">
-        <v>263.2161499741898</v>
+        <v>263.216149974189</v>
       </c>
       <c r="R33" t="n">
-        <v>263.2161499741898</v>
+        <v>263.216149974189</v>
       </c>
       <c r="S33" t="n">
-        <v>263.2161499741898</v>
+        <v>263.216149974189</v>
       </c>
       <c r="T33" t="n">
-        <v>250.9030256651368</v>
+        <v>250.9030256651362</v>
       </c>
       <c r="U33" t="n">
-        <v>207.6638188239222</v>
+        <v>207.6638188239217</v>
       </c>
       <c r="V33" t="n">
-        <v>154.505257596595</v>
+        <v>154.5052575965946</v>
       </c>
       <c r="W33" t="n">
-        <v>88.42645015424389</v>
+        <v>88.42645015424365</v>
       </c>
       <c r="X33" t="n">
-        <v>65.74652335637734</v>
+        <v>65.74652335637721</v>
       </c>
       <c r="Y33" t="n">
         <v>48.46225833029501</v>
@@ -6853,55 +6853,55 @@
         <v>48.46225833029501</v>
       </c>
       <c r="I34" t="n">
-        <v>66.22589332352807</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="J34" t="n">
-        <v>195.4707850108615</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="K34" t="n">
-        <v>255.9547906858697</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="L34" t="n">
-        <v>369.3775399123829</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="M34" t="n">
-        <v>523.6377675245918</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="N34" t="n">
-        <v>523.6377675245918</v>
+        <v>48.46225833029501</v>
       </c>
       <c r="O34" t="n">
-        <v>523.6377675245918</v>
+        <v>191.6812596752517</v>
       </c>
       <c r="P34" t="n">
-        <v>523.6377675245918</v>
+        <v>454.3815197383267</v>
       </c>
       <c r="Q34" t="n">
-        <v>523.6377675245918</v>
+        <v>523.6377675245907</v>
       </c>
       <c r="R34" t="n">
-        <v>559.2440973896789</v>
+        <v>559.244097389678</v>
       </c>
       <c r="S34" t="n">
-        <v>524.8852341847952</v>
+        <v>524.8852341847944</v>
       </c>
       <c r="T34" t="n">
-        <v>467.9519515535725</v>
+        <v>467.9519515535718</v>
       </c>
       <c r="U34" t="n">
-        <v>356.011649229506</v>
+        <v>356.0116492295055</v>
       </c>
       <c r="V34" t="n">
-        <v>270.5134061122675</v>
+        <v>270.513406112267</v>
       </c>
       <c r="W34" t="n">
-        <v>159.5940659540055</v>
+        <v>159.5940659540051</v>
       </c>
       <c r="X34" t="n">
-        <v>103.5786631737201</v>
+        <v>103.5786631737198</v>
       </c>
       <c r="Y34" t="n">
-        <v>56.78056569033599</v>
+        <v>56.78056569033587</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>1027.066278873635</v>
       </c>
       <c r="C35" t="n">
-        <v>864.5298822607674</v>
+        <v>864.5298822607673</v>
       </c>
       <c r="D35" t="n">
         <v>711.1032795423157</v>
@@ -6935,31 +6935,31 @@
         <v>102.2839820965606</v>
       </c>
       <c r="J35" t="n">
-        <v>433.0898335367054</v>
+        <v>362.6270060449914</v>
       </c>
       <c r="K35" t="n">
-        <v>887.8248032325453</v>
+        <v>466.2323918892915</v>
       </c>
       <c r="L35" t="n">
-        <v>994.6050721546918</v>
+        <v>573.0126608114383</v>
       </c>
       <c r="M35" t="n">
-        <v>1114.917654115901</v>
+        <v>693.3252427726476</v>
       </c>
       <c r="N35" t="n">
-        <v>1237.446306619006</v>
+        <v>815.853895275753</v>
       </c>
       <c r="O35" t="n">
-        <v>1545.770933153046</v>
+        <v>932.7026715870945</v>
       </c>
       <c r="P35" t="n">
-        <v>1648.973665512597</v>
+        <v>1270.273780225804</v>
       </c>
       <c r="Q35" t="n">
-        <v>1740.88602540488</v>
+        <v>1635.435533097385</v>
       </c>
       <c r="R35" t="n">
-        <v>1814.904958057588</v>
+        <v>1794.031498126621</v>
       </c>
       <c r="S35" t="n">
         <v>1837.31300887208</v>
@@ -6971,16 +6971,16 @@
         <v>1799.209208269156</v>
       </c>
       <c r="V35" t="n">
-        <v>1681.627296219423</v>
+        <v>1681.627296219422</v>
       </c>
       <c r="W35" t="n">
-        <v>1538.489728131349</v>
+        <v>1538.489728131348</v>
       </c>
       <c r="X35" t="n">
-        <v>1375.856949707167</v>
+        <v>1375.856949707166</v>
       </c>
       <c r="Y35" t="n">
-        <v>1201.71245633733</v>
+        <v>1201.712456337329</v>
       </c>
     </row>
     <row r="36">
@@ -7026,13 +7026,13 @@
         <v>36.74626017744161</v>
       </c>
       <c r="N36" t="n">
-        <v>67.66302738714798</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="O36" t="n">
-        <v>67.66302738714798</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="P36" t="n">
-        <v>67.66302738714798</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="Q36" t="n">
         <v>67.66302738714798</v>
@@ -7072,40 +7072,40 @@
         <v>36.74626017744161</v>
       </c>
       <c r="C37" t="n">
-        <v>43.25114793733077</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="D37" t="n">
-        <v>108.2567399886648</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="E37" t="n">
-        <v>174.3040596827771</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="F37" t="n">
-        <v>239.889124291985</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="G37" t="n">
-        <v>239.889124291985</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="H37" t="n">
-        <v>239.889124291985</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="I37" t="n">
-        <v>239.889124291985</v>
+        <v>103.5270726499369</v>
       </c>
       <c r="J37" t="n">
-        <v>239.889124291985</v>
+        <v>103.5270726499369</v>
       </c>
       <c r="K37" t="n">
-        <v>239.889124291985</v>
+        <v>103.5270726499369</v>
       </c>
       <c r="L37" t="n">
-        <v>239.889124291985</v>
+        <v>103.5270726499369</v>
       </c>
       <c r="M37" t="n">
-        <v>239.889124291985</v>
+        <v>103.5270726499369</v>
       </c>
       <c r="N37" t="n">
-        <v>239.889124291985</v>
+        <v>103.5270726499369</v>
       </c>
       <c r="O37" t="n">
         <v>239.889124291985</v>
@@ -7132,7 +7132,7 @@
         <v>117.9981984094152</v>
       </c>
       <c r="W37" t="n">
-        <v>51.23915898113913</v>
+        <v>51.23915898113914</v>
       </c>
       <c r="X37" t="n">
         <v>39.38405693083971</v>
@@ -7151,16 +7151,16 @@
         <v>1027.066278873635</v>
       </c>
       <c r="C38" t="n">
-        <v>864.5298822607676</v>
+        <v>864.5298822607673</v>
       </c>
       <c r="D38" t="n">
-        <v>711.103279542316</v>
+        <v>711.1032795423157</v>
       </c>
       <c r="E38" t="n">
-        <v>535.7149217027477</v>
+        <v>535.7149217027475</v>
       </c>
       <c r="F38" t="n">
-        <v>340.9610930672428</v>
+        <v>340.9610930672429</v>
       </c>
       <c r="G38" t="n">
         <v>144.7807182321596</v>
@@ -7169,40 +7169,40 @@
         <v>36.74626017744161</v>
       </c>
       <c r="I38" t="n">
-        <v>102.2839820965606</v>
+        <v>102.2839820965607</v>
       </c>
       <c r="J38" t="n">
-        <v>251.5529530203216</v>
+        <v>433.0898335367057</v>
       </c>
       <c r="K38" t="n">
-        <v>355.1583388646216</v>
+        <v>536.6952193810058</v>
       </c>
       <c r="L38" t="n">
-        <v>461.9386077867681</v>
+        <v>643.4754883031526</v>
       </c>
       <c r="M38" t="n">
-        <v>582.2511897479772</v>
+        <v>763.788070264362</v>
       </c>
       <c r="N38" t="n">
-        <v>704.7798422510823</v>
+        <v>886.3167227674675</v>
       </c>
       <c r="O38" t="n">
-        <v>815.5388105299652</v>
+        <v>1003.165499078809</v>
       </c>
       <c r="P38" t="n">
-        <v>1270.273780225805</v>
+        <v>1270.273780225804</v>
       </c>
       <c r="Q38" t="n">
-        <v>1635.435533097386</v>
+        <v>1635.435533097385</v>
       </c>
       <c r="R38" t="n">
-        <v>1794.031498126622</v>
+        <v>1794.031498126621</v>
       </c>
       <c r="S38" t="n">
-        <v>1837.313008872081</v>
+        <v>1837.31300887208</v>
       </c>
       <c r="T38" t="n">
-        <v>1834.655082528326</v>
+        <v>1834.655082528325</v>
       </c>
       <c r="U38" t="n">
         <v>1799.209208269157</v>
@@ -7211,13 +7211,13 @@
         <v>1681.627296219423</v>
       </c>
       <c r="W38" t="n">
-        <v>1538.489728131349</v>
+        <v>1538.489728131348</v>
       </c>
       <c r="X38" t="n">
-        <v>1375.856949707167</v>
+        <v>1375.856949707166</v>
       </c>
       <c r="Y38" t="n">
-        <v>1201.71245633733</v>
+        <v>1201.712456337329</v>
       </c>
     </row>
     <row r="39">
@@ -7263,31 +7263,31 @@
         <v>36.74626017744161</v>
       </c>
       <c r="N39" t="n">
-        <v>67.66302738714798</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="O39" t="n">
-        <v>67.66302738714798</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="P39" t="n">
-        <v>67.66302738714798</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="Q39" t="n">
-        <v>67.66302738714798</v>
+        <v>67.66302738714786</v>
       </c>
       <c r="R39" t="n">
-        <v>67.66302738714798</v>
+        <v>67.66302738714786</v>
       </c>
       <c r="S39" t="n">
-        <v>67.66302738714798</v>
+        <v>67.66302738714786</v>
       </c>
       <c r="T39" t="n">
-        <v>67.66302738714798</v>
+        <v>67.66302738714786</v>
       </c>
       <c r="U39" t="n">
-        <v>67.66302738714798</v>
+        <v>67.66302738714786</v>
       </c>
       <c r="V39" t="n">
-        <v>58.66476688980676</v>
+        <v>58.66476688980671</v>
       </c>
       <c r="W39" t="n">
         <v>36.74626017744161</v>
@@ -7333,46 +7333,46 @@
         <v>36.74626017744161</v>
       </c>
       <c r="K40" t="n">
-        <v>174.8823931163257</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="L40" t="n">
-        <v>174.8823931163257</v>
+        <v>177.6766657966219</v>
       </c>
       <c r="M40" t="n">
-        <v>239.889124291985</v>
+        <v>239.8891242919847</v>
       </c>
       <c r="N40" t="n">
-        <v>239.889124291985</v>
+        <v>239.8891242919847</v>
       </c>
       <c r="O40" t="n">
-        <v>239.889124291985</v>
+        <v>239.8891242919847</v>
       </c>
       <c r="P40" t="n">
-        <v>239.889124291985</v>
+        <v>239.8891242919847</v>
       </c>
       <c r="Q40" t="n">
-        <v>239.889124291985</v>
+        <v>239.8891242919847</v>
       </c>
       <c r="R40" t="n">
-        <v>239.889124291985</v>
+        <v>239.8891242919847</v>
       </c>
       <c r="S40" t="n">
-        <v>239.889124291985</v>
+        <v>239.8891242919847</v>
       </c>
       <c r="T40" t="n">
-        <v>227.1161423907483</v>
+        <v>227.116142390748</v>
       </c>
       <c r="U40" t="n">
-        <v>159.3361407966678</v>
+        <v>159.3361407966676</v>
       </c>
       <c r="V40" t="n">
-        <v>117.9981984094152</v>
+        <v>117.9981984094151</v>
       </c>
       <c r="W40" t="n">
-        <v>51.23915898113913</v>
+        <v>51.23915898113903</v>
       </c>
       <c r="X40" t="n">
-        <v>39.38405693083971</v>
+        <v>39.38405693083966</v>
       </c>
       <c r="Y40" t="n">
         <v>36.74626017744161</v>
@@ -7388,49 +7388,49 @@
         <v>1027.066278873635</v>
       </c>
       <c r="C41" t="n">
-        <v>864.5298822607673</v>
+        <v>864.5298822607674</v>
       </c>
       <c r="D41" t="n">
-        <v>711.1032795423157</v>
+        <v>711.1032795423158</v>
       </c>
       <c r="E41" t="n">
         <v>535.7149217027475</v>
       </c>
       <c r="F41" t="n">
-        <v>340.9610930672428</v>
+        <v>340.9610930672426</v>
       </c>
       <c r="G41" t="n">
-        <v>144.7807182321596</v>
+        <v>144.7807182321597</v>
       </c>
       <c r="H41" t="n">
         <v>36.74626017744161</v>
       </c>
       <c r="I41" t="n">
-        <v>102.2839820965607</v>
+        <v>102.2839820965606</v>
       </c>
       <c r="J41" t="n">
-        <v>433.0898335367056</v>
+        <v>215.4624898102466</v>
       </c>
       <c r="K41" t="n">
-        <v>536.6952193810055</v>
+        <v>319.0678756545466</v>
       </c>
       <c r="L41" t="n">
-        <v>643.4754883031521</v>
+        <v>425.8481445766934</v>
       </c>
       <c r="M41" t="n">
-        <v>763.7880702643613</v>
+        <v>615.4275338303987</v>
       </c>
       <c r="N41" t="n">
-        <v>886.3167227674666</v>
+        <v>1070.162503526239</v>
       </c>
       <c r="O41" t="n">
-        <v>1003.165499078808</v>
+        <v>1524.897473222079</v>
       </c>
       <c r="P41" t="n">
-        <v>1272.577586605332</v>
+        <v>1628.10020558163</v>
       </c>
       <c r="Q41" t="n">
-        <v>1637.739339476913</v>
+        <v>1720.012565473914</v>
       </c>
       <c r="R41" t="n">
         <v>1794.031498126621</v>
@@ -7448,7 +7448,7 @@
         <v>1681.627296219423</v>
       </c>
       <c r="W41" t="n">
-        <v>1538.489728131348</v>
+        <v>1538.489728131349</v>
       </c>
       <c r="X41" t="n">
         <v>1375.856949707167</v>
@@ -7494,37 +7494,37 @@
         <v>36.74626017744161</v>
       </c>
       <c r="L42" t="n">
-        <v>36.74626017744161</v>
+        <v>67.66302738714803</v>
       </c>
       <c r="M42" t="n">
-        <v>67.66302738714786</v>
+        <v>67.66302738714803</v>
       </c>
       <c r="N42" t="n">
-        <v>67.66302738714786</v>
+        <v>67.66302738714803</v>
       </c>
       <c r="O42" t="n">
-        <v>67.66302738714786</v>
+        <v>67.66302738714803</v>
       </c>
       <c r="P42" t="n">
-        <v>67.66302738714786</v>
+        <v>67.66302738714803</v>
       </c>
       <c r="Q42" t="n">
-        <v>67.66302738714786</v>
+        <v>67.66302738714803</v>
       </c>
       <c r="R42" t="n">
-        <v>67.66302738714786</v>
+        <v>67.66302738714803</v>
       </c>
       <c r="S42" t="n">
-        <v>67.66302738714786</v>
+        <v>67.66302738714803</v>
       </c>
       <c r="T42" t="n">
-        <v>67.66302738714786</v>
+        <v>67.66302738714803</v>
       </c>
       <c r="U42" t="n">
-        <v>67.66302738714786</v>
+        <v>67.66302738714803</v>
       </c>
       <c r="V42" t="n">
-        <v>58.6647668898067</v>
+        <v>58.66476688980679</v>
       </c>
       <c r="W42" t="n">
         <v>36.74626017744161</v>
@@ -7558,58 +7558,58 @@
         <v>36.74626017744161</v>
       </c>
       <c r="G43" t="n">
-        <v>36.74626017744161</v>
+        <v>86.450729027753</v>
       </c>
       <c r="H43" t="n">
-        <v>36.74626017744161</v>
+        <v>147.3379541478416</v>
       </c>
       <c r="I43" t="n">
-        <v>36.74626017744161</v>
+        <v>227.9935291177152</v>
       </c>
       <c r="J43" t="n">
-        <v>36.74626017744161</v>
+        <v>239.8891242919852</v>
       </c>
       <c r="K43" t="n">
-        <v>239.8891242919847</v>
+        <v>239.8891242919852</v>
       </c>
       <c r="L43" t="n">
-        <v>239.8891242919847</v>
+        <v>239.8891242919852</v>
       </c>
       <c r="M43" t="n">
-        <v>239.8891242919847</v>
+        <v>239.8891242919852</v>
       </c>
       <c r="N43" t="n">
-        <v>239.8891242919847</v>
+        <v>239.8891242919852</v>
       </c>
       <c r="O43" t="n">
-        <v>239.8891242919847</v>
+        <v>239.8891242919852</v>
       </c>
       <c r="P43" t="n">
-        <v>239.8891242919847</v>
+        <v>239.8891242919852</v>
       </c>
       <c r="Q43" t="n">
-        <v>239.8891242919847</v>
+        <v>239.8891242919852</v>
       </c>
       <c r="R43" t="n">
-        <v>239.8891242919847</v>
+        <v>239.8891242919852</v>
       </c>
       <c r="S43" t="n">
-        <v>239.8891242919847</v>
+        <v>239.8891242919852</v>
       </c>
       <c r="T43" t="n">
-        <v>227.116142390748</v>
+        <v>227.1161423907485</v>
       </c>
       <c r="U43" t="n">
-        <v>159.3361407966676</v>
+        <v>159.3361407966679</v>
       </c>
       <c r="V43" t="n">
-        <v>117.998198409415</v>
+        <v>117.9981984094153</v>
       </c>
       <c r="W43" t="n">
-        <v>51.23915898113901</v>
+        <v>51.2391589811392</v>
       </c>
       <c r="X43" t="n">
-        <v>39.38405693083965</v>
+        <v>39.38405693083974</v>
       </c>
       <c r="Y43" t="n">
         <v>36.74626017744161</v>
@@ -7625,16 +7625,16 @@
         <v>1027.066278873635</v>
       </c>
       <c r="C44" t="n">
-        <v>864.5298822607673</v>
+        <v>864.5298822607672</v>
       </c>
       <c r="D44" t="n">
-        <v>711.1032795423157</v>
+        <v>711.1032795423159</v>
       </c>
       <c r="E44" t="n">
-        <v>535.7149217027475</v>
+        <v>535.7149217027476</v>
       </c>
       <c r="F44" t="n">
-        <v>340.9610930672429</v>
+        <v>340.9610930672427</v>
       </c>
       <c r="G44" t="n">
         <v>144.7807182321596</v>
@@ -7643,34 +7643,34 @@
         <v>36.74626017744161</v>
       </c>
       <c r="I44" t="n">
-        <v>102.2839820965607</v>
+        <v>102.2839820965606</v>
       </c>
       <c r="J44" t="n">
-        <v>102.2839820965607</v>
+        <v>433.0898335367056</v>
       </c>
       <c r="K44" t="n">
-        <v>205.8893679408606</v>
+        <v>536.6952193810057</v>
       </c>
       <c r="L44" t="n">
-        <v>660.6243376367004</v>
+        <v>643.4754883031525</v>
       </c>
       <c r="M44" t="n">
-        <v>780.9369195979095</v>
+        <v>763.7880702643617</v>
       </c>
       <c r="N44" t="n">
-        <v>1235.671889293749</v>
+        <v>886.3167227674671</v>
       </c>
       <c r="O44" t="n">
-        <v>1524.897473222079</v>
+        <v>1003.165499078809</v>
       </c>
       <c r="P44" t="n">
-        <v>1628.10020558163</v>
+        <v>1305.491814305615</v>
       </c>
       <c r="Q44" t="n">
-        <v>1720.012565473913</v>
+        <v>1670.653567177195</v>
       </c>
       <c r="R44" t="n">
-        <v>1794.031498126621</v>
+        <v>1804.761673128578</v>
       </c>
       <c r="S44" t="n">
         <v>1837.31300887208</v>
@@ -7688,7 +7688,7 @@
         <v>1538.489728131348</v>
       </c>
       <c r="X44" t="n">
-        <v>1375.856949707167</v>
+        <v>1375.856949707166</v>
       </c>
       <c r="Y44" t="n">
         <v>1201.712456337329</v>
@@ -7734,34 +7734,34 @@
         <v>36.74626017744161</v>
       </c>
       <c r="M45" t="n">
-        <v>67.66302738714786</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="N45" t="n">
-        <v>67.66302738714786</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="O45" t="n">
-        <v>67.66302738714786</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="P45" t="n">
-        <v>67.66302738714786</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="Q45" t="n">
-        <v>67.66302738714786</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="R45" t="n">
-        <v>67.66302738714786</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="S45" t="n">
-        <v>67.66302738714786</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="T45" t="n">
-        <v>67.66302738714786</v>
+        <v>67.66302738714798</v>
       </c>
       <c r="U45" t="n">
-        <v>67.66302738714786</v>
+        <v>67.66302738714798</v>
       </c>
       <c r="V45" t="n">
-        <v>58.6647668898067</v>
+        <v>58.66476688980676</v>
       </c>
       <c r="W45" t="n">
         <v>36.74626017744161</v>
@@ -7783,70 +7783,70 @@
         <v>36.74626017744161</v>
       </c>
       <c r="C46" t="n">
-        <v>85.53700298237825</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="D46" t="n">
-        <v>150.5425950337123</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="E46" t="n">
-        <v>216.5899147278247</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="F46" t="n">
-        <v>239.8891242919847</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="G46" t="n">
-        <v>239.8891242919847</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="H46" t="n">
-        <v>239.8891242919847</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="I46" t="n">
-        <v>239.8891242919847</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="J46" t="n">
-        <v>239.8891242919847</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="K46" t="n">
-        <v>239.8891242919847</v>
+        <v>36.74626017744161</v>
       </c>
       <c r="L46" t="n">
-        <v>239.8891242919847</v>
+        <v>177.6766657966218</v>
       </c>
       <c r="M46" t="n">
-        <v>239.8891242919847</v>
+        <v>239.889124291985</v>
       </c>
       <c r="N46" t="n">
-        <v>239.8891242919847</v>
+        <v>239.889124291985</v>
       </c>
       <c r="O46" t="n">
-        <v>239.8891242919847</v>
+        <v>239.889124291985</v>
       </c>
       <c r="P46" t="n">
-        <v>239.8891242919847</v>
+        <v>239.889124291985</v>
       </c>
       <c r="Q46" t="n">
-        <v>239.8891242919847</v>
+        <v>239.889124291985</v>
       </c>
       <c r="R46" t="n">
-        <v>239.8891242919847</v>
+        <v>239.889124291985</v>
       </c>
       <c r="S46" t="n">
-        <v>239.8891242919847</v>
+        <v>239.889124291985</v>
       </c>
       <c r="T46" t="n">
-        <v>227.116142390748</v>
+        <v>227.1161423907483</v>
       </c>
       <c r="U46" t="n">
-        <v>159.3361407966676</v>
+        <v>159.3361407966678</v>
       </c>
       <c r="V46" t="n">
-        <v>117.998198409415</v>
+        <v>117.9981984094152</v>
       </c>
       <c r="W46" t="n">
-        <v>51.23915898113901</v>
+        <v>51.23915898113914</v>
       </c>
       <c r="X46" t="n">
-        <v>39.38405693083965</v>
+        <v>39.38405693083971</v>
       </c>
       <c r="Y46" t="n">
         <v>36.74626017744161</v>
@@ -9872,25 +9872,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>102.8816634704623</v>
       </c>
       <c r="K26" t="n">
         <v>421.3890363425141</v>
       </c>
       <c r="L26" t="n">
-        <v>109.3445309366638</v>
+        <v>541.6380693542557</v>
       </c>
       <c r="M26" t="n">
-        <v>524.7540271621458</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O26" t="n">
-        <v>495.0402356415689</v>
+        <v>158.6847824423804</v>
       </c>
       <c r="P26" t="n">
-        <v>418.3383206229274</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>276.0094878578761</v>
@@ -9951,28 +9951,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.71955400614098</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>66.98372024565211</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>52.05064111562924</v>
       </c>
       <c r="M27" t="n">
-        <v>261.7774474087015</v>
+        <v>261.7774474087012</v>
       </c>
       <c r="N27" t="n">
-        <v>34.21620827668144</v>
+        <v>34.21620827668127</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>49.53708892351361</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>55.62466529233105</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>78.15265312299749</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -10036,19 +10036,19 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>39.21681329964608</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>76.24414745277537</v>
+        <v>76.24414745277528</v>
       </c>
       <c r="N28" t="n">
-        <v>67.98250497112167</v>
+        <v>67.98250497112159</v>
       </c>
       <c r="O28" t="n">
-        <v>79.46394233070276</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>83.63942497583898</v>
+        <v>115.4427750711932</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -10118,10 +10118,10 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>95.67552786690366</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>52.66536854609905</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>495.0402356415689</v>
@@ -10133,7 +10133,7 @@
         <v>276.0094878578761</v>
       </c>
       <c r="R29" t="n">
-        <v>85.43134583487716</v>
+        <v>83.04349135812869</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,34 +10185,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>76.71955400614104</v>
+        <v>76.71955400614098</v>
       </c>
       <c r="K30" t="n">
-        <v>66.98372024565219</v>
+        <v>66.98372024565211</v>
       </c>
       <c r="L30" t="n">
-        <v>52.05064111562936</v>
+        <v>52.05064111562924</v>
       </c>
       <c r="M30" t="n">
-        <v>261.7774474087011</v>
+        <v>261.7774474087012</v>
       </c>
       <c r="N30" t="n">
-        <v>34.21620827668141</v>
+        <v>34.21620827668127</v>
       </c>
       <c r="O30" t="n">
-        <v>49.53708892351374</v>
+        <v>49.53708892351361</v>
       </c>
       <c r="P30" t="n">
-        <v>55.62466529233116</v>
+        <v>55.62466529233105</v>
       </c>
       <c r="Q30" t="n">
-        <v>78.15265312299758</v>
+        <v>78.15265312299749</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10267,25 +10267,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K31" t="n">
-        <v>77.67194102076726</v>
+        <v>138.7668962480483</v>
       </c>
       <c r="L31" t="n">
-        <v>74.84944336390264</v>
+        <v>74.84944336390257</v>
       </c>
       <c r="M31" t="n">
-        <v>76.24414745277535</v>
+        <v>76.24414745277528</v>
       </c>
       <c r="N31" t="n">
-        <v>67.98250497112167</v>
+        <v>223.3630318978003</v>
       </c>
       <c r="O31" t="n">
-        <v>1.665053415443538</v>
+        <v>211.9541662756472</v>
       </c>
       <c r="P31" t="n">
-        <v>175.5085323082534</v>
+        <v>77.13027974097375</v>
       </c>
       <c r="Q31" t="n">
         <v>84.9458458910769</v>
@@ -10352,16 +10352,16 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L32" t="n">
-        <v>542.9595789155856</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>527.9690662844955</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>17.14732702937586</v>
+        <v>74.53828941588087</v>
       </c>
       <c r="P32" t="n">
         <v>418.3383206229274</v>
@@ -10422,34 +10422,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>76.71955400614105</v>
+        <v>76.71955400614098</v>
       </c>
       <c r="K33" t="n">
-        <v>66.98372024565222</v>
+        <v>66.98372024565211</v>
       </c>
       <c r="L33" t="n">
-        <v>52.05064111562938</v>
+        <v>52.05064111562924</v>
       </c>
       <c r="M33" t="n">
-        <v>44.85432453608092</v>
+        <v>44.85432453608075</v>
       </c>
       <c r="N33" t="n">
-        <v>251.1393311493024</v>
+        <v>251.1393311493015</v>
       </c>
       <c r="O33" t="n">
-        <v>49.53708892351376</v>
+        <v>49.53708892351361</v>
       </c>
       <c r="P33" t="n">
-        <v>55.62466529233118</v>
+        <v>55.62466529233105</v>
       </c>
       <c r="Q33" t="n">
-        <v>78.15265312299758</v>
+        <v>78.15265312299749</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10507,22 +10507,22 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K34" t="n">
-        <v>138.7668962480483</v>
+        <v>77.67194102076721</v>
       </c>
       <c r="L34" t="n">
-        <v>189.4178769260372</v>
+        <v>74.84944336390257</v>
       </c>
       <c r="M34" t="n">
-        <v>232.0625591822793</v>
+        <v>76.24414745277528</v>
       </c>
       <c r="N34" t="n">
-        <v>67.98250497112167</v>
+        <v>67.98250497112159</v>
       </c>
       <c r="O34" t="n">
-        <v>79.46394233070276</v>
+        <v>50.64490954380582</v>
       </c>
       <c r="P34" t="n">
-        <v>83.63942497583898</v>
+        <v>175.5085323082534</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K35" t="n">
-        <v>354.6763473247878</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10598,16 +10598,16 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>193.4099497198973</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>236.7357336153116</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,34 +10659,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>13.1634712931604</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.71955400614105</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>66.98372024565222</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>52.05064111562938</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>44.85432453608092</v>
+        <v>44.85432453608075</v>
       </c>
       <c r="N36" t="n">
-        <v>65.44526606426363</v>
+        <v>34.21620827668127</v>
       </c>
       <c r="O36" t="n">
-        <v>49.53708892351376</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>55.62466529233105</v>
       </c>
       <c r="Q36" t="n">
-        <v>78.15265312299758</v>
+        <v>109.3817109105797</v>
       </c>
       <c r="R36" t="n">
-        <v>59.17817075471706</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10744,16 +10744,16 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>77.67194102076721</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>74.84944336390257</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>76.24414745277528</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>67.98250497112159</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>36.45501334351019</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>355.0830680164532</v>
+        <v>165.5611603913572</v>
       </c>
       <c r="Q38" t="n">
         <v>276.0094878578761</v>
@@ -10899,31 +10899,31 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>76.71955400614105</v>
+        <v>76.71955400614098</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>66.98372024565211</v>
       </c>
       <c r="L39" t="n">
-        <v>52.05064111562938</v>
+        <v>52.05064111562924</v>
       </c>
       <c r="M39" t="n">
-        <v>44.85432453608092</v>
+        <v>44.85432453608075</v>
       </c>
       <c r="N39" t="n">
-        <v>65.44526606426363</v>
+        <v>34.21620827668127</v>
       </c>
       <c r="O39" t="n">
-        <v>49.53708892351376</v>
+        <v>49.53708892351361</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>55.62466529233105</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>109.3817109105796</v>
       </c>
       <c r="R39" t="n">
-        <v>59.17817075471706</v>
+        <v>43.13630064307939</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10984,19 +10984,19 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>74.84944336390265</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>67.98250497112167</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>79.46394233070276</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>83.63942497583898</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>219.8255997236959</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11066,22 +11066,22 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>262.4898499558885</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>335.5619365583177</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>341.2991852368671</v>
       </c>
       <c r="P41" t="n">
-        <v>167.888237542397</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>276.0094878578761</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>85.43134583487716</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>13.1634712931604</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11145,22 +11145,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>76.083382323663</v>
+        <v>44.85432453608075</v>
       </c>
       <c r="N42" t="n">
-        <v>34.21620827668144</v>
+        <v>34.21620827668127</v>
       </c>
       <c r="O42" t="n">
-        <v>49.53708892351376</v>
+        <v>49.53708892351361</v>
       </c>
       <c r="P42" t="n">
-        <v>55.62466529233118</v>
+        <v>55.62466529233105</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>59.17817075471706</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11218,22 +11218,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>65.66336482389784</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>74.84944336390265</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>76.24414745277537</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>67.98250497112167</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>79.46394233070276</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>83.63942497583898</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -11294,31 +11294,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>50.33060609980809</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>351.4693947209023</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>335.5619365583178</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>174.117987491907</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>60.69613464512668</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,7 +11373,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.71955400614105</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11382,13 +11382,13 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>76.083382323663</v>
+        <v>44.85432453608075</v>
       </c>
       <c r="N45" t="n">
-        <v>34.21620827668144</v>
+        <v>34.21620827668127</v>
       </c>
       <c r="O45" t="n">
-        <v>49.53708892351376</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -11464,7 +11464,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>67.98250497112159</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>174.5285412724725</v>
+        <v>174.5285412724724</v>
       </c>
       <c r="C11" t="n">
         <v>162.5398582301542</v>
@@ -23264,16 +23264,16 @@
         <v>153.5211622746822</v>
       </c>
       <c r="E11" t="n">
-        <v>175.2632998445877</v>
+        <v>28.81332293392009</v>
       </c>
       <c r="F11" t="n">
-        <v>47.98513902189731</v>
+        <v>47.98513902189725</v>
       </c>
       <c r="G11" t="n">
-        <v>49.39741975947984</v>
+        <v>49.39741975947979</v>
       </c>
       <c r="H11" t="n">
-        <v>98.76993165099549</v>
+        <v>97.6247179073216</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>4.260172663732824</v>
       </c>
       <c r="U11" t="n">
-        <v>36.72024109999225</v>
+        <v>36.72024109999219</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>143.3350179906085</v>
       </c>
       <c r="X11" t="n">
         <v>162.6352762233551</v>
       </c>
       <c r="Y11" t="n">
-        <v>174.0318740195539</v>
+        <v>174.0318740195538</v>
       </c>
     </row>
     <row r="12">
@@ -23495,19 +23495,19 @@
         <v>174.5285412724725</v>
       </c>
       <c r="C14" t="n">
-        <v>162.5398582301543</v>
+        <v>162.5398582301542</v>
       </c>
       <c r="D14" t="n">
-        <v>153.5211622746822</v>
+        <v>7.07118536401461</v>
       </c>
       <c r="E14" t="n">
-        <v>28.81332293392012</v>
+        <v>175.2632998445877</v>
       </c>
       <c r="F14" t="n">
-        <v>174.0249153272349</v>
+        <v>194.4351159325649</v>
       </c>
       <c r="G14" t="n">
-        <v>49.39741975947981</v>
+        <v>184.8875925104672</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23546,19 +23546,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>4.260172663732916</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>36.72024109999228</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>118.0349185126516</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>143.3350179906085</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>16.1852993126875</v>
+        <v>162.6352762233551</v>
       </c>
       <c r="Y14" t="n">
         <v>174.0318740195539</v>
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1277748.76858353</v>
+        <v>1277748.768583529</v>
       </c>
     </row>
     <row r="15">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>114881.4947260956</v>
+        <v>114881.4947260957</v>
       </c>
       <c r="C2" t="n">
         <v>114881.4947260956</v>
       </c>
       <c r="D2" t="n">
-        <v>114881.4947260956</v>
+        <v>114881.4947260957</v>
       </c>
       <c r="E2" t="n">
         <v>100393.0197179651</v>
@@ -26329,7 +26329,7 @@
         <v>115143.6090741272</v>
       </c>
       <c r="H2" t="n">
-        <v>115143.6090741273</v>
+        <v>115143.6090741272</v>
       </c>
       <c r="I2" t="n">
         <v>115143.6090741272</v>
@@ -26338,7 +26338,7 @@
         <v>115143.6090741273</v>
       </c>
       <c r="K2" t="n">
-        <v>115143.6090741272</v>
+        <v>115143.6090741273</v>
       </c>
       <c r="L2" t="n">
         <v>115143.6090741273</v>
@@ -26350,7 +26350,7 @@
         <v>115143.6090741272</v>
       </c>
       <c r="O2" t="n">
-        <v>115143.6090741272</v>
+        <v>115143.6090741273</v>
       </c>
       <c r="P2" t="n">
         <v>115143.6090741272</v>
@@ -26372,37 +26372,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>320303.8499715892</v>
+        <v>320303.8499715895</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>86866.35124606873</v>
+        <v>86866.35124606876</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>172101.8825461394</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>86866.35124606878</v>
+      </c>
+      <c r="M3" t="n">
+        <v>34974.95817814879</v>
+      </c>
+      <c r="N3" t="n">
         <v>4.547473508864641e-11</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>172101.8825461393</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>86866.35124606865</v>
-      </c>
-      <c r="M3" t="n">
-        <v>34974.95817814893</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
       <c r="O3" t="n">
-        <v>51921.40132280769</v>
+        <v>51921.40132280765</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>437137.1652114342</v>
       </c>
       <c r="E4" t="n">
-        <v>337492.0798944829</v>
+        <v>337492.0798944827</v>
       </c>
       <c r="F4" t="n">
-        <v>337492.0798944829</v>
+        <v>337492.0798944827</v>
       </c>
       <c r="G4" t="n">
         <v>393534.1149340968</v>
       </c>
       <c r="H4" t="n">
-        <v>393534.1149340969</v>
+        <v>393534.1149340968</v>
       </c>
       <c r="I4" t="n">
-        <v>393534.1149340969</v>
+        <v>393534.1149340968</v>
       </c>
       <c r="J4" t="n">
-        <v>401705.6227511128</v>
+        <v>401705.6227511126</v>
       </c>
       <c r="K4" t="n">
-        <v>401705.6227511127</v>
+        <v>401705.6227511126</v>
       </c>
       <c r="L4" t="n">
         <v>401705.6227511127</v>
       </c>
       <c r="M4" t="n">
-        <v>397296.6362691748</v>
+        <v>397296.6362691746</v>
       </c>
       <c r="N4" t="n">
-        <v>397296.6362691748</v>
+        <v>397296.6362691747</v>
       </c>
       <c r="O4" t="n">
+        <v>397296.6362691746</v>
+      </c>
+      <c r="P4" t="n">
         <v>397296.6362691747</v>
-      </c>
-      <c r="P4" t="n">
-        <v>397296.6362691748</v>
       </c>
     </row>
     <row r="5">
@@ -26476,13 +26476,13 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>29852.47964145841</v>
+        <v>29852.47964145842</v>
       </c>
       <c r="F5" t="n">
         <v>29852.47964145841</v>
       </c>
       <c r="G5" t="n">
-        <v>38980.9387450906</v>
+        <v>38980.93874509061</v>
       </c>
       <c r="H5" t="n">
         <v>38980.93874509061</v>
@@ -26497,13 +26497,13 @@
         <v>54241.18391543766</v>
       </c>
       <c r="L5" t="n">
-        <v>54241.18391543765</v>
+        <v>54241.18391543766</v>
       </c>
       <c r="M5" t="n">
         <v>49012.41251811756</v>
       </c>
       <c r="N5" t="n">
-        <v>49012.41251811756</v>
+        <v>49012.41251811758</v>
       </c>
       <c r="O5" t="n">
         <v>49012.41251811756</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-355883.2704853386</v>
+        <v>-355887.6390578057</v>
       </c>
       <c r="C6" t="n">
-        <v>-355883.2704853386</v>
+        <v>-355887.6390578057</v>
       </c>
       <c r="D6" t="n">
-        <v>-355883.2704853385</v>
+        <v>-355887.6390578057</v>
       </c>
       <c r="E6" t="n">
-        <v>-587255.3897895653</v>
+        <v>-587501.2329455015</v>
       </c>
       <c r="F6" t="n">
-        <v>-266951.5398179761</v>
+        <v>-267197.3829739121</v>
       </c>
       <c r="G6" t="n">
         <v>-404237.7958511289</v>
       </c>
       <c r="H6" t="n">
-        <v>-317371.4446050603</v>
+        <v>-317371.4446050602</v>
       </c>
       <c r="I6" t="n">
-        <v>-317371.4446050603</v>
+        <v>-317371.4446050602</v>
       </c>
       <c r="J6" t="n">
-        <v>-512905.0801385625</v>
+        <v>-512905.0801385623</v>
       </c>
       <c r="K6" t="n">
-        <v>-340803.1975924231</v>
+        <v>-340803.1975924229</v>
       </c>
       <c r="L6" t="n">
-        <v>-427669.5488384917</v>
+        <v>-427669.5488384918</v>
       </c>
       <c r="M6" t="n">
-        <v>-366140.3978913141</v>
+        <v>-366140.3978913138</v>
       </c>
       <c r="N6" t="n">
         <v>-331165.4397131652</v>
       </c>
       <c r="O6" t="n">
-        <v>-383086.8410359728</v>
+        <v>-383086.8410359726</v>
       </c>
       <c r="P6" t="n">
-        <v>-331165.4397131652</v>
+        <v>-331165.439713165</v>
       </c>
     </row>
   </sheetData>
@@ -26692,13 +26692,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="F2" t="n">
         <v>215.5745628503664</v>
       </c>
       <c r="G2" t="n">
-        <v>324.1575019079523</v>
+        <v>324.1575019079524</v>
       </c>
       <c r="H2" t="n">
         <v>324.1575019079524</v>
@@ -26710,10 +26710,10 @@
         <v>173.4846907110955</v>
       </c>
       <c r="K2" t="n">
+        <v>173.4846907110955</v>
+      </c>
+      <c r="L2" t="n">
         <v>173.4846907110956</v>
-      </c>
-      <c r="L2" t="n">
-        <v>173.4846907110955</v>
       </c>
       <c r="M2" t="n">
         <v>217.2033884337816</v>
@@ -26722,7 +26722,7 @@
         <v>217.2033884337816</v>
       </c>
       <c r="O2" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337815</v>
       </c>
       <c r="P2" t="n">
         <v>217.2033884337816</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>129.5955560102</v>
+        <v>129.5955560102003</v>
       </c>
       <c r="F3" t="n">
-        <v>129.5955560102</v>
+        <v>129.5955560102003</v>
       </c>
       <c r="G3" t="n">
-        <v>129.5955560102</v>
+        <v>129.5955560102003</v>
       </c>
       <c r="H3" t="n">
-        <v>129.5955560102</v>
+        <v>129.5955560102003</v>
       </c>
       <c r="I3" t="n">
-        <v>129.5955560102</v>
+        <v>129.5955560102003</v>
       </c>
       <c r="J3" t="n">
-        <v>129.5955560102</v>
+        <v>129.5955560102003</v>
       </c>
       <c r="K3" t="n">
-        <v>129.5955560102</v>
+        <v>129.5955560102003</v>
       </c>
       <c r="L3" t="n">
-        <v>129.5955560102</v>
+        <v>129.5955560102003</v>
       </c>
       <c r="M3" t="n">
-        <v>129.5955560102</v>
+        <v>129.5955560102003</v>
       </c>
       <c r="N3" t="n">
-        <v>129.5955560102</v>
+        <v>129.5955560102003</v>
       </c>
       <c r="O3" t="n">
-        <v>129.5955560102</v>
+        <v>129.5955560102003</v>
       </c>
       <c r="P3" t="n">
-        <v>129.5955560102</v>
+        <v>129.5955560102003</v>
       </c>
     </row>
     <row r="4">
@@ -26799,25 +26799,25 @@
         <v>146.4499769106676</v>
       </c>
       <c r="F4" t="n">
-        <v>146.4499769106677</v>
+        <v>146.4499769106676</v>
       </c>
       <c r="G4" t="n">
-        <v>146.4499769106677</v>
+        <v>146.4499769106676</v>
       </c>
       <c r="H4" t="n">
-        <v>146.4499769106677</v>
+        <v>146.4499769106676</v>
       </c>
       <c r="I4" t="n">
-        <v>146.4499769106677</v>
+        <v>146.4499769106676</v>
       </c>
       <c r="J4" t="n">
-        <v>605.7782291286877</v>
+        <v>605.7782291286876</v>
       </c>
       <c r="K4" t="n">
         <v>605.7782291286876</v>
       </c>
       <c r="L4" t="n">
-        <v>605.7782291286877</v>
+        <v>605.7782291286876</v>
       </c>
       <c r="M4" t="n">
         <v>459.3282522180201</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26923,28 +26923,28 @@
         <v>108.5829390575859</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>64.90175165350965</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>108.582939057586</v>
+      </c>
+      <c r="M2" t="n">
+        <v>43.71869772268599</v>
+      </c>
+      <c r="N2" t="n">
         <v>5.684341886080801e-14</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="O2" t="n">
         <v>64.90175165350956</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>108.5829390575858</v>
-      </c>
-      <c r="M2" t="n">
-        <v>43.71869772268616</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>64.90175165350962</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>129.5955560102</v>
+        <v>129.5955560102003</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>459.3282522180201</v>
+        <v>459.32825221802</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27160,13 +27160,13 @@
         <v>108.5829390575859</v>
       </c>
       <c r="M2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>64.90175165350956</v>
+        <v>64.90175165350965</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="C11" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="D11" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="E11" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="F11" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="G11" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="H11" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="I11" t="n">
-        <v>183.2927289102824</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="J11" t="n">
-        <v>102.8816634704624</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="K11" t="n">
-        <v>112.5514835405493</v>
+        <v>112.5514835405492</v>
       </c>
       <c r="L11" t="n">
-        <v>109.3445309366638</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="M11" t="n">
-        <v>95.67552786690371</v>
+        <v>95.67552786690349</v>
       </c>
       <c r="N11" t="n">
-        <v>215.5745628503664</v>
+        <v>93.43707277407911</v>
       </c>
       <c r="O11" t="n">
-        <v>215.5745628503664</v>
+        <v>99.17432145262846</v>
       </c>
       <c r="P11" t="n">
-        <v>215.5745628503664</v>
+        <v>202.9075290906995</v>
       </c>
       <c r="Q11" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="R11" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="S11" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="T11" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="U11" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="V11" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="W11" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="X11" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="Y11" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503665</v>
       </c>
     </row>
     <row r="12">
@@ -28175,7 +28175,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E12" t="n">
-        <v>145.5577298436975</v>
+        <v>180.8420817853063</v>
       </c>
       <c r="F12" t="n">
         <v>133.3468600696244</v>
@@ -28184,52 +28184,52 @@
         <v>127.1624622715678</v>
       </c>
       <c r="H12" t="n">
-        <v>96.24631459259479</v>
+        <v>96.24631459259477</v>
       </c>
       <c r="I12" t="n">
-        <v>71.2645270077352</v>
+        <v>71.26452700773517</v>
       </c>
       <c r="J12" t="n">
-        <v>76.71955400614105</v>
+        <v>76.71955400614098</v>
       </c>
       <c r="K12" t="n">
-        <v>66.98372024565222</v>
+        <v>66.98372024565211</v>
       </c>
       <c r="L12" t="n">
-        <v>52.05064111562938</v>
+        <v>52.05064111562924</v>
       </c>
       <c r="M12" t="n">
-        <v>44.85432453608092</v>
+        <v>44.85432453608075</v>
       </c>
       <c r="N12" t="n">
-        <v>34.21620827668144</v>
+        <v>34.21620827668127</v>
       </c>
       <c r="O12" t="n">
-        <v>49.53708892351376</v>
+        <v>49.53708892351361</v>
       </c>
       <c r="P12" t="n">
-        <v>55.62466529233118</v>
+        <v>55.62466529233105</v>
       </c>
       <c r="Q12" t="n">
-        <v>78.15265312299758</v>
+        <v>78.15265312299749</v>
       </c>
       <c r="R12" t="n">
         <v>101.057477245434</v>
       </c>
       <c r="S12" t="n">
-        <v>181.3781348165131</v>
+        <v>146.0937828749041</v>
       </c>
       <c r="T12" t="n">
         <v>185.6746837770579</v>
       </c>
       <c r="U12" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="V12" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="W12" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="X12" t="n">
         <v>195.9378182409833</v>
@@ -28257,64 +28257,64 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9558484244806</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="G13" t="n">
-        <v>166.9968542415478</v>
+        <v>205.4986581115375</v>
       </c>
       <c r="H13" t="n">
         <v>155.7011408377324</v>
       </c>
       <c r="I13" t="n">
-        <v>135.7331106864345</v>
+        <v>135.7331106864344</v>
       </c>
       <c r="J13" t="n">
-        <v>86.66140878686465</v>
+        <v>86.66140878686463</v>
       </c>
       <c r="K13" t="n">
-        <v>77.67194102076728</v>
+        <v>77.67194102076721</v>
       </c>
       <c r="L13" t="n">
-        <v>74.84944336390265</v>
+        <v>74.84944336390257</v>
       </c>
       <c r="M13" t="n">
-        <v>76.24414745277537</v>
+        <v>76.24414745277528</v>
       </c>
       <c r="N13" t="n">
-        <v>67.98250497112167</v>
+        <v>67.98250497112159</v>
       </c>
       <c r="O13" t="n">
-        <v>79.46394233070276</v>
+        <v>79.46394233070268</v>
       </c>
       <c r="P13" t="n">
-        <v>215.5745628503664</v>
+        <v>83.63942497583892</v>
       </c>
       <c r="Q13" t="n">
-        <v>186.7599432717149</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="R13" t="n">
-        <v>137.5187009483812</v>
+        <v>137.5187009483811</v>
       </c>
       <c r="S13" t="n">
         <v>207.4999652839304</v>
       </c>
       <c r="T13" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="U13" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="V13" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="W13" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="X13" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503665</v>
       </c>
       <c r="Y13" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503665</v>
       </c>
     </row>
     <row r="14">
@@ -28345,25 +28345,25 @@
         <v>215.5745628503664</v>
       </c>
       <c r="I14" t="n">
+        <v>151.0036693235603</v>
+      </c>
+      <c r="J14" t="n">
+        <v>102.8816634704623</v>
+      </c>
+      <c r="K14" t="n">
+        <v>144.8405431272704</v>
+      </c>
+      <c r="L14" t="n">
+        <v>109.3445309366636</v>
+      </c>
+      <c r="M14" t="n">
+        <v>95.67552786690349</v>
+      </c>
+      <c r="N14" t="n">
         <v>215.5745628503664</v>
       </c>
-      <c r="J14" t="n">
-        <v>102.8816634704624</v>
-      </c>
-      <c r="K14" t="n">
-        <v>112.5514835405493</v>
-      </c>
-      <c r="L14" t="n">
-        <v>109.3445309366638</v>
-      </c>
-      <c r="M14" t="n">
+      <c r="O14" t="n">
         <v>215.5745628503664</v>
-      </c>
-      <c r="N14" t="n">
-        <v>93.43707277407934</v>
-      </c>
-      <c r="O14" t="n">
-        <v>185.5311840031071</v>
       </c>
       <c r="P14" t="n">
         <v>215.5745628503664</v>
@@ -28403,7 +28403,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>193.1096002950574</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C15" t="n">
         <v>160.0866360314548</v>
@@ -28421,37 +28421,37 @@
         <v>127.1624622715678</v>
       </c>
       <c r="H15" t="n">
-        <v>96.24631459259479</v>
+        <v>96.24631459259477</v>
       </c>
       <c r="I15" t="n">
-        <v>71.2645270077352</v>
+        <v>71.26452700773517</v>
       </c>
       <c r="J15" t="n">
-        <v>76.71955400614105</v>
+        <v>76.71955400614098</v>
       </c>
       <c r="K15" t="n">
-        <v>66.98372024565222</v>
+        <v>66.98372024565211</v>
       </c>
       <c r="L15" t="n">
-        <v>52.05064111562938</v>
+        <v>52.05064111562924</v>
       </c>
       <c r="M15" t="n">
-        <v>44.85432453608092</v>
+        <v>44.85432453608075</v>
       </c>
       <c r="N15" t="n">
-        <v>34.21620827668144</v>
+        <v>34.21620827668127</v>
       </c>
       <c r="O15" t="n">
-        <v>49.53708892351376</v>
+        <v>49.53708892351361</v>
       </c>
       <c r="P15" t="n">
-        <v>55.62466529233118</v>
+        <v>55.62466529233105</v>
       </c>
       <c r="Q15" t="n">
-        <v>78.15265312299758</v>
+        <v>78.15265312299749</v>
       </c>
       <c r="R15" t="n">
-        <v>101.057477245434</v>
+        <v>136.3418291870429</v>
       </c>
       <c r="S15" t="n">
         <v>146.0937828749041</v>
@@ -28497,43 +28497,43 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G16" t="n">
-        <v>166.9968542415478</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="H16" t="n">
-        <v>155.7011408377324</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="I16" t="n">
-        <v>135.7331106864345</v>
+        <v>215.5745628503664</v>
       </c>
       <c r="J16" t="n">
-        <v>86.66140878686465</v>
+        <v>86.66140878686463</v>
       </c>
       <c r="K16" t="n">
-        <v>77.67194102076728</v>
+        <v>77.67194102076721</v>
       </c>
       <c r="L16" t="n">
-        <v>74.84944336390265</v>
+        <v>74.84944336390257</v>
       </c>
       <c r="M16" t="n">
-        <v>76.24414745277537</v>
+        <v>76.24414745277528</v>
       </c>
       <c r="N16" t="n">
-        <v>67.98250497112167</v>
+        <v>67.98250497112159</v>
       </c>
       <c r="O16" t="n">
-        <v>104.5285987245936</v>
+        <v>79.46394233070268</v>
       </c>
       <c r="P16" t="n">
-        <v>83.63942497583898</v>
+        <v>83.63942497583892</v>
       </c>
       <c r="Q16" t="n">
+        <v>103.5288848663845</v>
+      </c>
+      <c r="R16" t="n">
+        <v>156.3177168764182</v>
+      </c>
+      <c r="S16" t="n">
         <v>215.5745628503664</v>
-      </c>
-      <c r="R16" t="n">
-        <v>215.5745628503664</v>
-      </c>
-      <c r="S16" t="n">
-        <v>207.4999652839304</v>
       </c>
       <c r="T16" t="n">
         <v>215.5745628503664</v>
@@ -28561,76 +28561,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>324.1575019079523</v>
+        <v>324.1575019079524</v>
       </c>
       <c r="C17" t="n">
-        <v>324.1575019079523</v>
+        <v>324.1575019079524</v>
       </c>
       <c r="D17" t="n">
-        <v>324.1575019079523</v>
+        <v>324.1575019079524</v>
       </c>
       <c r="E17" t="n">
-        <v>324.1575019079523</v>
+        <v>324.1575019079524</v>
       </c>
       <c r="F17" t="n">
-        <v>324.1575019079523</v>
+        <v>324.1575019079524</v>
       </c>
       <c r="G17" t="n">
-        <v>324.1575019079523</v>
+        <v>324.1575019079524</v>
       </c>
       <c r="H17" t="n">
-        <v>324.1575019079523</v>
+        <v>324.1575019079524</v>
       </c>
       <c r="I17" t="n">
-        <v>297.453646234228</v>
+        <v>151.0036693235603</v>
       </c>
       <c r="J17" t="n">
-        <v>102.8816634704624</v>
+        <v>102.8816634704623</v>
       </c>
       <c r="K17" t="n">
-        <v>112.5514835405493</v>
+        <v>112.5514835405492</v>
       </c>
       <c r="L17" t="n">
-        <v>109.3445309366638</v>
+        <v>109.3445309366636</v>
       </c>
       <c r="M17" t="n">
-        <v>95.67552786690371</v>
+        <v>95.67552786690349</v>
       </c>
       <c r="N17" t="n">
-        <v>204.2343914596987</v>
+        <v>239.8870496847467</v>
       </c>
       <c r="O17" t="n">
-        <v>99.17432145262867</v>
+        <v>99.17432145262846</v>
       </c>
       <c r="P17" t="n">
-        <v>112.9582042322147</v>
+        <v>112.9582042322145</v>
       </c>
       <c r="Q17" t="n">
-        <v>124.3626208658184</v>
+        <v>124.3626208658183</v>
       </c>
       <c r="R17" t="n">
-        <v>142.436789794683</v>
+        <v>253.2341084803019</v>
       </c>
       <c r="S17" t="n">
-        <v>319.9346676217633</v>
+        <v>319.9346676217631</v>
       </c>
       <c r="T17" t="n">
-        <v>324.1575019079523</v>
+        <v>324.1575019079524</v>
       </c>
       <c r="U17" t="n">
-        <v>324.1575019079523</v>
+        <v>324.1575019079524</v>
       </c>
       <c r="V17" t="n">
-        <v>324.1575019079523</v>
+        <v>324.1575019079524</v>
       </c>
       <c r="W17" t="n">
-        <v>324.1575019079523</v>
+        <v>324.1575019079524</v>
       </c>
       <c r="X17" t="n">
-        <v>324.1575019079523</v>
+        <v>324.1575019079524</v>
       </c>
       <c r="Y17" t="n">
-        <v>324.1575019079523</v>
+        <v>324.1575019079524</v>
       </c>
     </row>
     <row r="18">
@@ -28658,34 +28658,34 @@
         <v>127.1624622715678</v>
       </c>
       <c r="H18" t="n">
-        <v>96.24631459259479</v>
+        <v>96.24631459259477</v>
       </c>
       <c r="I18" t="n">
-        <v>71.2645270077352</v>
+        <v>71.26452700773517</v>
       </c>
       <c r="J18" t="n">
-        <v>76.71955400614105</v>
+        <v>76.71955400614098</v>
       </c>
       <c r="K18" t="n">
-        <v>66.98372024565222</v>
+        <v>66.98372024565211</v>
       </c>
       <c r="L18" t="n">
-        <v>52.05064111562938</v>
+        <v>52.05064111562924</v>
       </c>
       <c r="M18" t="n">
-        <v>44.85432453608092</v>
+        <v>44.85432453608075</v>
       </c>
       <c r="N18" t="n">
-        <v>34.21620827668144</v>
+        <v>34.21620827668127</v>
       </c>
       <c r="O18" t="n">
-        <v>49.53708892351376</v>
+        <v>49.53708892351361</v>
       </c>
       <c r="P18" t="n">
-        <v>55.62466529233118</v>
+        <v>55.62466529233105</v>
       </c>
       <c r="Q18" t="n">
-        <v>78.15265312299758</v>
+        <v>78.15265312299749</v>
       </c>
       <c r="R18" t="n">
         <v>101.057477245434</v>
@@ -28740,34 +28740,34 @@
         <v>155.7011408377324</v>
       </c>
       <c r="I19" t="n">
-        <v>135.7331106864345</v>
+        <v>135.7331106864344</v>
       </c>
       <c r="J19" t="n">
-        <v>86.66140878686465</v>
+        <v>86.66140878686463</v>
       </c>
       <c r="K19" t="n">
-        <v>77.67194102076728</v>
+        <v>77.67194102076721</v>
       </c>
       <c r="L19" t="n">
-        <v>74.84944336390265</v>
+        <v>74.84944336390257</v>
       </c>
       <c r="M19" t="n">
-        <v>76.24414745277537</v>
+        <v>76.24414745277528</v>
       </c>
       <c r="N19" t="n">
-        <v>67.98250497112167</v>
+        <v>67.98250497112159</v>
       </c>
       <c r="O19" t="n">
-        <v>79.46394233070276</v>
+        <v>79.46394233070268</v>
       </c>
       <c r="P19" t="n">
-        <v>83.63942497583898</v>
+        <v>83.63942497583892</v>
       </c>
       <c r="Q19" t="n">
-        <v>103.5288848663846</v>
+        <v>103.5288848663845</v>
       </c>
       <c r="R19" t="n">
-        <v>137.5187009483812</v>
+        <v>137.5187009483811</v>
       </c>
       <c r="S19" t="n">
         <v>207.4999652839304</v>
@@ -28819,37 +28819,37 @@
         <v>324.1575019079524</v>
       </c>
       <c r="I20" t="n">
-        <v>151.0036693235604</v>
+        <v>297.4536462342279</v>
       </c>
       <c r="J20" t="n">
-        <v>249.3316403811301</v>
+        <v>102.8816634704623</v>
       </c>
       <c r="K20" t="n">
-        <v>112.5514835405493</v>
+        <v>112.5514835405492</v>
       </c>
       <c r="L20" t="n">
-        <v>109.3445309366638</v>
+        <v>109.3445309366636</v>
       </c>
       <c r="M20" t="n">
-        <v>242.1255047775714</v>
+        <v>95.67552786690349</v>
       </c>
       <c r="N20" t="n">
-        <v>93.43707277407934</v>
+        <v>93.43707277407911</v>
       </c>
       <c r="O20" t="n">
-        <v>99.17432145262867</v>
+        <v>99.17432145262846</v>
       </c>
       <c r="P20" t="n">
-        <v>223.7555229178338</v>
+        <v>112.9582042322145</v>
       </c>
       <c r="Q20" t="n">
-        <v>124.3626208658184</v>
+        <v>235.1599395514373</v>
       </c>
       <c r="R20" t="n">
-        <v>142.436789794683</v>
+        <v>142.4367897946829</v>
       </c>
       <c r="S20" t="n">
-        <v>173.4846907110956</v>
+        <v>319.9346676217631</v>
       </c>
       <c r="T20" t="n">
         <v>324.1575019079524</v>
@@ -28895,34 +28895,34 @@
         <v>127.1624622715678</v>
       </c>
       <c r="H21" t="n">
-        <v>96.24631459259479</v>
+        <v>96.24631459259477</v>
       </c>
       <c r="I21" t="n">
-        <v>71.2645270077352</v>
+        <v>71.26452700773517</v>
       </c>
       <c r="J21" t="n">
-        <v>76.71955400614105</v>
+        <v>76.71955400614098</v>
       </c>
       <c r="K21" t="n">
-        <v>66.98372024565222</v>
+        <v>66.98372024565211</v>
       </c>
       <c r="L21" t="n">
-        <v>52.05064111562938</v>
+        <v>52.05064111562924</v>
       </c>
       <c r="M21" t="n">
-        <v>44.85432453608092</v>
+        <v>44.85432453608075</v>
       </c>
       <c r="N21" t="n">
-        <v>34.21620827668144</v>
+        <v>34.21620827668127</v>
       </c>
       <c r="O21" t="n">
-        <v>49.53708892351376</v>
+        <v>49.53708892351361</v>
       </c>
       <c r="P21" t="n">
-        <v>55.62466529233118</v>
+        <v>55.62466529233105</v>
       </c>
       <c r="Q21" t="n">
-        <v>78.15265312299758</v>
+        <v>78.15265312299749</v>
       </c>
       <c r="R21" t="n">
         <v>101.057477245434</v>
@@ -28977,34 +28977,34 @@
         <v>155.7011408377324</v>
       </c>
       <c r="I22" t="n">
-        <v>135.7331106864345</v>
+        <v>135.7331106864344</v>
       </c>
       <c r="J22" t="n">
-        <v>86.66140878686465</v>
+        <v>86.66140878686463</v>
       </c>
       <c r="K22" t="n">
-        <v>77.67194102076728</v>
+        <v>77.67194102076721</v>
       </c>
       <c r="L22" t="n">
-        <v>74.84944336390265</v>
+        <v>74.84944336390257</v>
       </c>
       <c r="M22" t="n">
-        <v>76.24414745277537</v>
+        <v>76.24414745277528</v>
       </c>
       <c r="N22" t="n">
-        <v>67.98250497112167</v>
+        <v>67.98250497112159</v>
       </c>
       <c r="O22" t="n">
-        <v>79.46394233070276</v>
+        <v>79.46394233070268</v>
       </c>
       <c r="P22" t="n">
-        <v>83.63942497583898</v>
+        <v>83.63942497583892</v>
       </c>
       <c r="Q22" t="n">
-        <v>103.5288848663846</v>
+        <v>103.5288848663845</v>
       </c>
       <c r="R22" t="n">
-        <v>137.5187009483812</v>
+        <v>137.5187009483811</v>
       </c>
       <c r="S22" t="n">
         <v>207.4999652839304</v>
@@ -29056,40 +29056,40 @@
         <v>324.1575019079524</v>
       </c>
       <c r="I23" t="n">
-        <v>297.453646234228</v>
+        <v>297.4536462342279</v>
       </c>
       <c r="J23" t="n">
-        <v>102.8816634704624</v>
+        <v>171.5517716392669</v>
       </c>
       <c r="K23" t="n">
-        <v>112.5514835405493</v>
+        <v>112.5514835405492</v>
       </c>
       <c r="L23" t="n">
-        <v>109.3445309366638</v>
+        <v>109.3445309366636</v>
       </c>
       <c r="M23" t="n">
-        <v>95.67552786690371</v>
+        <v>95.67552786690349</v>
       </c>
       <c r="N23" t="n">
-        <v>93.43707277407934</v>
+        <v>93.43707277407911</v>
       </c>
       <c r="O23" t="n">
-        <v>99.17432145262867</v>
+        <v>99.17432145262846</v>
       </c>
       <c r="P23" t="n">
-        <v>112.9582042322147</v>
+        <v>112.9582042322145</v>
       </c>
       <c r="Q23" t="n">
-        <v>124.3626208658184</v>
+        <v>124.3626208658183</v>
       </c>
       <c r="R23" t="n">
-        <v>253.2341084803021</v>
+        <v>288.8867667053505</v>
       </c>
       <c r="S23" t="n">
-        <v>319.9346676217633</v>
+        <v>319.9346676217631</v>
       </c>
       <c r="T23" t="n">
-        <v>324.1575019079524</v>
+        <v>219.8347355140993</v>
       </c>
       <c r="U23" t="n">
         <v>324.1575019079524</v>
@@ -29132,34 +29132,34 @@
         <v>127.1624622715678</v>
       </c>
       <c r="H24" t="n">
-        <v>96.24631459259479</v>
+        <v>96.24631459259477</v>
       </c>
       <c r="I24" t="n">
-        <v>71.2645270077352</v>
+        <v>71.26452700773517</v>
       </c>
       <c r="J24" t="n">
-        <v>76.71955400614105</v>
+        <v>76.71955400614098</v>
       </c>
       <c r="K24" t="n">
-        <v>66.98372024565222</v>
+        <v>66.98372024565211</v>
       </c>
       <c r="L24" t="n">
-        <v>52.05064111562938</v>
+        <v>52.05064111562924</v>
       </c>
       <c r="M24" t="n">
-        <v>44.85432453608092</v>
+        <v>44.85432453608075</v>
       </c>
       <c r="N24" t="n">
-        <v>34.21620827668144</v>
+        <v>34.21620827668127</v>
       </c>
       <c r="O24" t="n">
-        <v>49.53708892351376</v>
+        <v>49.53708892351361</v>
       </c>
       <c r="P24" t="n">
-        <v>55.62466529233118</v>
+        <v>55.62466529233105</v>
       </c>
       <c r="Q24" t="n">
-        <v>78.15265312299758</v>
+        <v>78.15265312299749</v>
       </c>
       <c r="R24" t="n">
         <v>101.057477245434</v>
@@ -29214,34 +29214,34 @@
         <v>155.7011408377324</v>
       </c>
       <c r="I25" t="n">
-        <v>135.7331106864345</v>
+        <v>135.7331106864344</v>
       </c>
       <c r="J25" t="n">
-        <v>86.66140878686465</v>
+        <v>86.66140878686463</v>
       </c>
       <c r="K25" t="n">
-        <v>77.67194102076728</v>
+        <v>77.67194102076721</v>
       </c>
       <c r="L25" t="n">
-        <v>74.84944336390265</v>
+        <v>74.84944336390257</v>
       </c>
       <c r="M25" t="n">
-        <v>76.24414745277537</v>
+        <v>76.24414745277528</v>
       </c>
       <c r="N25" t="n">
-        <v>67.98250497112167</v>
+        <v>67.98250497112159</v>
       </c>
       <c r="O25" t="n">
-        <v>79.46394233070276</v>
+        <v>79.46394233070268</v>
       </c>
       <c r="P25" t="n">
-        <v>83.63942497583898</v>
+        <v>83.63942497583892</v>
       </c>
       <c r="Q25" t="n">
-        <v>103.5288848663846</v>
+        <v>103.5288848663845</v>
       </c>
       <c r="R25" t="n">
-        <v>137.5187009483812</v>
+        <v>137.5187009483811</v>
       </c>
       <c r="S25" t="n">
         <v>207.4999652839304</v>
@@ -29296,25 +29296,25 @@
         <v>173.4846907110955</v>
       </c>
       <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>173.4846907110955</v>
       </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="M26" t="n">
         <v>173.4846907110955</v>
       </c>
       <c r="N26" t="n">
-        <v>171.2477840615649</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>173.4846907110955</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="Q26" t="n">
         <v>173.4846907110955</v>
@@ -29323,7 +29323,7 @@
         <v>173.4846907110955</v>
       </c>
       <c r="S26" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="T26" t="n">
         <v>173.4846907110955</v>
@@ -29369,19 +29369,19 @@
         <v>127.1624622715678</v>
       </c>
       <c r="H27" t="n">
-        <v>96.24631459259479</v>
+        <v>96.24631459259477</v>
       </c>
       <c r="I27" t="n">
-        <v>71.2645270077352</v>
+        <v>71.26452700773517</v>
       </c>
       <c r="J27" t="n">
-        <v>76.71955400614105</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>66.98372024565222</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>52.05064111562938</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -29390,13 +29390,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>49.53708892351376</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>55.62466529233118</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>78.15265312299758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>101.057477245434</v>
@@ -29433,10 +29433,10 @@
         <v>173.4846907110955</v>
       </c>
       <c r="C28" t="n">
-        <v>173.4846907110955</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D28" t="n">
-        <v>173.4846907110955</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E28" t="n">
         <v>150.4889240962943</v>
@@ -29445,19 +29445,19 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G28" t="n">
-        <v>173.4846907110955</v>
+        <v>166.9968542415478</v>
       </c>
       <c r="H28" t="n">
-        <v>173.4846907110955</v>
+        <v>155.7011408377324</v>
       </c>
       <c r="I28" t="n">
-        <v>173.4846907110955</v>
+        <v>135.7331106864344</v>
       </c>
       <c r="J28" t="n">
-        <v>173.4846907110955</v>
+        <v>86.66140878686463</v>
       </c>
       <c r="K28" t="n">
-        <v>173.4846907110955</v>
+        <v>89.74736045444097</v>
       </c>
       <c r="L28" t="n">
         <v>173.4846907110955</v>
@@ -29469,10 +29469,10 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="Q28" t="n">
         <v>173.4846907110955</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="C29" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="D29" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="E29" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="F29" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="G29" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="H29" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="I29" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="J29" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="K29" t="n">
-        <v>154.3506243759155</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="L29" t="n">
-        <v>109.3445309366638</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="N29" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="O29" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="P29" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="Q29" t="n">
-        <v>173.4846907110956</v>
+        <v>67.45452478013834</v>
       </c>
       <c r="R29" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="S29" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="T29" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="U29" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="V29" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="W29" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="X29" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="Y29" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
     </row>
     <row r="30">
@@ -29609,7 +29609,7 @@
         <v>96.24631459259477</v>
       </c>
       <c r="I30" t="n">
-        <v>71.2645270077352</v>
+        <v>58.10105571457477</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29636,28 +29636,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>101.057477245434</v>
+        <v>41.87930649071691</v>
       </c>
       <c r="S30" t="n">
         <v>146.0937828749041</v>
       </c>
       <c r="T30" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="U30" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="V30" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="W30" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="X30" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="Y30" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
     </row>
     <row r="31">
@@ -29667,7 +29667,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="C31" t="n">
         <v>167.9198098429365</v>
@@ -29688,10 +29688,10 @@
         <v>155.7011408377324</v>
       </c>
       <c r="I31" t="n">
-        <v>135.7331106864345</v>
+        <v>135.7331106864344</v>
       </c>
       <c r="J31" t="n">
-        <v>86.66140878686465</v>
+        <v>42.93429506732429</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -29706,37 +29706,37 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>173.4846907110956</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="Q31" t="n">
-        <v>173.4846907110956</v>
+        <v>18.58303897530761</v>
       </c>
       <c r="R31" t="n">
         <v>137.5187009483811</v>
       </c>
       <c r="S31" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="T31" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="U31" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="V31" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="W31" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="X31" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="Y31" t="n">
-        <v>173.4846907110956</v>
+        <v>173.4846907110955</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="C32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="D32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="E32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="F32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="G32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="H32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="I32" t="n">
-        <v>173.4846907110955</v>
+        <v>151.0036693235603</v>
       </c>
       <c r="J32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="K32" t="n">
-        <v>173.4846907110955</v>
+        <v>153.5652623432131</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="M32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="N32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="O32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="P32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="Q32" t="n">
-        <v>173.4846907110955</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="S32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="T32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="U32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="V32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="W32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="X32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="Y32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
     </row>
     <row r="33">
@@ -29843,10 +29843,10 @@
         <v>127.1624622715678</v>
       </c>
       <c r="H33" t="n">
-        <v>96.24631459259479</v>
+        <v>96.24631459259477</v>
       </c>
       <c r="I33" t="n">
-        <v>71.2645270077352</v>
+        <v>58.10105571457477</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29873,28 +29873,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>101.057477245434</v>
+        <v>41.87930649071691</v>
       </c>
       <c r="S33" t="n">
         <v>146.0937828749041</v>
       </c>
       <c r="T33" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="U33" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="V33" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="W33" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="X33" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="Y33" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
     </row>
     <row r="34">
@@ -29904,7 +29904,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="C34" t="n">
         <v>167.9198098429365</v>
@@ -29925,10 +29925,10 @@
         <v>155.7011408377324</v>
       </c>
       <c r="I34" t="n">
-        <v>153.6761763361648</v>
+        <v>135.7331106864344</v>
       </c>
       <c r="J34" t="n">
-        <v>173.4846907110955</v>
+        <v>42.93429506732429</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -29943,37 +29943,37 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="Q34" t="n">
-        <v>103.5288848663846</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="R34" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="S34" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="T34" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="U34" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="V34" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="W34" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="X34" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
       <c r="Y34" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110956</v>
       </c>
     </row>
     <row r="35">
@@ -30007,7 +30007,7 @@
         <v>217.2033884337816</v>
       </c>
       <c r="J35" t="n">
-        <v>217.2033884337816</v>
+        <v>146.0288152098279</v>
       </c>
       <c r="K35" t="n">
         <v>217.2033884337816</v>
@@ -30034,7 +30034,7 @@
         <v>217.2033884337816</v>
       </c>
       <c r="S35" t="n">
-        <v>196.1190854732089</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="T35" t="n">
         <v>217.2033884337816</v>
@@ -30080,19 +30080,19 @@
         <v>127.1624622715678</v>
       </c>
       <c r="H36" t="n">
-        <v>96.24631459259479</v>
+        <v>96.24631459259477</v>
       </c>
       <c r="I36" t="n">
-        <v>58.1010557145748</v>
+        <v>71.26452700773517</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.71955400614098</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>66.98372024565211</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>52.05064111562924</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -30101,16 +30101,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>49.53708892351361</v>
       </c>
       <c r="P36" t="n">
-        <v>55.62466529233118</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>41.87930649071696</v>
+        <v>101.057477245434</v>
       </c>
       <c r="S36" t="n">
         <v>146.0937828749041</v>
@@ -30144,16 +30144,16 @@
         <v>181.719814997536</v>
       </c>
       <c r="C37" t="n">
-        <v>174.4904035397942</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D37" t="n">
-        <v>217.2033884337816</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E37" t="n">
-        <v>217.2033884337816</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F37" t="n">
-        <v>217.2033884337816</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
         <v>166.9968542415478</v>
@@ -30162,34 +30162,34 @@
         <v>155.7011408377324</v>
       </c>
       <c r="I37" t="n">
-        <v>135.7331106864345</v>
+        <v>203.1884768202681</v>
       </c>
       <c r="J37" t="n">
-        <v>86.66140878686465</v>
+        <v>86.66140878686463</v>
       </c>
       <c r="K37" t="n">
-        <v>77.67194102076728</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>74.84944336390265</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>76.24414745277537</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>67.98250497112167</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>79.46394233070276</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="P37" t="n">
-        <v>83.63942497583898</v>
+        <v>83.63942497583892</v>
       </c>
       <c r="Q37" t="n">
-        <v>103.5288848663846</v>
+        <v>103.5288848663845</v>
       </c>
       <c r="R37" t="n">
-        <v>137.5187009483812</v>
+        <v>137.5187009483811</v>
       </c>
       <c r="S37" t="n">
         <v>207.4999652839304</v>
@@ -30259,7 +30259,7 @@
         <v>217.2033884337816</v>
       </c>
       <c r="O38" t="n">
-        <v>211.052067188874</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="P38" t="n">
         <v>217.2033884337816</v>
@@ -30317,16 +30317,16 @@
         <v>127.1624622715678</v>
       </c>
       <c r="H39" t="n">
-        <v>96.24631459259479</v>
+        <v>96.24631459259477</v>
       </c>
       <c r="I39" t="n">
-        <v>58.1010557145748</v>
+        <v>58.10105571457477</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>66.98372024565222</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -30341,13 +30341,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>55.62466529233118</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>78.15265312299758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>41.87930649071696</v>
+        <v>57.92117660235458</v>
       </c>
       <c r="S39" t="n">
         <v>146.0937828749041</v>
@@ -30399,34 +30399,34 @@
         <v>155.7011408377324</v>
       </c>
       <c r="I40" t="n">
-        <v>135.7331106864345</v>
+        <v>135.7331106864344</v>
       </c>
       <c r="J40" t="n">
-        <v>86.66140878686465</v>
+        <v>86.66140878686463</v>
       </c>
       <c r="K40" t="n">
+        <v>77.67194102076721</v>
+      </c>
+      <c r="L40" t="n">
         <v>217.2033884337816</v>
       </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
       <c r="M40" t="n">
-        <v>141.9075122766736</v>
+        <v>139.0850146198084</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>67.98250497112159</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>79.46394233070268</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>83.63942497583892</v>
       </c>
       <c r="Q40" t="n">
-        <v>103.5288848663846</v>
+        <v>103.5288848663845</v>
       </c>
       <c r="R40" t="n">
-        <v>137.5187009483812</v>
+        <v>137.5187009483811</v>
       </c>
       <c r="S40" t="n">
         <v>207.4999652839304</v>
@@ -30457,76 +30457,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337815</v>
       </c>
       <c r="C41" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337815</v>
       </c>
       <c r="D41" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337815</v>
       </c>
       <c r="E41" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337815</v>
       </c>
       <c r="F41" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337815</v>
       </c>
       <c r="G41" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337815</v>
       </c>
       <c r="H41" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337815</v>
       </c>
       <c r="I41" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337815</v>
       </c>
       <c r="J41" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337815</v>
       </c>
       <c r="K41" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337815</v>
       </c>
       <c r="L41" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337815</v>
       </c>
       <c r="M41" t="n">
-        <v>217.2033884337816</v>
+        <v>24.68001049051531</v>
       </c>
       <c r="N41" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337815</v>
       </c>
       <c r="O41" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337815</v>
       </c>
       <c r="P41" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337815</v>
       </c>
       <c r="Q41" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337815</v>
       </c>
       <c r="R41" t="n">
-        <v>214.876311282743</v>
+        <v>217.2033884337815</v>
       </c>
       <c r="S41" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337815</v>
       </c>
       <c r="T41" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337815</v>
       </c>
       <c r="U41" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337815</v>
       </c>
       <c r="V41" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337815</v>
       </c>
       <c r="W41" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337815</v>
       </c>
       <c r="X41" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337815</v>
       </c>
       <c r="Y41" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337815</v>
       </c>
     </row>
     <row r="42">
@@ -30554,19 +30554,19 @@
         <v>127.1624622715678</v>
       </c>
       <c r="H42" t="n">
-        <v>96.24631459259479</v>
+        <v>96.24631459259477</v>
       </c>
       <c r="I42" t="n">
-        <v>58.1010557145748</v>
+        <v>71.26452700773517</v>
       </c>
       <c r="J42" t="n">
-        <v>76.71955400614105</v>
+        <v>76.71955400614098</v>
       </c>
       <c r="K42" t="n">
-        <v>66.98372024565222</v>
+        <v>66.98372024565211</v>
       </c>
       <c r="L42" t="n">
-        <v>52.05064111562938</v>
+        <v>83.27969890321148</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -30581,10 +30581,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>78.15265312299758</v>
+        <v>78.15265312299749</v>
       </c>
       <c r="R42" t="n">
-        <v>41.87930649071696</v>
+        <v>101.057477245434</v>
       </c>
       <c r="S42" t="n">
         <v>146.0937828749041</v>
@@ -30596,10 +30596,10 @@
         <v>216.2915054838979</v>
       </c>
       <c r="V42" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337815</v>
       </c>
       <c r="W42" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337815</v>
       </c>
       <c r="X42" t="n">
         <v>195.9378182409833</v>
@@ -30630,61 +30630,61 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>166.9968542415478</v>
+        <v>217.2033884337815</v>
       </c>
       <c r="H43" t="n">
-        <v>155.7011408377324</v>
+        <v>217.2033884337815</v>
       </c>
       <c r="I43" t="n">
-        <v>135.7331106864345</v>
+        <v>217.2033884337815</v>
       </c>
       <c r="J43" t="n">
-        <v>86.66140878686465</v>
+        <v>98.67716148814742</v>
       </c>
       <c r="K43" t="n">
-        <v>217.2033884337816</v>
+        <v>77.67194102076721</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>74.84944336390257</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>76.24414745277528</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>67.98250497112159</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>79.46394233070268</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>83.63942497583892</v>
       </c>
       <c r="Q43" t="n">
-        <v>103.5288848663846</v>
+        <v>103.5288848663845</v>
       </c>
       <c r="R43" t="n">
-        <v>137.5187009483812</v>
+        <v>137.5187009483811</v>
       </c>
       <c r="S43" t="n">
         <v>207.4999652839304</v>
       </c>
       <c r="T43" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337815</v>
       </c>
       <c r="U43" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337815</v>
       </c>
       <c r="V43" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337815</v>
       </c>
       <c r="W43" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337815</v>
       </c>
       <c r="X43" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337815</v>
       </c>
       <c r="Y43" t="n">
-        <v>217.2033884337816</v>
+        <v>217.2033884337815</v>
       </c>
     </row>
     <row r="44">
@@ -30718,7 +30718,7 @@
         <v>217.2033884337816</v>
       </c>
       <c r="J44" t="n">
-        <v>52.55105737065436</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="K44" t="n">
         <v>217.2033884337816</v>
@@ -30736,7 +30736,7 @@
         <v>217.2033884337816</v>
       </c>
       <c r="P44" t="n">
-        <v>217.2033884337816</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>217.2033884337816</v>
@@ -30745,7 +30745,7 @@
         <v>217.2033884337816</v>
       </c>
       <c r="S44" t="n">
-        <v>217.2033884337816</v>
+        <v>206.3648278257442</v>
       </c>
       <c r="T44" t="n">
         <v>217.2033884337816</v>
@@ -30791,19 +30791,19 @@
         <v>127.1624622715678</v>
       </c>
       <c r="H45" t="n">
-        <v>96.24631459259479</v>
+        <v>96.24631459259477</v>
       </c>
       <c r="I45" t="n">
-        <v>71.2645270077352</v>
+        <v>71.26452700773517</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.71955400614098</v>
       </c>
       <c r="K45" t="n">
-        <v>66.98372024565222</v>
+        <v>66.98372024565211</v>
       </c>
       <c r="L45" t="n">
-        <v>52.05064111562938</v>
+        <v>52.05064111562924</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -30812,13 +30812,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>49.53708892351361</v>
       </c>
       <c r="P45" t="n">
-        <v>55.62466529233118</v>
+        <v>55.62466529233105</v>
       </c>
       <c r="Q45" t="n">
-        <v>78.15265312299758</v>
+        <v>78.15265312299749</v>
       </c>
       <c r="R45" t="n">
         <v>101.057477245434</v>
@@ -30827,7 +30827,7 @@
         <v>146.0937828749041</v>
       </c>
       <c r="T45" t="n">
-        <v>185.6746837770579</v>
+        <v>216.9037415646401</v>
       </c>
       <c r="U45" t="n">
         <v>216.2915054838979</v>
@@ -30855,16 +30855,16 @@
         <v>181.719814997536</v>
       </c>
       <c r="C46" t="n">
-        <v>217.2033884337816</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D46" t="n">
-        <v>217.2033884337816</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E46" t="n">
-        <v>217.2033884337816</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F46" t="n">
-        <v>174.4904035397938</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
         <v>166.9968542415478</v>
@@ -30873,34 +30873,34 @@
         <v>155.7011408377324</v>
       </c>
       <c r="I46" t="n">
-        <v>135.7331106864345</v>
+        <v>135.7331106864344</v>
       </c>
       <c r="J46" t="n">
-        <v>86.66140878686465</v>
+        <v>86.66140878686463</v>
       </c>
       <c r="K46" t="n">
-        <v>77.67194102076728</v>
+        <v>77.67194102076721</v>
       </c>
       <c r="L46" t="n">
-        <v>74.84944336390265</v>
+        <v>217.2033884337816</v>
       </c>
       <c r="M46" t="n">
-        <v>76.24414745277537</v>
+        <v>139.0850146198088</v>
       </c>
       <c r="N46" t="n">
-        <v>67.98250497112167</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>79.46394233070276</v>
+        <v>79.46394233070268</v>
       </c>
       <c r="P46" t="n">
-        <v>83.63942497583898</v>
+        <v>83.63942497583892</v>
       </c>
       <c r="Q46" t="n">
-        <v>103.5288848663846</v>
+        <v>103.5288848663845</v>
       </c>
       <c r="R46" t="n">
-        <v>137.5187009483812</v>
+        <v>137.5187009483811</v>
       </c>
       <c r="S46" t="n">
         <v>207.4999652839304</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5209871598399994</v>
+        <v>0.5209871598400008</v>
       </c>
       <c r="H11" t="n">
-        <v>5.335559750711396</v>
+        <v>5.335559750711409</v>
       </c>
       <c r="I11" t="n">
-        <v>20.0853574797316</v>
+        <v>20.08535747973165</v>
       </c>
       <c r="J11" t="n">
-        <v>44.21813395747019</v>
+        <v>44.2181339574703</v>
       </c>
       <c r="K11" t="n">
-        <v>66.27152043349739</v>
+        <v>66.27152043349754</v>
       </c>
       <c r="L11" t="n">
-        <v>82.21568122645078</v>
+        <v>82.21568122645098</v>
       </c>
       <c r="M11" t="n">
-        <v>91.48078663025538</v>
+        <v>91.48078663025559</v>
       </c>
       <c r="N11" t="n">
-        <v>92.96104139815078</v>
+        <v>92.96104139815101</v>
       </c>
       <c r="O11" t="n">
-        <v>87.78047532749179</v>
+        <v>87.780475327492</v>
       </c>
       <c r="P11" t="n">
-        <v>74.91860481894179</v>
+        <v>74.91860481894196</v>
       </c>
       <c r="Q11" t="n">
-        <v>56.26075215717179</v>
+        <v>56.26075215717192</v>
       </c>
       <c r="R11" t="n">
-        <v>32.7264596792994</v>
+        <v>32.72645967929947</v>
       </c>
       <c r="S11" t="n">
-        <v>11.871994904854</v>
+        <v>11.87199490485403</v>
       </c>
       <c r="T11" t="n">
-        <v>2.280621292199599</v>
+        <v>2.280621292199605</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04167897278719995</v>
+        <v>0.04167897278720005</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2787527053804301</v>
+        <v>0.2787527053804308</v>
       </c>
       <c r="H12" t="n">
-        <v>2.692164286174155</v>
+        <v>2.692164286174161</v>
       </c>
       <c r="I12" t="n">
-        <v>9.597406742264811</v>
+        <v>9.597406742264834</v>
       </c>
       <c r="J12" t="n">
-        <v>26.33601766052564</v>
+        <v>26.33601766052571</v>
       </c>
       <c r="K12" t="n">
-        <v>45.01244892101446</v>
+        <v>45.01244892101457</v>
       </c>
       <c r="L12" t="n">
-        <v>60.5247924555184</v>
+        <v>60.52479245551854</v>
       </c>
       <c r="M12" t="n">
-        <v>70.62957802555897</v>
+        <v>70.62957802555914</v>
       </c>
       <c r="N12" t="n">
-        <v>72.49893279102687</v>
+        <v>72.49893279102704</v>
       </c>
       <c r="O12" t="n">
-        <v>66.32235968759734</v>
+        <v>66.3223596875975</v>
       </c>
       <c r="P12" t="n">
-        <v>53.22954073181214</v>
+        <v>53.22954073181227</v>
       </c>
       <c r="Q12" t="n">
-        <v>35.58253832189491</v>
+        <v>35.58253832189499</v>
       </c>
       <c r="R12" t="n">
-        <v>17.30711972528671</v>
+        <v>17.30711972528675</v>
       </c>
       <c r="S12" t="n">
-        <v>5.177709242482986</v>
+        <v>5.177709242482998</v>
       </c>
       <c r="T12" t="n">
-        <v>1.123569018616733</v>
+        <v>1.123569018616736</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01833899377502831</v>
+        <v>0.01833899377502835</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2336969042806885</v>
+        <v>0.233696904280689</v>
       </c>
       <c r="H13" t="n">
-        <v>2.077777930786486</v>
+        <v>2.077777930786491</v>
       </c>
       <c r="I13" t="n">
-        <v>7.027903266913796</v>
+        <v>7.027903266913814</v>
       </c>
       <c r="J13" t="n">
-        <v>16.52237113264467</v>
+        <v>16.52237113264471</v>
       </c>
       <c r="K13" t="n">
-        <v>27.15133124279271</v>
+        <v>27.15133124279277</v>
       </c>
       <c r="L13" t="n">
-        <v>34.74435611460345</v>
+        <v>34.74435611460353</v>
       </c>
       <c r="M13" t="n">
-        <v>36.63305200465373</v>
+        <v>36.63305200465382</v>
       </c>
       <c r="N13" t="n">
-        <v>35.76199990688028</v>
+        <v>35.76199990688037</v>
       </c>
       <c r="O13" t="n">
-        <v>33.0319951614195</v>
+        <v>33.03199516141958</v>
       </c>
       <c r="P13" t="n">
-        <v>28.26457831409343</v>
+        <v>28.2645783140935</v>
       </c>
       <c r="Q13" t="n">
-        <v>19.56892895754019</v>
+        <v>19.56892895754024</v>
       </c>
       <c r="R13" t="n">
-        <v>10.50786262338441</v>
+        <v>10.50786262338443</v>
       </c>
       <c r="S13" t="n">
-        <v>4.072699686418906</v>
+        <v>4.072699686418916</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9985231364720322</v>
+        <v>0.9985231364720346</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01274710386985575</v>
+        <v>0.01274710386985578</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5209871598399994</v>
+        <v>0.5209871598400008</v>
       </c>
       <c r="H14" t="n">
-        <v>5.335559750711396</v>
+        <v>5.335559750711409</v>
       </c>
       <c r="I14" t="n">
-        <v>20.0853574797316</v>
+        <v>20.08535747973165</v>
       </c>
       <c r="J14" t="n">
-        <v>44.21813395747019</v>
+        <v>44.2181339574703</v>
       </c>
       <c r="K14" t="n">
-        <v>66.27152043349739</v>
+        <v>66.27152043349754</v>
       </c>
       <c r="L14" t="n">
-        <v>82.21568122645078</v>
+        <v>82.21568122645098</v>
       </c>
       <c r="M14" t="n">
-        <v>91.48078663025538</v>
+        <v>91.48078663025559</v>
       </c>
       <c r="N14" t="n">
-        <v>92.96104139815078</v>
+        <v>92.96104139815101</v>
       </c>
       <c r="O14" t="n">
-        <v>87.78047532749179</v>
+        <v>87.780475327492</v>
       </c>
       <c r="P14" t="n">
-        <v>74.91860481894179</v>
+        <v>74.91860481894196</v>
       </c>
       <c r="Q14" t="n">
-        <v>56.26075215717179</v>
+        <v>56.26075215717192</v>
       </c>
       <c r="R14" t="n">
-        <v>32.7264596792994</v>
+        <v>32.72645967929947</v>
       </c>
       <c r="S14" t="n">
-        <v>11.871994904854</v>
+        <v>11.87199490485403</v>
       </c>
       <c r="T14" t="n">
-        <v>2.280621292199599</v>
+        <v>2.280621292199605</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04167897278719995</v>
+        <v>0.04167897278720005</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2787527053804301</v>
+        <v>0.2787527053804308</v>
       </c>
       <c r="H15" t="n">
-        <v>2.692164286174155</v>
+        <v>2.692164286174161</v>
       </c>
       <c r="I15" t="n">
-        <v>9.597406742264811</v>
+        <v>9.597406742264834</v>
       </c>
       <c r="J15" t="n">
-        <v>26.33601766052564</v>
+        <v>26.33601766052571</v>
       </c>
       <c r="K15" t="n">
-        <v>45.01244892101446</v>
+        <v>45.01244892101457</v>
       </c>
       <c r="L15" t="n">
-        <v>60.5247924555184</v>
+        <v>60.52479245551854</v>
       </c>
       <c r="M15" t="n">
-        <v>70.62957802555897</v>
+        <v>70.62957802555914</v>
       </c>
       <c r="N15" t="n">
-        <v>72.49893279102687</v>
+        <v>72.49893279102704</v>
       </c>
       <c r="O15" t="n">
-        <v>66.32235968759734</v>
+        <v>66.3223596875975</v>
       </c>
       <c r="P15" t="n">
-        <v>53.22954073181214</v>
+        <v>53.22954073181227</v>
       </c>
       <c r="Q15" t="n">
-        <v>35.58253832189491</v>
+        <v>35.58253832189499</v>
       </c>
       <c r="R15" t="n">
-        <v>17.30711972528671</v>
+        <v>17.30711972528675</v>
       </c>
       <c r="S15" t="n">
-        <v>5.177709242482986</v>
+        <v>5.177709242482998</v>
       </c>
       <c r="T15" t="n">
-        <v>1.123569018616733</v>
+        <v>1.123569018616736</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01833899377502831</v>
+        <v>0.01833899377502835</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2336969042806885</v>
+        <v>0.233696904280689</v>
       </c>
       <c r="H16" t="n">
-        <v>2.077777930786486</v>
+        <v>2.077777930786491</v>
       </c>
       <c r="I16" t="n">
-        <v>7.027903266913796</v>
+        <v>7.027903266913814</v>
       </c>
       <c r="J16" t="n">
-        <v>16.52237113264467</v>
+        <v>16.52237113264471</v>
       </c>
       <c r="K16" t="n">
-        <v>27.15133124279271</v>
+        <v>27.15133124279277</v>
       </c>
       <c r="L16" t="n">
-        <v>34.74435611460345</v>
+        <v>34.74435611460353</v>
       </c>
       <c r="M16" t="n">
-        <v>36.63305200465373</v>
+        <v>36.63305200465382</v>
       </c>
       <c r="N16" t="n">
-        <v>35.76199990688028</v>
+        <v>35.76199990688037</v>
       </c>
       <c r="O16" t="n">
-        <v>33.0319951614195</v>
+        <v>33.03199516141958</v>
       </c>
       <c r="P16" t="n">
-        <v>28.26457831409343</v>
+        <v>28.2645783140935</v>
       </c>
       <c r="Q16" t="n">
-        <v>19.56892895754019</v>
+        <v>19.56892895754024</v>
       </c>
       <c r="R16" t="n">
-        <v>10.50786262338441</v>
+        <v>10.50786262338443</v>
       </c>
       <c r="S16" t="n">
-        <v>4.072699686418906</v>
+        <v>4.072699686418916</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9985231364720322</v>
+        <v>0.9985231364720346</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01274710386985575</v>
+        <v>0.01274710386985578</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5209871598399994</v>
+        <v>0.5209871598400008</v>
       </c>
       <c r="H17" t="n">
-        <v>5.335559750711396</v>
+        <v>5.335559750711409</v>
       </c>
       <c r="I17" t="n">
-        <v>20.0853574797316</v>
+        <v>20.08535747973165</v>
       </c>
       <c r="J17" t="n">
-        <v>44.21813395747019</v>
+        <v>44.2181339574703</v>
       </c>
       <c r="K17" t="n">
-        <v>66.27152043349739</v>
+        <v>66.27152043349754</v>
       </c>
       <c r="L17" t="n">
-        <v>82.21568122645078</v>
+        <v>82.21568122645098</v>
       </c>
       <c r="M17" t="n">
-        <v>91.48078663025538</v>
+        <v>91.48078663025559</v>
       </c>
       <c r="N17" t="n">
-        <v>92.96104139815078</v>
+        <v>92.96104139815101</v>
       </c>
       <c r="O17" t="n">
-        <v>87.78047532749179</v>
+        <v>87.780475327492</v>
       </c>
       <c r="P17" t="n">
-        <v>74.91860481894179</v>
+        <v>74.91860481894196</v>
       </c>
       <c r="Q17" t="n">
-        <v>56.26075215717179</v>
+        <v>56.26075215717192</v>
       </c>
       <c r="R17" t="n">
-        <v>32.7264596792994</v>
+        <v>32.72645967929947</v>
       </c>
       <c r="S17" t="n">
-        <v>11.871994904854</v>
+        <v>11.87199490485403</v>
       </c>
       <c r="T17" t="n">
-        <v>2.280621292199599</v>
+        <v>2.280621292199605</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04167897278719995</v>
+        <v>0.04167897278720005</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2787527053804301</v>
+        <v>0.2787527053804308</v>
       </c>
       <c r="H18" t="n">
-        <v>2.692164286174155</v>
+        <v>2.692164286174161</v>
       </c>
       <c r="I18" t="n">
-        <v>9.597406742264811</v>
+        <v>9.597406742264834</v>
       </c>
       <c r="J18" t="n">
-        <v>26.33601766052564</v>
+        <v>26.33601766052571</v>
       </c>
       <c r="K18" t="n">
-        <v>45.01244892101446</v>
+        <v>45.01244892101457</v>
       </c>
       <c r="L18" t="n">
-        <v>60.5247924555184</v>
+        <v>60.52479245551854</v>
       </c>
       <c r="M18" t="n">
-        <v>70.62957802555897</v>
+        <v>70.62957802555914</v>
       </c>
       <c r="N18" t="n">
-        <v>72.49893279102687</v>
+        <v>72.49893279102704</v>
       </c>
       <c r="O18" t="n">
-        <v>66.32235968759734</v>
+        <v>66.3223596875975</v>
       </c>
       <c r="P18" t="n">
-        <v>53.22954073181214</v>
+        <v>53.22954073181227</v>
       </c>
       <c r="Q18" t="n">
-        <v>35.58253832189491</v>
+        <v>35.58253832189499</v>
       </c>
       <c r="R18" t="n">
-        <v>17.30711972528671</v>
+        <v>17.30711972528675</v>
       </c>
       <c r="S18" t="n">
-        <v>5.177709242482986</v>
+        <v>5.177709242482998</v>
       </c>
       <c r="T18" t="n">
-        <v>1.123569018616733</v>
+        <v>1.123569018616736</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01833899377502831</v>
+        <v>0.01833899377502835</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2336969042806885</v>
+        <v>0.233696904280689</v>
       </c>
       <c r="H19" t="n">
-        <v>2.077777930786486</v>
+        <v>2.077777930786491</v>
       </c>
       <c r="I19" t="n">
-        <v>7.027903266913796</v>
+        <v>7.027903266913814</v>
       </c>
       <c r="J19" t="n">
-        <v>16.52237113264467</v>
+        <v>16.52237113264471</v>
       </c>
       <c r="K19" t="n">
-        <v>27.15133124279271</v>
+        <v>27.15133124279277</v>
       </c>
       <c r="L19" t="n">
-        <v>34.74435611460345</v>
+        <v>34.74435611460353</v>
       </c>
       <c r="M19" t="n">
-        <v>36.63305200465373</v>
+        <v>36.63305200465382</v>
       </c>
       <c r="N19" t="n">
-        <v>35.76199990688028</v>
+        <v>35.76199990688037</v>
       </c>
       <c r="O19" t="n">
-        <v>33.0319951614195</v>
+        <v>33.03199516141958</v>
       </c>
       <c r="P19" t="n">
-        <v>28.26457831409343</v>
+        <v>28.2645783140935</v>
       </c>
       <c r="Q19" t="n">
-        <v>19.56892895754019</v>
+        <v>19.56892895754024</v>
       </c>
       <c r="R19" t="n">
-        <v>10.50786262338441</v>
+        <v>10.50786262338443</v>
       </c>
       <c r="S19" t="n">
-        <v>4.072699686418906</v>
+        <v>4.072699686418916</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9985231364720322</v>
+        <v>0.9985231364720346</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01274710386985575</v>
+        <v>0.01274710386985578</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5209871598399994</v>
+        <v>0.5209871598400008</v>
       </c>
       <c r="H20" t="n">
-        <v>5.335559750711396</v>
+        <v>5.335559750711409</v>
       </c>
       <c r="I20" t="n">
-        <v>20.0853574797316</v>
+        <v>20.08535747973165</v>
       </c>
       <c r="J20" t="n">
-        <v>44.21813395747019</v>
+        <v>44.2181339574703</v>
       </c>
       <c r="K20" t="n">
-        <v>66.27152043349739</v>
+        <v>66.27152043349754</v>
       </c>
       <c r="L20" t="n">
-        <v>82.21568122645078</v>
+        <v>82.21568122645098</v>
       </c>
       <c r="M20" t="n">
-        <v>91.48078663025538</v>
+        <v>91.48078663025559</v>
       </c>
       <c r="N20" t="n">
-        <v>92.96104139815078</v>
+        <v>92.96104139815101</v>
       </c>
       <c r="O20" t="n">
-        <v>87.78047532749179</v>
+        <v>87.780475327492</v>
       </c>
       <c r="P20" t="n">
-        <v>74.91860481894179</v>
+        <v>74.91860481894196</v>
       </c>
       <c r="Q20" t="n">
-        <v>56.26075215717179</v>
+        <v>56.26075215717192</v>
       </c>
       <c r="R20" t="n">
-        <v>32.7264596792994</v>
+        <v>32.72645967929947</v>
       </c>
       <c r="S20" t="n">
-        <v>11.871994904854</v>
+        <v>11.87199490485403</v>
       </c>
       <c r="T20" t="n">
-        <v>2.280621292199599</v>
+        <v>2.280621292199605</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04167897278719995</v>
+        <v>0.04167897278720005</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2787527053804301</v>
+        <v>0.2787527053804308</v>
       </c>
       <c r="H21" t="n">
-        <v>2.692164286174155</v>
+        <v>2.692164286174161</v>
       </c>
       <c r="I21" t="n">
-        <v>9.597406742264811</v>
+        <v>9.597406742264834</v>
       </c>
       <c r="J21" t="n">
-        <v>26.33601766052564</v>
+        <v>26.33601766052571</v>
       </c>
       <c r="K21" t="n">
-        <v>45.01244892101446</v>
+        <v>45.01244892101457</v>
       </c>
       <c r="L21" t="n">
-        <v>60.5247924555184</v>
+        <v>60.52479245551854</v>
       </c>
       <c r="M21" t="n">
-        <v>70.62957802555897</v>
+        <v>70.62957802555914</v>
       </c>
       <c r="N21" t="n">
-        <v>72.49893279102687</v>
+        <v>72.49893279102704</v>
       </c>
       <c r="O21" t="n">
-        <v>66.32235968759734</v>
+        <v>66.3223596875975</v>
       </c>
       <c r="P21" t="n">
-        <v>53.22954073181214</v>
+        <v>53.22954073181227</v>
       </c>
       <c r="Q21" t="n">
-        <v>35.58253832189491</v>
+        <v>35.58253832189499</v>
       </c>
       <c r="R21" t="n">
-        <v>17.30711972528671</v>
+        <v>17.30711972528675</v>
       </c>
       <c r="S21" t="n">
-        <v>5.177709242482986</v>
+        <v>5.177709242482998</v>
       </c>
       <c r="T21" t="n">
-        <v>1.123569018616733</v>
+        <v>1.123569018616736</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01833899377502831</v>
+        <v>0.01833899377502835</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2336969042806885</v>
+        <v>0.233696904280689</v>
       </c>
       <c r="H22" t="n">
-        <v>2.077777930786486</v>
+        <v>2.077777930786491</v>
       </c>
       <c r="I22" t="n">
-        <v>7.027903266913796</v>
+        <v>7.027903266913814</v>
       </c>
       <c r="J22" t="n">
-        <v>16.52237113264467</v>
+        <v>16.52237113264471</v>
       </c>
       <c r="K22" t="n">
-        <v>27.15133124279271</v>
+        <v>27.15133124279277</v>
       </c>
       <c r="L22" t="n">
-        <v>34.74435611460345</v>
+        <v>34.74435611460353</v>
       </c>
       <c r="M22" t="n">
-        <v>36.63305200465373</v>
+        <v>36.63305200465382</v>
       </c>
       <c r="N22" t="n">
-        <v>35.76199990688028</v>
+        <v>35.76199990688037</v>
       </c>
       <c r="O22" t="n">
-        <v>33.0319951614195</v>
+        <v>33.03199516141958</v>
       </c>
       <c r="P22" t="n">
-        <v>28.26457831409343</v>
+        <v>28.2645783140935</v>
       </c>
       <c r="Q22" t="n">
-        <v>19.56892895754019</v>
+        <v>19.56892895754024</v>
       </c>
       <c r="R22" t="n">
-        <v>10.50786262338441</v>
+        <v>10.50786262338443</v>
       </c>
       <c r="S22" t="n">
-        <v>4.072699686418906</v>
+        <v>4.072699686418916</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9985231364720322</v>
+        <v>0.9985231364720346</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01274710386985575</v>
+        <v>0.01274710386985578</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5209871598399994</v>
+        <v>0.5209871598400008</v>
       </c>
       <c r="H23" t="n">
-        <v>5.335559750711396</v>
+        <v>5.335559750711409</v>
       </c>
       <c r="I23" t="n">
-        <v>20.0853574797316</v>
+        <v>20.08535747973165</v>
       </c>
       <c r="J23" t="n">
-        <v>44.21813395747019</v>
+        <v>44.2181339574703</v>
       </c>
       <c r="K23" t="n">
-        <v>66.27152043349739</v>
+        <v>66.27152043349754</v>
       </c>
       <c r="L23" t="n">
-        <v>82.21568122645078</v>
+        <v>82.21568122645098</v>
       </c>
       <c r="M23" t="n">
-        <v>91.48078663025538</v>
+        <v>91.48078663025559</v>
       </c>
       <c r="N23" t="n">
-        <v>92.96104139815078</v>
+        <v>92.96104139815101</v>
       </c>
       <c r="O23" t="n">
-        <v>87.78047532749179</v>
+        <v>87.780475327492</v>
       </c>
       <c r="P23" t="n">
-        <v>74.91860481894179</v>
+        <v>74.91860481894196</v>
       </c>
       <c r="Q23" t="n">
-        <v>56.26075215717179</v>
+        <v>56.26075215717192</v>
       </c>
       <c r="R23" t="n">
-        <v>32.7264596792994</v>
+        <v>32.72645967929947</v>
       </c>
       <c r="S23" t="n">
-        <v>11.871994904854</v>
+        <v>11.87199490485403</v>
       </c>
       <c r="T23" t="n">
-        <v>2.280621292199599</v>
+        <v>2.280621292199605</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04167897278719995</v>
+        <v>0.04167897278720005</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2787527053804301</v>
+        <v>0.2787527053804308</v>
       </c>
       <c r="H24" t="n">
-        <v>2.692164286174155</v>
+        <v>2.692164286174161</v>
       </c>
       <c r="I24" t="n">
-        <v>9.597406742264811</v>
+        <v>9.597406742264834</v>
       </c>
       <c r="J24" t="n">
-        <v>26.33601766052564</v>
+        <v>26.33601766052571</v>
       </c>
       <c r="K24" t="n">
-        <v>45.01244892101446</v>
+        <v>45.01244892101457</v>
       </c>
       <c r="L24" t="n">
-        <v>60.5247924555184</v>
+        <v>60.52479245551854</v>
       </c>
       <c r="M24" t="n">
-        <v>70.62957802555897</v>
+        <v>70.62957802555914</v>
       </c>
       <c r="N24" t="n">
-        <v>72.49893279102687</v>
+        <v>72.49893279102704</v>
       </c>
       <c r="O24" t="n">
-        <v>66.32235968759734</v>
+        <v>66.3223596875975</v>
       </c>
       <c r="P24" t="n">
-        <v>53.22954073181214</v>
+        <v>53.22954073181227</v>
       </c>
       <c r="Q24" t="n">
-        <v>35.58253832189491</v>
+        <v>35.58253832189499</v>
       </c>
       <c r="R24" t="n">
-        <v>17.30711972528671</v>
+        <v>17.30711972528675</v>
       </c>
       <c r="S24" t="n">
-        <v>5.177709242482986</v>
+        <v>5.177709242482998</v>
       </c>
       <c r="T24" t="n">
-        <v>1.123569018616733</v>
+        <v>1.123569018616736</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01833899377502831</v>
+        <v>0.01833899377502835</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2336969042806885</v>
+        <v>0.233696904280689</v>
       </c>
       <c r="H25" t="n">
-        <v>2.077777930786486</v>
+        <v>2.077777930786491</v>
       </c>
       <c r="I25" t="n">
-        <v>7.027903266913796</v>
+        <v>7.027903266913814</v>
       </c>
       <c r="J25" t="n">
-        <v>16.52237113264467</v>
+        <v>16.52237113264471</v>
       </c>
       <c r="K25" t="n">
-        <v>27.15133124279271</v>
+        <v>27.15133124279277</v>
       </c>
       <c r="L25" t="n">
-        <v>34.74435611460345</v>
+        <v>34.74435611460353</v>
       </c>
       <c r="M25" t="n">
-        <v>36.63305200465373</v>
+        <v>36.63305200465382</v>
       </c>
       <c r="N25" t="n">
-        <v>35.76199990688028</v>
+        <v>35.76199990688037</v>
       </c>
       <c r="O25" t="n">
-        <v>33.0319951614195</v>
+        <v>33.03199516141958</v>
       </c>
       <c r="P25" t="n">
-        <v>28.26457831409343</v>
+        <v>28.2645783140935</v>
       </c>
       <c r="Q25" t="n">
-        <v>19.56892895754019</v>
+        <v>19.56892895754024</v>
       </c>
       <c r="R25" t="n">
-        <v>10.50786262338441</v>
+        <v>10.50786262338443</v>
       </c>
       <c r="S25" t="n">
-        <v>4.072699686418906</v>
+        <v>4.072699686418916</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9985231364720322</v>
+        <v>0.9985231364720346</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01274710386985575</v>
+        <v>0.01274710386985578</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5209871598399994</v>
+        <v>0.5209871598400008</v>
       </c>
       <c r="H26" t="n">
-        <v>5.335559750711396</v>
+        <v>5.335559750711409</v>
       </c>
       <c r="I26" t="n">
-        <v>20.0853574797316</v>
+        <v>20.08535747973165</v>
       </c>
       <c r="J26" t="n">
-        <v>44.21813395747019</v>
+        <v>44.2181339574703</v>
       </c>
       <c r="K26" t="n">
-        <v>66.27152043349739</v>
+        <v>66.27152043349754</v>
       </c>
       <c r="L26" t="n">
-        <v>82.21568122645078</v>
+        <v>82.21568122645098</v>
       </c>
       <c r="M26" t="n">
-        <v>91.48078663025538</v>
+        <v>91.48078663025559</v>
       </c>
       <c r="N26" t="n">
-        <v>92.96104139815078</v>
+        <v>92.96104139815101</v>
       </c>
       <c r="O26" t="n">
-        <v>87.78047532749179</v>
+        <v>87.780475327492</v>
       </c>
       <c r="P26" t="n">
-        <v>74.91860481894179</v>
+        <v>74.91860481894196</v>
       </c>
       <c r="Q26" t="n">
-        <v>56.26075215717179</v>
+        <v>56.26075215717192</v>
       </c>
       <c r="R26" t="n">
-        <v>32.7264596792994</v>
+        <v>32.72645967929947</v>
       </c>
       <c r="S26" t="n">
-        <v>11.871994904854</v>
+        <v>11.87199490485403</v>
       </c>
       <c r="T26" t="n">
-        <v>2.280621292199599</v>
+        <v>2.280621292199605</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04167897278719995</v>
+        <v>0.04167897278720005</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2787527053804301</v>
+        <v>0.2787527053804308</v>
       </c>
       <c r="H27" t="n">
-        <v>2.692164286174155</v>
+        <v>2.692164286174161</v>
       </c>
       <c r="I27" t="n">
-        <v>9.597406742264811</v>
+        <v>9.597406742264834</v>
       </c>
       <c r="J27" t="n">
-        <v>26.33601766052564</v>
+        <v>26.33601766052571</v>
       </c>
       <c r="K27" t="n">
-        <v>45.01244892101446</v>
+        <v>45.01244892101457</v>
       </c>
       <c r="L27" t="n">
-        <v>60.5247924555184</v>
+        <v>60.52479245551854</v>
       </c>
       <c r="M27" t="n">
-        <v>70.62957802555897</v>
+        <v>70.62957802555914</v>
       </c>
       <c r="N27" t="n">
-        <v>72.49893279102687</v>
+        <v>72.49893279102704</v>
       </c>
       <c r="O27" t="n">
-        <v>66.32235968759734</v>
+        <v>66.3223596875975</v>
       </c>
       <c r="P27" t="n">
-        <v>53.22954073181214</v>
+        <v>53.22954073181227</v>
       </c>
       <c r="Q27" t="n">
-        <v>35.58253832189491</v>
+        <v>35.58253832189499</v>
       </c>
       <c r="R27" t="n">
-        <v>17.30711972528671</v>
+        <v>17.30711972528675</v>
       </c>
       <c r="S27" t="n">
-        <v>5.177709242482986</v>
+        <v>5.177709242482998</v>
       </c>
       <c r="T27" t="n">
-        <v>1.123569018616733</v>
+        <v>1.123569018616736</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01833899377502831</v>
+        <v>0.01833899377502835</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2336969042806885</v>
+        <v>0.233696904280689</v>
       </c>
       <c r="H28" t="n">
-        <v>2.077777930786486</v>
+        <v>2.077777930786491</v>
       </c>
       <c r="I28" t="n">
-        <v>7.027903266913796</v>
+        <v>7.027903266913814</v>
       </c>
       <c r="J28" t="n">
-        <v>16.52237113264467</v>
+        <v>16.52237113264471</v>
       </c>
       <c r="K28" t="n">
-        <v>27.15133124279271</v>
+        <v>27.15133124279277</v>
       </c>
       <c r="L28" t="n">
-        <v>34.74435611460345</v>
+        <v>34.74435611460353</v>
       </c>
       <c r="M28" t="n">
-        <v>36.63305200465373</v>
+        <v>36.63305200465382</v>
       </c>
       <c r="N28" t="n">
-        <v>35.76199990688028</v>
+        <v>35.76199990688037</v>
       </c>
       <c r="O28" t="n">
-        <v>33.0319951614195</v>
+        <v>33.03199516141958</v>
       </c>
       <c r="P28" t="n">
-        <v>28.26457831409343</v>
+        <v>28.2645783140935</v>
       </c>
       <c r="Q28" t="n">
-        <v>19.56892895754019</v>
+        <v>19.56892895754024</v>
       </c>
       <c r="R28" t="n">
-        <v>10.50786262338441</v>
+        <v>10.50786262338443</v>
       </c>
       <c r="S28" t="n">
-        <v>4.072699686418906</v>
+        <v>4.072699686418916</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9985231364720322</v>
+        <v>0.9985231364720346</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01274710386985575</v>
+        <v>0.01274710386985578</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5209871598399998</v>
+        <v>0.5209871598400008</v>
       </c>
       <c r="H29" t="n">
-        <v>5.335559750711399</v>
+        <v>5.335559750711409</v>
       </c>
       <c r="I29" t="n">
-        <v>20.08535747973161</v>
+        <v>20.08535747973165</v>
       </c>
       <c r="J29" t="n">
-        <v>44.21813395747022</v>
+        <v>44.2181339574703</v>
       </c>
       <c r="K29" t="n">
-        <v>66.27152043349741</v>
+        <v>66.27152043349754</v>
       </c>
       <c r="L29" t="n">
-        <v>82.21568122645083</v>
+        <v>82.21568122645098</v>
       </c>
       <c r="M29" t="n">
-        <v>91.48078663025542</v>
+        <v>91.48078663025559</v>
       </c>
       <c r="N29" t="n">
-        <v>92.96104139815083</v>
+        <v>92.96104139815101</v>
       </c>
       <c r="O29" t="n">
-        <v>87.78047532749181</v>
+        <v>87.780475327492</v>
       </c>
       <c r="P29" t="n">
-        <v>74.91860481894182</v>
+        <v>74.91860481894196</v>
       </c>
       <c r="Q29" t="n">
-        <v>56.26075215717181</v>
+        <v>56.26075215717192</v>
       </c>
       <c r="R29" t="n">
-        <v>32.72645967929941</v>
+        <v>32.72645967929947</v>
       </c>
       <c r="S29" t="n">
-        <v>11.87199490485401</v>
+        <v>11.87199490485403</v>
       </c>
       <c r="T29" t="n">
-        <v>2.2806212921996</v>
+        <v>2.280621292199605</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04167897278719997</v>
+        <v>0.04167897278720005</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2787527053804302</v>
+        <v>0.2787527053804308</v>
       </c>
       <c r="H30" t="n">
-        <v>2.692164286174156</v>
+        <v>2.692164286174161</v>
       </c>
       <c r="I30" t="n">
-        <v>9.597406742264814</v>
+        <v>9.597406742264834</v>
       </c>
       <c r="J30" t="n">
-        <v>26.33601766052566</v>
+        <v>26.33601766052571</v>
       </c>
       <c r="K30" t="n">
-        <v>45.01244892101448</v>
+        <v>45.01244892101457</v>
       </c>
       <c r="L30" t="n">
-        <v>60.52479245551842</v>
+        <v>60.52479245551854</v>
       </c>
       <c r="M30" t="n">
-        <v>70.629578025559</v>
+        <v>70.62957802555914</v>
       </c>
       <c r="N30" t="n">
-        <v>72.4989327910269</v>
+        <v>72.49893279102704</v>
       </c>
       <c r="O30" t="n">
-        <v>66.32235968759737</v>
+        <v>66.3223596875975</v>
       </c>
       <c r="P30" t="n">
-        <v>53.22954073181216</v>
+        <v>53.22954073181227</v>
       </c>
       <c r="Q30" t="n">
-        <v>35.58253832189492</v>
+        <v>35.58253832189499</v>
       </c>
       <c r="R30" t="n">
-        <v>17.30711972528672</v>
+        <v>17.30711972528675</v>
       </c>
       <c r="S30" t="n">
-        <v>5.177709242482988</v>
+        <v>5.177709242482998</v>
       </c>
       <c r="T30" t="n">
-        <v>1.123569018616734</v>
+        <v>1.123569018616736</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01833899377502831</v>
+        <v>0.01833899377502835</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2336969042806885</v>
+        <v>0.233696904280689</v>
       </c>
       <c r="H31" t="n">
-        <v>2.077777930786487</v>
+        <v>2.077777930786491</v>
       </c>
       <c r="I31" t="n">
-        <v>7.0279032669138</v>
+        <v>7.027903266913814</v>
       </c>
       <c r="J31" t="n">
-        <v>16.52237113264468</v>
+        <v>16.52237113264471</v>
       </c>
       <c r="K31" t="n">
-        <v>27.15133124279272</v>
+        <v>27.15133124279277</v>
       </c>
       <c r="L31" t="n">
-        <v>34.74435611460346</v>
+        <v>34.74435611460353</v>
       </c>
       <c r="M31" t="n">
-        <v>36.63305200465375</v>
+        <v>36.63305200465382</v>
       </c>
       <c r="N31" t="n">
-        <v>35.7619999068803</v>
+        <v>35.76199990688037</v>
       </c>
       <c r="O31" t="n">
-        <v>33.03199516141952</v>
+        <v>33.03199516141958</v>
       </c>
       <c r="P31" t="n">
-        <v>28.26457831409345</v>
+        <v>28.2645783140935</v>
       </c>
       <c r="Q31" t="n">
-        <v>19.56892895754021</v>
+        <v>19.56892895754024</v>
       </c>
       <c r="R31" t="n">
-        <v>10.50786262338441</v>
+        <v>10.50786262338443</v>
       </c>
       <c r="S31" t="n">
-        <v>4.072699686418908</v>
+        <v>4.072699686418916</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9985231364720326</v>
+        <v>0.9985231364720346</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01274710386985575</v>
+        <v>0.01274710386985578</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5209871598399994</v>
+        <v>0.5209871598400008</v>
       </c>
       <c r="H32" t="n">
-        <v>5.335559750711396</v>
+        <v>5.335559750711409</v>
       </c>
       <c r="I32" t="n">
-        <v>20.0853574797316</v>
+        <v>20.08535747973165</v>
       </c>
       <c r="J32" t="n">
-        <v>44.21813395747019</v>
+        <v>44.2181339574703</v>
       </c>
       <c r="K32" t="n">
-        <v>66.27152043349739</v>
+        <v>66.27152043349754</v>
       </c>
       <c r="L32" t="n">
-        <v>82.21568122645078</v>
+        <v>82.21568122645098</v>
       </c>
       <c r="M32" t="n">
-        <v>91.48078663025538</v>
+        <v>91.48078663025559</v>
       </c>
       <c r="N32" t="n">
-        <v>92.96104139815078</v>
+        <v>92.96104139815101</v>
       </c>
       <c r="O32" t="n">
-        <v>87.78047532749179</v>
+        <v>87.780475327492</v>
       </c>
       <c r="P32" t="n">
-        <v>74.91860481894179</v>
+        <v>74.91860481894196</v>
       </c>
       <c r="Q32" t="n">
-        <v>56.26075215717179</v>
+        <v>56.26075215717192</v>
       </c>
       <c r="R32" t="n">
-        <v>32.7264596792994</v>
+        <v>32.72645967929947</v>
       </c>
       <c r="S32" t="n">
-        <v>11.871994904854</v>
+        <v>11.87199490485403</v>
       </c>
       <c r="T32" t="n">
-        <v>2.280621292199599</v>
+        <v>2.280621292199605</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04167897278719995</v>
+        <v>0.04167897278720005</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2787527053804301</v>
+        <v>0.2787527053804308</v>
       </c>
       <c r="H33" t="n">
-        <v>2.692164286174155</v>
+        <v>2.692164286174161</v>
       </c>
       <c r="I33" t="n">
-        <v>9.597406742264811</v>
+        <v>9.597406742264834</v>
       </c>
       <c r="J33" t="n">
-        <v>26.33601766052564</v>
+        <v>26.33601766052571</v>
       </c>
       <c r="K33" t="n">
-        <v>45.01244892101446</v>
+        <v>45.01244892101457</v>
       </c>
       <c r="L33" t="n">
-        <v>60.5247924555184</v>
+        <v>60.52479245551854</v>
       </c>
       <c r="M33" t="n">
-        <v>70.62957802555897</v>
+        <v>70.62957802555914</v>
       </c>
       <c r="N33" t="n">
-        <v>72.49893279102687</v>
+        <v>72.49893279102704</v>
       </c>
       <c r="O33" t="n">
-        <v>66.32235968759734</v>
+        <v>66.3223596875975</v>
       </c>
       <c r="P33" t="n">
-        <v>53.22954073181214</v>
+        <v>53.22954073181227</v>
       </c>
       <c r="Q33" t="n">
-        <v>35.58253832189491</v>
+        <v>35.58253832189499</v>
       </c>
       <c r="R33" t="n">
-        <v>17.30711972528671</v>
+        <v>17.30711972528675</v>
       </c>
       <c r="S33" t="n">
-        <v>5.177709242482986</v>
+        <v>5.177709242482998</v>
       </c>
       <c r="T33" t="n">
-        <v>1.123569018616733</v>
+        <v>1.123569018616736</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01833899377502831</v>
+        <v>0.01833899377502835</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2336969042806885</v>
+        <v>0.233696904280689</v>
       </c>
       <c r="H34" t="n">
-        <v>2.077777930786486</v>
+        <v>2.077777930786491</v>
       </c>
       <c r="I34" t="n">
-        <v>7.027903266913796</v>
+        <v>7.027903266913814</v>
       </c>
       <c r="J34" t="n">
-        <v>16.52237113264467</v>
+        <v>16.52237113264471</v>
       </c>
       <c r="K34" t="n">
-        <v>27.15133124279271</v>
+        <v>27.15133124279277</v>
       </c>
       <c r="L34" t="n">
-        <v>34.74435611460345</v>
+        <v>34.74435611460353</v>
       </c>
       <c r="M34" t="n">
-        <v>36.63305200465373</v>
+        <v>36.63305200465382</v>
       </c>
       <c r="N34" t="n">
-        <v>35.76199990688028</v>
+        <v>35.76199990688037</v>
       </c>
       <c r="O34" t="n">
-        <v>33.0319951614195</v>
+        <v>33.03199516141958</v>
       </c>
       <c r="P34" t="n">
-        <v>28.26457831409343</v>
+        <v>28.2645783140935</v>
       </c>
       <c r="Q34" t="n">
-        <v>19.56892895754019</v>
+        <v>19.56892895754024</v>
       </c>
       <c r="R34" t="n">
-        <v>10.50786262338441</v>
+        <v>10.50786262338443</v>
       </c>
       <c r="S34" t="n">
-        <v>4.072699686418906</v>
+        <v>4.072699686418916</v>
       </c>
       <c r="T34" t="n">
-        <v>0.9985231364720322</v>
+        <v>0.9985231364720346</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01274710386985575</v>
+        <v>0.01274710386985578</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5209871598399994</v>
+        <v>0.5209871598400008</v>
       </c>
       <c r="H35" t="n">
-        <v>5.335559750711396</v>
+        <v>5.335559750711409</v>
       </c>
       <c r="I35" t="n">
-        <v>20.0853574797316</v>
+        <v>20.08535747973165</v>
       </c>
       <c r="J35" t="n">
-        <v>44.21813395747019</v>
+        <v>44.2181339574703</v>
       </c>
       <c r="K35" t="n">
-        <v>66.27152043349739</v>
+        <v>66.27152043349754</v>
       </c>
       <c r="L35" t="n">
-        <v>82.21568122645078</v>
+        <v>82.21568122645098</v>
       </c>
       <c r="M35" t="n">
-        <v>91.48078663025538</v>
+        <v>91.48078663025559</v>
       </c>
       <c r="N35" t="n">
-        <v>92.96104139815078</v>
+        <v>92.96104139815101</v>
       </c>
       <c r="O35" t="n">
-        <v>87.78047532749179</v>
+        <v>87.780475327492</v>
       </c>
       <c r="P35" t="n">
-        <v>74.91860481894179</v>
+        <v>74.91860481894196</v>
       </c>
       <c r="Q35" t="n">
-        <v>56.26075215717179</v>
+        <v>56.26075215717192</v>
       </c>
       <c r="R35" t="n">
-        <v>32.7264596792994</v>
+        <v>32.72645967929947</v>
       </c>
       <c r="S35" t="n">
-        <v>11.871994904854</v>
+        <v>11.87199490485403</v>
       </c>
       <c r="T35" t="n">
-        <v>2.280621292199599</v>
+        <v>2.280621292199605</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04167897278719995</v>
+        <v>0.04167897278720005</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2787527053804301</v>
+        <v>0.2787527053804308</v>
       </c>
       <c r="H36" t="n">
-        <v>2.692164286174155</v>
+        <v>2.692164286174161</v>
       </c>
       <c r="I36" t="n">
-        <v>9.597406742264811</v>
+        <v>9.597406742264834</v>
       </c>
       <c r="J36" t="n">
-        <v>26.33601766052564</v>
+        <v>26.33601766052571</v>
       </c>
       <c r="K36" t="n">
-        <v>45.01244892101446</v>
+        <v>45.01244892101457</v>
       </c>
       <c r="L36" t="n">
-        <v>60.5247924555184</v>
+        <v>60.52479245551854</v>
       </c>
       <c r="M36" t="n">
-        <v>70.62957802555897</v>
+        <v>70.62957802555914</v>
       </c>
       <c r="N36" t="n">
-        <v>72.49893279102687</v>
+        <v>72.49893279102704</v>
       </c>
       <c r="O36" t="n">
-        <v>66.32235968759734</v>
+        <v>66.3223596875975</v>
       </c>
       <c r="P36" t="n">
-        <v>53.22954073181214</v>
+        <v>53.22954073181227</v>
       </c>
       <c r="Q36" t="n">
-        <v>35.58253832189491</v>
+        <v>35.58253832189499</v>
       </c>
       <c r="R36" t="n">
-        <v>17.30711972528671</v>
+        <v>17.30711972528675</v>
       </c>
       <c r="S36" t="n">
-        <v>5.177709242482986</v>
+        <v>5.177709242482998</v>
       </c>
       <c r="T36" t="n">
-        <v>1.123569018616733</v>
+        <v>1.123569018616736</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01833899377502831</v>
+        <v>0.01833899377502835</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2336969042806885</v>
+        <v>0.233696904280689</v>
       </c>
       <c r="H37" t="n">
-        <v>2.077777930786486</v>
+        <v>2.077777930786491</v>
       </c>
       <c r="I37" t="n">
-        <v>7.027903266913796</v>
+        <v>7.027903266913814</v>
       </c>
       <c r="J37" t="n">
-        <v>16.52237113264467</v>
+        <v>16.52237113264471</v>
       </c>
       <c r="K37" t="n">
-        <v>27.15133124279271</v>
+        <v>27.15133124279277</v>
       </c>
       <c r="L37" t="n">
-        <v>34.74435611460345</v>
+        <v>34.74435611460353</v>
       </c>
       <c r="M37" t="n">
-        <v>36.63305200465373</v>
+        <v>36.63305200465382</v>
       </c>
       <c r="N37" t="n">
-        <v>35.76199990688028</v>
+        <v>35.76199990688037</v>
       </c>
       <c r="O37" t="n">
-        <v>33.0319951614195</v>
+        <v>33.03199516141958</v>
       </c>
       <c r="P37" t="n">
-        <v>28.26457831409343</v>
+        <v>28.2645783140935</v>
       </c>
       <c r="Q37" t="n">
-        <v>19.56892895754019</v>
+        <v>19.56892895754024</v>
       </c>
       <c r="R37" t="n">
-        <v>10.50786262338441</v>
+        <v>10.50786262338443</v>
       </c>
       <c r="S37" t="n">
-        <v>4.072699686418906</v>
+        <v>4.072699686418916</v>
       </c>
       <c r="T37" t="n">
-        <v>0.9985231364720322</v>
+        <v>0.9985231364720346</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01274710386985575</v>
+        <v>0.01274710386985578</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5209871598399994</v>
+        <v>0.5209871598400008</v>
       </c>
       <c r="H38" t="n">
-        <v>5.335559750711396</v>
+        <v>5.335559750711409</v>
       </c>
       <c r="I38" t="n">
-        <v>20.0853574797316</v>
+        <v>20.08535747973165</v>
       </c>
       <c r="J38" t="n">
-        <v>44.21813395747019</v>
+        <v>44.2181339574703</v>
       </c>
       <c r="K38" t="n">
-        <v>66.27152043349739</v>
+        <v>66.27152043349754</v>
       </c>
       <c r="L38" t="n">
-        <v>82.21568122645078</v>
+        <v>82.21568122645098</v>
       </c>
       <c r="M38" t="n">
-        <v>91.48078663025538</v>
+        <v>91.48078663025559</v>
       </c>
       <c r="N38" t="n">
-        <v>92.96104139815078</v>
+        <v>92.96104139815101</v>
       </c>
       <c r="O38" t="n">
-        <v>87.78047532749179</v>
+        <v>87.780475327492</v>
       </c>
       <c r="P38" t="n">
-        <v>74.91860481894179</v>
+        <v>74.91860481894196</v>
       </c>
       <c r="Q38" t="n">
-        <v>56.26075215717179</v>
+        <v>56.26075215717192</v>
       </c>
       <c r="R38" t="n">
-        <v>32.7264596792994</v>
+        <v>32.72645967929947</v>
       </c>
       <c r="S38" t="n">
-        <v>11.871994904854</v>
+        <v>11.87199490485403</v>
       </c>
       <c r="T38" t="n">
-        <v>2.280621292199599</v>
+        <v>2.280621292199605</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04167897278719995</v>
+        <v>0.04167897278720005</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2787527053804301</v>
+        <v>0.2787527053804308</v>
       </c>
       <c r="H39" t="n">
-        <v>2.692164286174155</v>
+        <v>2.692164286174161</v>
       </c>
       <c r="I39" t="n">
-        <v>9.597406742264811</v>
+        <v>9.597406742264834</v>
       </c>
       <c r="J39" t="n">
-        <v>26.33601766052564</v>
+        <v>26.33601766052571</v>
       </c>
       <c r="K39" t="n">
-        <v>45.01244892101446</v>
+        <v>45.01244892101457</v>
       </c>
       <c r="L39" t="n">
-        <v>60.5247924555184</v>
+        <v>60.52479245551854</v>
       </c>
       <c r="M39" t="n">
-        <v>70.62957802555897</v>
+        <v>70.62957802555914</v>
       </c>
       <c r="N39" t="n">
-        <v>72.49893279102687</v>
+        <v>72.49893279102704</v>
       </c>
       <c r="O39" t="n">
-        <v>66.32235968759734</v>
+        <v>66.3223596875975</v>
       </c>
       <c r="P39" t="n">
-        <v>53.22954073181214</v>
+        <v>53.22954073181227</v>
       </c>
       <c r="Q39" t="n">
-        <v>35.58253832189491</v>
+        <v>35.58253832189499</v>
       </c>
       <c r="R39" t="n">
-        <v>17.30711972528671</v>
+        <v>17.30711972528675</v>
       </c>
       <c r="S39" t="n">
-        <v>5.177709242482986</v>
+        <v>5.177709242482998</v>
       </c>
       <c r="T39" t="n">
-        <v>1.123569018616733</v>
+        <v>1.123569018616736</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01833899377502831</v>
+        <v>0.01833899377502835</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2336969042806885</v>
+        <v>0.233696904280689</v>
       </c>
       <c r="H40" t="n">
-        <v>2.077777930786486</v>
+        <v>2.077777930786491</v>
       </c>
       <c r="I40" t="n">
-        <v>7.027903266913796</v>
+        <v>7.027903266913814</v>
       </c>
       <c r="J40" t="n">
-        <v>16.52237113264467</v>
+        <v>16.52237113264471</v>
       </c>
       <c r="K40" t="n">
-        <v>27.15133124279271</v>
+        <v>27.15133124279277</v>
       </c>
       <c r="L40" t="n">
-        <v>34.74435611460345</v>
+        <v>34.74435611460353</v>
       </c>
       <c r="M40" t="n">
-        <v>36.63305200465373</v>
+        <v>36.63305200465382</v>
       </c>
       <c r="N40" t="n">
-        <v>35.76199990688028</v>
+        <v>35.76199990688037</v>
       </c>
       <c r="O40" t="n">
-        <v>33.0319951614195</v>
+        <v>33.03199516141958</v>
       </c>
       <c r="P40" t="n">
-        <v>28.26457831409343</v>
+        <v>28.2645783140935</v>
       </c>
       <c r="Q40" t="n">
-        <v>19.56892895754019</v>
+        <v>19.56892895754024</v>
       </c>
       <c r="R40" t="n">
-        <v>10.50786262338441</v>
+        <v>10.50786262338443</v>
       </c>
       <c r="S40" t="n">
-        <v>4.072699686418906</v>
+        <v>4.072699686418916</v>
       </c>
       <c r="T40" t="n">
-        <v>0.9985231364720322</v>
+        <v>0.9985231364720346</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01274710386985575</v>
+        <v>0.01274710386985578</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5209871598399994</v>
+        <v>0.5209871598400008</v>
       </c>
       <c r="H41" t="n">
-        <v>5.335559750711396</v>
+        <v>5.335559750711409</v>
       </c>
       <c r="I41" t="n">
-        <v>20.0853574797316</v>
+        <v>20.08535747973165</v>
       </c>
       <c r="J41" t="n">
-        <v>44.21813395747019</v>
+        <v>44.2181339574703</v>
       </c>
       <c r="K41" t="n">
-        <v>66.27152043349739</v>
+        <v>66.27152043349754</v>
       </c>
       <c r="L41" t="n">
-        <v>82.21568122645078</v>
+        <v>82.21568122645098</v>
       </c>
       <c r="M41" t="n">
-        <v>91.48078663025538</v>
+        <v>91.48078663025559</v>
       </c>
       <c r="N41" t="n">
-        <v>92.96104139815078</v>
+        <v>92.96104139815101</v>
       </c>
       <c r="O41" t="n">
-        <v>87.78047532749179</v>
+        <v>87.780475327492</v>
       </c>
       <c r="P41" t="n">
-        <v>74.91860481894179</v>
+        <v>74.91860481894196</v>
       </c>
       <c r="Q41" t="n">
-        <v>56.26075215717179</v>
+        <v>56.26075215717192</v>
       </c>
       <c r="R41" t="n">
-        <v>32.7264596792994</v>
+        <v>32.72645967929947</v>
       </c>
       <c r="S41" t="n">
-        <v>11.871994904854</v>
+        <v>11.87199490485403</v>
       </c>
       <c r="T41" t="n">
-        <v>2.280621292199599</v>
+        <v>2.280621292199605</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04167897278719995</v>
+        <v>0.04167897278720005</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2787527053804301</v>
+        <v>0.2787527053804308</v>
       </c>
       <c r="H42" t="n">
-        <v>2.692164286174155</v>
+        <v>2.692164286174161</v>
       </c>
       <c r="I42" t="n">
-        <v>9.597406742264811</v>
+        <v>9.597406742264834</v>
       </c>
       <c r="J42" t="n">
-        <v>26.33601766052564</v>
+        <v>26.33601766052571</v>
       </c>
       <c r="K42" t="n">
-        <v>45.01244892101446</v>
+        <v>45.01244892101457</v>
       </c>
       <c r="L42" t="n">
-        <v>60.5247924555184</v>
+        <v>60.52479245551854</v>
       </c>
       <c r="M42" t="n">
-        <v>70.62957802555897</v>
+        <v>70.62957802555914</v>
       </c>
       <c r="N42" t="n">
-        <v>72.49893279102687</v>
+        <v>72.49893279102704</v>
       </c>
       <c r="O42" t="n">
-        <v>66.32235968759734</v>
+        <v>66.3223596875975</v>
       </c>
       <c r="P42" t="n">
-        <v>53.22954073181214</v>
+        <v>53.22954073181227</v>
       </c>
       <c r="Q42" t="n">
-        <v>35.58253832189491</v>
+        <v>35.58253832189499</v>
       </c>
       <c r="R42" t="n">
-        <v>17.30711972528671</v>
+        <v>17.30711972528675</v>
       </c>
       <c r="S42" t="n">
-        <v>5.177709242482986</v>
+        <v>5.177709242482998</v>
       </c>
       <c r="T42" t="n">
-        <v>1.123569018616733</v>
+        <v>1.123569018616736</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01833899377502831</v>
+        <v>0.01833899377502835</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2336969042806885</v>
+        <v>0.233696904280689</v>
       </c>
       <c r="H43" t="n">
-        <v>2.077777930786486</v>
+        <v>2.077777930786491</v>
       </c>
       <c r="I43" t="n">
-        <v>7.027903266913796</v>
+        <v>7.027903266913814</v>
       </c>
       <c r="J43" t="n">
-        <v>16.52237113264467</v>
+        <v>16.52237113264471</v>
       </c>
       <c r="K43" t="n">
-        <v>27.15133124279271</v>
+        <v>27.15133124279277</v>
       </c>
       <c r="L43" t="n">
-        <v>34.74435611460345</v>
+        <v>34.74435611460353</v>
       </c>
       <c r="M43" t="n">
-        <v>36.63305200465373</v>
+        <v>36.63305200465382</v>
       </c>
       <c r="N43" t="n">
-        <v>35.76199990688028</v>
+        <v>35.76199990688037</v>
       </c>
       <c r="O43" t="n">
-        <v>33.0319951614195</v>
+        <v>33.03199516141958</v>
       </c>
       <c r="P43" t="n">
-        <v>28.26457831409343</v>
+        <v>28.2645783140935</v>
       </c>
       <c r="Q43" t="n">
-        <v>19.56892895754019</v>
+        <v>19.56892895754024</v>
       </c>
       <c r="R43" t="n">
-        <v>10.50786262338441</v>
+        <v>10.50786262338443</v>
       </c>
       <c r="S43" t="n">
-        <v>4.072699686418906</v>
+        <v>4.072699686418916</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9985231364720322</v>
+        <v>0.9985231364720346</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01274710386985575</v>
+        <v>0.01274710386985578</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5209871598399994</v>
+        <v>0.5209871598400008</v>
       </c>
       <c r="H44" t="n">
-        <v>5.335559750711396</v>
+        <v>5.335559750711409</v>
       </c>
       <c r="I44" t="n">
-        <v>20.0853574797316</v>
+        <v>20.08535747973165</v>
       </c>
       <c r="J44" t="n">
-        <v>44.21813395747019</v>
+        <v>44.2181339574703</v>
       </c>
       <c r="K44" t="n">
-        <v>66.27152043349739</v>
+        <v>66.27152043349754</v>
       </c>
       <c r="L44" t="n">
-        <v>82.21568122645078</v>
+        <v>82.21568122645098</v>
       </c>
       <c r="M44" t="n">
-        <v>91.48078663025538</v>
+        <v>91.48078663025559</v>
       </c>
       <c r="N44" t="n">
-        <v>92.96104139815078</v>
+        <v>92.96104139815101</v>
       </c>
       <c r="O44" t="n">
-        <v>87.78047532749179</v>
+        <v>87.780475327492</v>
       </c>
       <c r="P44" t="n">
-        <v>74.91860481894179</v>
+        <v>74.91860481894196</v>
       </c>
       <c r="Q44" t="n">
-        <v>56.26075215717179</v>
+        <v>56.26075215717192</v>
       </c>
       <c r="R44" t="n">
-        <v>32.7264596792994</v>
+        <v>32.72645967929947</v>
       </c>
       <c r="S44" t="n">
-        <v>11.871994904854</v>
+        <v>11.87199490485403</v>
       </c>
       <c r="T44" t="n">
-        <v>2.280621292199599</v>
+        <v>2.280621292199605</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04167897278719995</v>
+        <v>0.04167897278720005</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2787527053804301</v>
+        <v>0.2787527053804308</v>
       </c>
       <c r="H45" t="n">
-        <v>2.692164286174155</v>
+        <v>2.692164286174161</v>
       </c>
       <c r="I45" t="n">
-        <v>9.597406742264811</v>
+        <v>9.597406742264834</v>
       </c>
       <c r="J45" t="n">
-        <v>26.33601766052564</v>
+        <v>26.33601766052571</v>
       </c>
       <c r="K45" t="n">
-        <v>45.01244892101446</v>
+        <v>45.01244892101457</v>
       </c>
       <c r="L45" t="n">
-        <v>60.5247924555184</v>
+        <v>60.52479245551854</v>
       </c>
       <c r="M45" t="n">
-        <v>70.62957802555897</v>
+        <v>70.62957802555914</v>
       </c>
       <c r="N45" t="n">
-        <v>72.49893279102687</v>
+        <v>72.49893279102704</v>
       </c>
       <c r="O45" t="n">
-        <v>66.32235968759734</v>
+        <v>66.3223596875975</v>
       </c>
       <c r="P45" t="n">
-        <v>53.22954073181214</v>
+        <v>53.22954073181227</v>
       </c>
       <c r="Q45" t="n">
-        <v>35.58253832189491</v>
+        <v>35.58253832189499</v>
       </c>
       <c r="R45" t="n">
-        <v>17.30711972528671</v>
+        <v>17.30711972528675</v>
       </c>
       <c r="S45" t="n">
-        <v>5.177709242482986</v>
+        <v>5.177709242482998</v>
       </c>
       <c r="T45" t="n">
-        <v>1.123569018616733</v>
+        <v>1.123569018616736</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01833899377502831</v>
+        <v>0.01833899377502835</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2336969042806885</v>
+        <v>0.233696904280689</v>
       </c>
       <c r="H46" t="n">
-        <v>2.077777930786486</v>
+        <v>2.077777930786491</v>
       </c>
       <c r="I46" t="n">
-        <v>7.027903266913796</v>
+        <v>7.027903266913814</v>
       </c>
       <c r="J46" t="n">
-        <v>16.52237113264467</v>
+        <v>16.52237113264471</v>
       </c>
       <c r="K46" t="n">
-        <v>27.15133124279271</v>
+        <v>27.15133124279277</v>
       </c>
       <c r="L46" t="n">
-        <v>34.74435611460345</v>
+        <v>34.74435611460353</v>
       </c>
       <c r="M46" t="n">
-        <v>36.63305200465373</v>
+        <v>36.63305200465382</v>
       </c>
       <c r="N46" t="n">
-        <v>35.76199990688028</v>
+        <v>35.76199990688037</v>
       </c>
       <c r="O46" t="n">
-        <v>33.0319951614195</v>
+        <v>33.03199516141958</v>
       </c>
       <c r="P46" t="n">
-        <v>28.26457831409343</v>
+        <v>28.2645783140935</v>
       </c>
       <c r="Q46" t="n">
-        <v>19.56892895754019</v>
+        <v>19.56892895754024</v>
       </c>
       <c r="R46" t="n">
-        <v>10.50786262338441</v>
+        <v>10.50786262338443</v>
       </c>
       <c r="S46" t="n">
-        <v>4.072699686418906</v>
+        <v>4.072699686418916</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9985231364720322</v>
+        <v>0.9985231364720346</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01274710386985575</v>
+        <v>0.01274710386985578</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35404,37 +35404,37 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>32.289059586722</v>
+        <v>64.5708935268062</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>112.6928993799042</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>106.2300319137029</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>122.1374900762871</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>116.4002413977378</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>102.6163586181517</v>
+        <v>89.94932485848493</v>
       </c>
       <c r="Q11" t="n">
-        <v>91.21194198454802</v>
+        <v>91.2119419845482</v>
       </c>
       <c r="R11" t="n">
-        <v>73.1377730556835</v>
+        <v>73.13777305568362</v>
       </c>
       <c r="S11" t="n">
-        <v>42.08987213927087</v>
+        <v>42.08987213927096</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -35471,7 +35471,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>35.28435194160882</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -35513,7 +35513,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>35.28435194160899</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -35553,10 +35553,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>64.61871442588586</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>38.50180386998964</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -35583,10 +35583,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>131.9351378745275</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>83.23105840533033</v>
+        <v>112.045677983982</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,37 +35641,37 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>64.57089352680607</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>32.28905958672122</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>119.8990349834627</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>122.1374900762873</v>
       </c>
       <c r="O14" t="n">
-        <v>86.35686255047843</v>
+        <v>116.400241397738</v>
       </c>
       <c r="P14" t="n">
-        <v>102.6163586181517</v>
+        <v>102.6163586181519</v>
       </c>
       <c r="Q14" t="n">
-        <v>91.21194198454799</v>
+        <v>91.21194198454815</v>
       </c>
       <c r="R14" t="n">
-        <v>73.13777305568347</v>
+        <v>73.13777305568357</v>
       </c>
       <c r="S14" t="n">
-        <v>42.08987213927085</v>
+        <v>42.0898721392709</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -35699,7 +35699,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>35.28435194160908</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -35747,7 +35747,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.28435194160899</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35793,13 +35793,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>48.57770860881865</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>59.87342201263403</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>79.841452163932</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -35817,19 +35817,19 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>25.06465639389083</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>112.0456779839819</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>78.05586190198527</v>
+        <v>18.79901592803706</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>8.074597566436054</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -35878,7 +35878,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>146.4499769106677</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -35893,7 +35893,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>110.7973186856193</v>
+        <v>146.4499769106676</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -35905,16 +35905,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>110.797318685619</v>
       </c>
       <c r="S17" t="n">
-        <v>146.4499769106677</v>
+        <v>146.4499769106676</v>
       </c>
       <c r="T17" t="n">
-        <v>104.322766393853</v>
+        <v>104.3227663938531</v>
       </c>
       <c r="U17" t="n">
-        <v>71.86269795759364</v>
+        <v>71.8626979575937</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -36115,10 +36115,10 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>146.4499769106676</v>
       </c>
       <c r="J20" t="n">
-        <v>146.4499769106677</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>146.4499769106677</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -36136,16 +36136,16 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>110.7973186856191</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>110.797318685619</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>146.4499769106676</v>
       </c>
       <c r="T20" t="n">
         <v>104.3227663938531</v>
@@ -36352,10 +36352,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>146.4499769106677</v>
+        <v>146.4499769106676</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>68.67010816880459</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -36379,13 +36379,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>110.7973186856191</v>
+        <v>146.4499769106676</v>
       </c>
       <c r="S23" t="n">
-        <v>146.4499769106677</v>
+        <v>146.4499769106676</v>
       </c>
       <c r="T23" t="n">
-        <v>104.3227663938531</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>71.8626979575937</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>22.48102138753516</v>
+        <v>22.48102138753524</v>
       </c>
       <c r="J26" t="n">
-        <v>70.60302724063308</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>308.8375528019648</v>
+        <v>482.3222435130605</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>605.7782291286876</v>
       </c>
       <c r="M26" t="n">
-        <v>602.5631900063377</v>
+        <v>77.80916284419204</v>
       </c>
       <c r="N26" t="n">
-        <v>77.81071128748557</v>
+        <v>475.1139289615002</v>
       </c>
       <c r="O26" t="n">
-        <v>569.3506049000357</v>
+        <v>232.9951517008475</v>
       </c>
       <c r="P26" t="n">
-        <v>305.3801163907127</v>
+        <v>60.526486478881</v>
       </c>
       <c r="Q26" t="n">
-        <v>325.1315577031532</v>
+        <v>325.1315577031533</v>
       </c>
       <c r="R26" t="n">
-        <v>116.4792467512897</v>
+        <v>116.4792467512898</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,7 +36680,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>216.9231228726206</v>
+        <v>216.9231228726204</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36729,10 +36729,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>5.564880868159008</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>21.94351647058062</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -36741,22 +36741,22 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>6.487836469547713</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>17.78354987336309</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>37.75158002466105</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>86.82328192423086</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>95.81274969032823</v>
+        <v>12.07541943367375</v>
       </c>
       <c r="L28" t="n">
-        <v>137.8520606468389</v>
+        <v>98.63524734719297</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -36765,16 +36765,16 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>94.02074838039286</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>205.2880408064498</v>
       </c>
       <c r="Q28" t="n">
-        <v>69.95580584471095</v>
+        <v>69.95580584471102</v>
       </c>
       <c r="R28" t="n">
-        <v>35.96598976271435</v>
+        <v>35.96598976271441</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>22.48102138753523</v>
+        <v>22.48102138753524</v>
       </c>
       <c r="J29" t="n">
         <v>290.4286269643291</v>
       </c>
       <c r="K29" t="n">
-        <v>463.1881771778803</v>
+        <v>482.3222435130605</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>64.14015977443191</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>77.80916284419204</v>
       </c>
       <c r="N29" t="n">
-        <v>132.7129864831153</v>
+        <v>80.04761793701643</v>
       </c>
       <c r="O29" t="n">
-        <v>569.3506049000358</v>
+        <v>569.3506049000359</v>
       </c>
       <c r="P29" t="n">
-        <v>478.8648071018083</v>
+        <v>478.8648071018084</v>
       </c>
       <c r="Q29" t="n">
-        <v>325.1315577031532</v>
+        <v>219.1013917721961</v>
       </c>
       <c r="R29" t="n">
-        <v>116.4792467512898</v>
+        <v>114.0913922745413</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,7 +36917,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>216.9231228726202</v>
+        <v>216.9231228726204</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -36990,7 +36990,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>61.09495522728107</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -36999,16 +36999,16 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>155.3805269266787</v>
       </c>
       <c r="O31" t="n">
-        <v>95.68580179583635</v>
+        <v>132.4902239449445</v>
       </c>
       <c r="P31" t="n">
-        <v>265.35379804351</v>
+        <v>166.9755454762304</v>
       </c>
       <c r="Q31" t="n">
-        <v>154.9016517357879</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>22.48102138753511</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>290.4286269643289</v>
+        <v>290.4286269643292</v>
       </c>
       <c r="K32" t="n">
-        <v>482.3222435130602</v>
+        <v>462.4028151451781</v>
       </c>
       <c r="L32" t="n">
-        <v>433.6150479789217</v>
+        <v>64.14015977443194</v>
       </c>
       <c r="M32" t="n">
-        <v>77.80916284419175</v>
+        <v>605.7782291286876</v>
       </c>
       <c r="N32" t="n">
-        <v>80.04761793701611</v>
+        <v>80.04761793701645</v>
       </c>
       <c r="O32" t="n">
-        <v>91.45769628784264</v>
+        <v>148.848658674348</v>
       </c>
       <c r="P32" t="n">
-        <v>478.8648071018081</v>
+        <v>478.8648071018084</v>
       </c>
       <c r="Q32" t="n">
-        <v>325.1315577031531</v>
+        <v>151.6468669920578</v>
       </c>
       <c r="R32" t="n">
-        <v>116.4792467512897</v>
+        <v>116.4792467512898</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37157,7 +37157,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>216.923122872621</v>
+        <v>216.9231228726202</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37221,34 +37221,34 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>17.94306564973036</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>130.5503956437711</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>61.09495522728101</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>114.5684335621345</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>155.818411729504</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>144.6656579241987</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>265.3537980435101</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>69.95580584471105</v>
       </c>
       <c r="R34" t="n">
-        <v>35.96598976271429</v>
+        <v>35.96598976271444</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37300,37 +37300,37 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>66.19971911022121</v>
+        <v>66.19971911022125</v>
       </c>
       <c r="J35" t="n">
-        <v>334.147324687015</v>
+        <v>262.9727514630615</v>
       </c>
       <c r="K35" t="n">
-        <v>459.3282522180201</v>
+        <v>104.6519048932324</v>
       </c>
       <c r="L35" t="n">
-        <v>107.8588574971177</v>
+        <v>107.8588574971179</v>
       </c>
       <c r="M35" t="n">
-        <v>121.5278605668778</v>
+        <v>121.5278605668781</v>
       </c>
       <c r="N35" t="n">
-        <v>123.7663156597022</v>
+        <v>123.7663156597024</v>
       </c>
       <c r="O35" t="n">
-        <v>311.4390167010502</v>
+        <v>118.0290669811531</v>
       </c>
       <c r="P35" t="n">
-        <v>104.2451842015668</v>
+        <v>340.9809178168786</v>
       </c>
       <c r="Q35" t="n">
-        <v>92.84076756796313</v>
+        <v>368.8502554258393</v>
       </c>
       <c r="R35" t="n">
-        <v>74.7665986390986</v>
+        <v>160.1979444739758</v>
       </c>
       <c r="S35" t="n">
-        <v>22.63439476211331</v>
+        <v>43.71869772268601</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -37394,16 +37394,16 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
         <v>31.22905778758219</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37440,16 +37440,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>6.570593696857743</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>65.66221419326666</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>66.71446433748721</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>66.24754000930091</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -37458,7 +37458,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>67.45536613383366</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -37476,7 +37476,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>137.7394461030789</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -37537,37 +37537,37 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>66.19971911022121</v>
+        <v>66.19971911022131</v>
       </c>
       <c r="J38" t="n">
-        <v>150.7767383068293</v>
+        <v>334.1473246870152</v>
       </c>
       <c r="K38" t="n">
-        <v>104.6519048932322</v>
+        <v>104.6519048932324</v>
       </c>
       <c r="L38" t="n">
-        <v>107.8588574971177</v>
+        <v>107.858857497118</v>
       </c>
       <c r="M38" t="n">
-        <v>121.5278605668778</v>
+        <v>121.5278605668781</v>
       </c>
       <c r="N38" t="n">
-        <v>123.7663156597022</v>
+        <v>123.7663156597025</v>
       </c>
       <c r="O38" t="n">
-        <v>111.8777457362453</v>
+        <v>118.0290669811532</v>
       </c>
       <c r="P38" t="n">
-        <v>459.3282522180201</v>
+        <v>269.8063445929243</v>
       </c>
       <c r="Q38" t="n">
-        <v>368.8502554258392</v>
+        <v>368.8502554258394</v>
       </c>
       <c r="R38" t="n">
-        <v>160.1979444739758</v>
+        <v>160.1979444739759</v>
       </c>
       <c r="S38" t="n">
-        <v>43.71869772268598</v>
+        <v>43.71869772268607</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -37631,7 +37631,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>31.22905778758219</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37640,7 +37640,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>31.22905778758207</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,13 +37701,13 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>139.5314474130143</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>142.353945069879</v>
       </c>
       <c r="M40" t="n">
-        <v>65.66336482389825</v>
+        <v>62.84086716703312</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -37774,37 +37774,37 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>66.19971911022127</v>
+        <v>66.19971911022122</v>
       </c>
       <c r="J41" t="n">
-        <v>334.147324687015</v>
+        <v>114.3217249633192</v>
       </c>
       <c r="K41" t="n">
-        <v>104.6519048932323</v>
+        <v>104.6519048932324</v>
       </c>
       <c r="L41" t="n">
-        <v>107.8588574971178</v>
+        <v>107.8588574971179</v>
       </c>
       <c r="M41" t="n">
-        <v>121.5278605668779</v>
+        <v>191.4943325795004</v>
       </c>
       <c r="N41" t="n">
-        <v>123.7663156597023</v>
+        <v>459.3282522180201</v>
       </c>
       <c r="O41" t="n">
-        <v>118.0290669811529</v>
+        <v>459.3282522180201</v>
       </c>
       <c r="P41" t="n">
-        <v>272.1334217439639</v>
+        <v>104.245184201567</v>
       </c>
       <c r="Q41" t="n">
-        <v>368.8502554258393</v>
+        <v>92.84076756796323</v>
       </c>
       <c r="R41" t="n">
-        <v>157.8708673229373</v>
+        <v>74.76659863909865</v>
       </c>
       <c r="S41" t="n">
-        <v>43.71869772268604</v>
+        <v>43.71869772268598</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -37862,10 +37862,10 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>31.22905778758225</v>
       </c>
       <c r="M42" t="n">
-        <v>31.22905778758208</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37926,19 +37926,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>50.20653419223373</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>61.50224759604911</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.47027774734708</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>12.0157527012828</v>
       </c>
       <c r="K43" t="n">
-        <v>205.1948122369122</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -38011,37 +38011,37 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>66.19971911022127</v>
+        <v>66.19971911022125</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>334.1473246870152</v>
       </c>
       <c r="K44" t="n">
-        <v>104.6519048932323</v>
+        <v>104.6519048932324</v>
       </c>
       <c r="L44" t="n">
-        <v>459.3282522180201</v>
+        <v>107.8588574971179</v>
       </c>
       <c r="M44" t="n">
-        <v>121.5278605668779</v>
+        <v>121.5278605668781</v>
       </c>
       <c r="N44" t="n">
-        <v>459.3282522180201</v>
+        <v>123.7663156597024</v>
       </c>
       <c r="O44" t="n">
-        <v>292.1470544730599</v>
+        <v>118.0290669811531</v>
       </c>
       <c r="P44" t="n">
-        <v>104.2451842015669</v>
+        <v>305.3801163907129</v>
       </c>
       <c r="Q44" t="n">
-        <v>92.84076756796318</v>
+        <v>368.8502554258393</v>
       </c>
       <c r="R44" t="n">
-        <v>74.76659863909866</v>
+        <v>135.4627332842254</v>
       </c>
       <c r="S44" t="n">
-        <v>43.71869772268604</v>
+        <v>32.88013711464861</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -38102,7 +38102,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>31.22905778758208</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38123,7 +38123,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>31.22905778758219</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -38151,16 +38151,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>49.28357859084511</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>65.66221419326672</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>66.71446433748727</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>23.53455511531311</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -38178,10 +38178,10 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>142.353945069879</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>62.84086716703353</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
